--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B63380B-4539-4087-8281-4FDDE6BB83B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647B6531-3CBB-4C70-9957-BE538AD11B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="1155" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="191">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1079,10 +1079,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Or_Outside_the_Contest</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Grt_Station</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1182,6 +1178,17 @@
   </si>
   <si>
     <t>あばあばば</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_A1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>よいどれ亭</t>
+    <rPh sb="4" eb="5">
+      <t>テイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1618,7 +1625,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>100</v>
@@ -3811,10 +3818,10 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" t="s">
         <v>169</v>
-      </c>
-      <c r="D19" t="s">
-        <v>170</v>
       </c>
       <c r="E19" t="s">
         <v>49</v>
@@ -3987,7 +3994,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>100</v>
@@ -6180,10 +6187,10 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" t="s">
         <v>169</v>
-      </c>
-      <c r="D19" t="s">
-        <v>170</v>
       </c>
       <c r="E19" t="s">
         <v>49</v>
@@ -6305,8 +6312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6356,7 +6363,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>100</v>
@@ -6461,7 +6468,7 @@
         <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -6581,10 +6588,10 @@
         <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -6704,10 +6711,10 @@
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
         <v>59</v>
@@ -6827,10 +6834,10 @@
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
         <v>59</v>
@@ -6953,7 +6960,7 @@
         <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
         <v>59</v>
@@ -7073,10 +7080,10 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
@@ -7196,10 +7203,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
         <v>59</v>
@@ -7319,10 +7326,10 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
         <v>59</v>
@@ -7565,10 +7572,10 @@
         <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
         <v>161</v>
@@ -8180,10 +8187,10 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
         <v>171</v>
-      </c>
-      <c r="D16" t="s">
-        <v>172</v>
       </c>
       <c r="E16" t="s">
         <v>49</v>
@@ -8303,7 +8310,7 @@
         <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
         <v>167</v>
@@ -8428,8 +8435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8479,7 +8486,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>100</v>
@@ -8584,7 +8591,7 @@
         <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
         <v>151</v>
@@ -8704,10 +8711,10 @@
         <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
         <v>151</v>
@@ -8827,10 +8834,10 @@
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
         <v>151</v>
@@ -8950,10 +8957,10 @@
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
         <v>151</v>
@@ -9076,7 +9083,7 @@
         <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" t="s">
         <v>151</v>
@@ -9196,10 +9203,10 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
         <v>151</v>
@@ -9319,10 +9326,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
         <v>151</v>
@@ -9442,10 +9449,10 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
         <v>151</v>
@@ -9688,10 +9695,10 @@
         <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
         <v>151</v>
@@ -10303,10 +10310,10 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
         <v>171</v>
-      </c>
-      <c r="D16" t="s">
-        <v>172</v>
       </c>
       <c r="E16" t="s">
         <v>151</v>
@@ -10426,7 +10433,7 @@
         <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
         <v>167</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647B6531-3CBB-4C70-9957-BE538AD11B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAC8B4F-4E5A-4FEA-9B55-3CB853FFC239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="198">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1189,6 +1189,52 @@
     <rPh sb="4" eb="5">
       <t>テイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_B1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_C1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_D1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夏エリアコンテスト会場</t>
+    <rPh sb="0" eb="1">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>秋エリアコンテスト会場</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冬エリアコンテスト会場</t>
+    <rPh sb="0" eb="1">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sakura_Forest</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6310,10 +6356,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6950,7 +6996,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A6">
-        <f t="shared" ref="A6:A17" si="0">ROW()-2+100</f>
+        <f t="shared" ref="A6:A20" si="0">ROW()-2+100</f>
         <v>104</v>
       </c>
       <c r="B6" t="s">
@@ -7224,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -7347,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -7941,7 +7987,7 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>163</v>
@@ -8421,6 +8467,375 @@
         <v>88</v>
       </c>
       <c r="AN17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y18">
+        <v>60</v>
+      </c>
+      <c r="Z18">
+        <v>25</v>
+      </c>
+      <c r="AA18">
+        <v>12</v>
+      </c>
+      <c r="AB18">
+        <v>3</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>95</v>
+      </c>
+      <c r="AJ18">
+        <v>5</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19">
+        <v>90</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" t="s">
+        <v>27</v>
+      </c>
+      <c r="U19" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" t="s">
+        <v>27</v>
+      </c>
+      <c r="W19" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y19">
+        <v>60</v>
+      </c>
+      <c r="Z19">
+        <v>25</v>
+      </c>
+      <c r="AA19">
+        <v>12</v>
+      </c>
+      <c r="AB19">
+        <v>3</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>95</v>
+      </c>
+      <c r="AJ19">
+        <v>5</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20">
+        <v>90</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" t="s">
+        <v>27</v>
+      </c>
+      <c r="U20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y20">
+        <v>60</v>
+      </c>
+      <c r="Z20">
+        <v>25</v>
+      </c>
+      <c r="AA20">
+        <v>12</v>
+      </c>
+      <c r="AB20">
+        <v>3</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>95</v>
+      </c>
+      <c r="AJ20">
+        <v>5</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN20">
         <v>1</v>
       </c>
     </row>
@@ -8433,10 +8848,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="AN18" sqref="AN18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9565,7 +9980,7 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A10">
-        <f t="shared" ref="A10:A17" si="1">ROW()-2+100</f>
+        <f t="shared" ref="A10:A20" si="1">ROW()-2+100</f>
         <v>108</v>
       </c>
       <c r="B10" t="s">
@@ -10544,6 +10959,375 @@
         <v>88</v>
       </c>
       <c r="AN17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y18">
+        <v>60</v>
+      </c>
+      <c r="Z18">
+        <v>25</v>
+      </c>
+      <c r="AA18">
+        <v>12</v>
+      </c>
+      <c r="AB18">
+        <v>3</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>95</v>
+      </c>
+      <c r="AJ18">
+        <v>5</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19">
+        <v>90</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" t="s">
+        <v>27</v>
+      </c>
+      <c r="U19" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" t="s">
+        <v>27</v>
+      </c>
+      <c r="W19" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y19">
+        <v>60</v>
+      </c>
+      <c r="Z19">
+        <v>25</v>
+      </c>
+      <c r="AA19">
+        <v>12</v>
+      </c>
+      <c r="AB19">
+        <v>3</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>95</v>
+      </c>
+      <c r="AJ19">
+        <v>5</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20">
+        <v>90</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" t="s">
+        <v>27</v>
+      </c>
+      <c r="U20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y20">
+        <v>60</v>
+      </c>
+      <c r="Z20">
+        <v>25</v>
+      </c>
+      <c r="AA20">
+        <v>12</v>
+      </c>
+      <c r="AB20">
+        <v>3</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>95</v>
+      </c>
+      <c r="AJ20">
+        <v>5</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN20">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAC8B4F-4E5A-4FEA-9B55-3CB853FFC239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BF8ABF-E7BB-4829-8B64-FD2550F64352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2310" yWindow="1305" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="198">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -995,10 +995,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Or_Emerald_Shop</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>オランジーナのヒカリの家</t>
     <rPh sb="11" eb="12">
       <t>イエ</t>
@@ -1177,10 +1173,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>あばあばば</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Or_Contest_A1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1235,6 +1227,14 @@
   </si>
   <si>
     <t>Sakura_Forest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Emerald_Shop</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オランジーナエメラルショップ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1621,7 +1621,7 @@
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1671,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>100</v>
@@ -1761,7 +1761,7 @@
         <v>87</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.4">
@@ -3741,10 +3741,10 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
@@ -3864,10 +3864,10 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" t="s">
         <v>168</v>
-      </c>
-      <c r="D19" t="s">
-        <v>169</v>
       </c>
       <c r="E19" t="s">
         <v>49</v>
@@ -4040,7 +4040,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>100</v>
@@ -4130,7 +4130,7 @@
         <v>87</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.4">
@@ -6110,10 +6110,10 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
@@ -6233,10 +6233,10 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" t="s">
         <v>168</v>
-      </c>
-      <c r="D19" t="s">
-        <v>169</v>
       </c>
       <c r="E19" t="s">
         <v>49</v>
@@ -6356,10 +6356,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
-  <dimension ref="A1:AN20"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6409,7 +6409,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>100</v>
@@ -6499,7 +6499,7 @@
         <v>87</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.4">
@@ -6511,10 +6511,10 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -6634,10 +6634,10 @@
         <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -6757,10 +6757,10 @@
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
         <v>59</v>
@@ -6880,10 +6880,10 @@
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
         <v>59</v>
@@ -6996,17 +6996,17 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A6">
-        <f t="shared" ref="A6:A20" si="0">ROW()-2+100</f>
+        <f t="shared" ref="A6:A21" si="0">ROW()-2+100</f>
         <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E6" t="s">
         <v>59</v>
@@ -7126,10 +7126,10 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
@@ -7249,10 +7249,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" t="s">
         <v>59</v>
@@ -7372,10 +7372,10 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
         <v>59</v>
@@ -7495,13 +7495,13 @@
         <v>124</v>
       </c>
       <c r="C10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" t="s">
         <v>160</v>
-      </c>
-      <c r="D10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" t="s">
-        <v>161</v>
       </c>
       <c r="F10">
         <v>30</v>
@@ -7513,10 +7513,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -7618,13 +7618,13 @@
         <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F11">
         <v>30</v>
@@ -7738,19 +7738,19 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -7807,16 +7807,16 @@
         <v>27</v>
       </c>
       <c r="Y12">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="Z12">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA12">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AB12">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -7861,25 +7861,25 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -7888,13 +7888,13 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>26</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N13" t="s">
         <v>27</v>
@@ -7924,22 +7924,22 @@
         <v>27</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="X13" t="s">
         <v>27</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z13">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -7960,19 +7960,19 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AJ13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -7984,19 +7984,19 @@
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -8017,22 +8017,22 @@
         <v>26</v>
       </c>
       <c r="M14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P14" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="Q14" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="R14" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="S14" t="s">
         <v>27</v>
@@ -8047,31 +8047,31 @@
         <v>27</v>
       </c>
       <c r="W14" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="X14" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="Y14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AA14">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -8083,19 +8083,19 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="AJ14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AK14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AM14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -8107,55 +8107,55 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="F15">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
         <v>26</v>
       </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P15" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="Q15" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="R15" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="S15" t="s">
         <v>27</v>
@@ -8170,31 +8170,31 @@
         <v>27</v>
       </c>
       <c r="W15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="X15" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="Y15">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="Z15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA15">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB15">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -8206,19 +8206,19 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AJ15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL15" t="s">
         <v>85</v>
       </c>
       <c r="AM15" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -8233,10 +8233,10 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
         <v>49</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -8353,13 +8353,13 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -8479,10 +8479,10 @@
         <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
@@ -8602,10 +8602,10 @@
         <v>124</v>
       </c>
       <c r="C19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" t="s">
         <v>192</v>
-      </c>
-      <c r="D19" t="s">
-        <v>195</v>
       </c>
       <c r="E19" t="s">
         <v>49</v>
@@ -8725,10 +8725,10 @@
         <v>124</v>
       </c>
       <c r="C20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" t="s">
         <v>193</v>
-      </c>
-      <c r="D20" t="s">
-        <v>196</v>
       </c>
       <c r="E20" t="s">
         <v>49</v>
@@ -8836,6 +8836,129 @@
         <v>88</v>
       </c>
       <c r="AN20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21">
+        <v>90</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" t="s">
+        <v>27</v>
+      </c>
+      <c r="U21" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" t="s">
+        <v>27</v>
+      </c>
+      <c r="W21" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y21">
+        <v>60</v>
+      </c>
+      <c r="Z21">
+        <v>25</v>
+      </c>
+      <c r="AA21">
+        <v>12</v>
+      </c>
+      <c r="AB21">
+        <v>3</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>95</v>
+      </c>
+      <c r="AJ21">
+        <v>5</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN21">
         <v>1</v>
       </c>
     </row>
@@ -8848,10 +8971,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
-  <dimension ref="A1:AN20"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AN18" sqref="AN18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8901,7 +9024,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>100</v>
@@ -8991,7 +9114,7 @@
         <v>87</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.4">
@@ -9003,10 +9126,10 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
         <v>151</v>
@@ -9126,10 +9249,10 @@
         <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
         <v>151</v>
@@ -9249,10 +9372,10 @@
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
         <v>151</v>
@@ -9372,10 +9495,10 @@
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
         <v>151</v>
@@ -9495,7 +9618,7 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
         <v>188</v>
@@ -9618,10 +9741,10 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
         <v>151</v>
@@ -9741,10 +9864,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" t="s">
         <v>151</v>
@@ -9762,7 +9885,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -9864,10 +9987,10 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
         <v>151</v>
@@ -9885,7 +10008,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -9980,17 +10103,17 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A10">
-        <f t="shared" ref="A10:A20" si="1">ROW()-2+100</f>
+        <f t="shared" ref="A10:A21" si="1">ROW()-2+100</f>
         <v>108</v>
       </c>
       <c r="B10" t="s">
         <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
         <v>151</v>
@@ -10005,10 +10128,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -10110,10 +10233,10 @@
         <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
         <v>151</v>
@@ -10230,19 +10353,19 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
         <v>151</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -10299,16 +10422,16 @@
         <v>27</v>
       </c>
       <c r="Y12">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="Z12">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA12">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AB12">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -10353,25 +10476,25 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
         <v>151</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -10380,13 +10503,13 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>26</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N13" t="s">
         <v>27</v>
@@ -10416,22 +10539,22 @@
         <v>27</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="X13" t="s">
         <v>27</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z13">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -10452,19 +10575,19 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AJ13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -10476,19 +10599,19 @@
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
         <v>151</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -10509,22 +10632,22 @@
         <v>26</v>
       </c>
       <c r="M14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P14" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="Q14" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="R14" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="S14" t="s">
         <v>27</v>
@@ -10539,31 +10662,31 @@
         <v>27</v>
       </c>
       <c r="W14" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="X14" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="Y14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AA14">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -10575,19 +10698,19 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="AJ14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AK14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AM14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -10599,25 +10722,25 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
         <v>151</v>
       </c>
       <c r="F15">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -10626,28 +10749,28 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
         <v>26</v>
       </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P15" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="Q15" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="R15" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="S15" t="s">
         <v>27</v>
@@ -10662,31 +10785,31 @@
         <v>27</v>
       </c>
       <c r="W15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="X15" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="Y15">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="Z15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA15">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB15">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -10698,19 +10821,19 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AJ15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL15" t="s">
         <v>85</v>
       </c>
       <c r="AM15" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -10725,10 +10848,10 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
         <v>151</v>
@@ -10743,10 +10866,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -10845,13 +10968,13 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E17" t="s">
         <v>151</v>
@@ -10971,13 +11094,13 @@
         <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="F18">
         <v>90</v>
@@ -11094,13 +11217,13 @@
         <v>124</v>
       </c>
       <c r="C19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" t="s">
         <v>192</v>
       </c>
-      <c r="D19" t="s">
-        <v>195</v>
-      </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="F19">
         <v>90</v>
@@ -11217,13 +11340,13 @@
         <v>124</v>
       </c>
       <c r="C20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" t="s">
         <v>193</v>
       </c>
-      <c r="D20" t="s">
-        <v>196</v>
-      </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="F20">
         <v>90</v>
@@ -11328,6 +11451,129 @@
         <v>88</v>
       </c>
       <c r="AN20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21">
+        <v>90</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" t="s">
+        <v>27</v>
+      </c>
+      <c r="U21" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" t="s">
+        <v>27</v>
+      </c>
+      <c r="W21" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y21">
+        <v>60</v>
+      </c>
+      <c r="Z21">
+        <v>25</v>
+      </c>
+      <c r="AA21">
+        <v>12</v>
+      </c>
+      <c r="AB21">
+        <v>3</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>95</v>
+      </c>
+      <c r="AJ21">
+        <v>5</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN21">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BF8ABF-E7BB-4829-8B64-FD2550F64352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD00CF0-C219-4029-8B73-2DA3B5EC8D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="1305" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -872,10 +872,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Ido_BG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Forest_BG</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1235,6 +1231,10 @@
   </si>
   <si>
     <t>オランジーナエメラルショップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MapBG_Ido</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1620,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1665,13 +1665,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>100</v>
@@ -1761,7 +1761,7 @@
         <v>87</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.4">
@@ -1776,7 +1776,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -1899,7 +1899,7 @@
         <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -2268,7 +2268,7 @@
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
         <v>96</v>
@@ -2448,7 +2448,7 @@
         <v>27</v>
       </c>
       <c r="W7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X7" t="s">
         <v>27</v>
@@ -2496,7 +2496,7 @@
         <v>91</v>
       </c>
       <c r="AM7" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>105</v>
       </c>
       <c r="R8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S8" t="s">
         <v>27</v>
@@ -2619,7 +2619,7 @@
         <v>85</v>
       </c>
       <c r="AM8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN8">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>85</v>
       </c>
       <c r="AM9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s">
         <v>71</v>
@@ -2817,7 +2817,7 @@
         <v>27</v>
       </c>
       <c r="W10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X10" t="s">
         <v>27</v>
@@ -2865,7 +2865,7 @@
         <v>85</v>
       </c>
       <c r="AM10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
         <v>104</v>
@@ -3168,7 +3168,7 @@
         <v>115</v>
       </c>
       <c r="Q13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R13" t="s">
         <v>27</v>
@@ -3186,10 +3186,10 @@
         <v>27</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y13">
         <v>48</v>
@@ -3234,7 +3234,7 @@
         <v>93</v>
       </c>
       <c r="AM13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -3312,7 +3312,7 @@
         <v>75</v>
       </c>
       <c r="X14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y14">
         <v>40</v>
@@ -3357,7 +3357,7 @@
         <v>89</v>
       </c>
       <c r="AM14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>77</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q15" t="s">
         <v>27</v>
@@ -3480,7 +3480,7 @@
         <v>90</v>
       </c>
       <c r="AM15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -3741,10 +3741,10 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
@@ -3864,10 +3864,10 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" t="s">
         <v>167</v>
-      </c>
-      <c r="D19" t="s">
-        <v>168</v>
       </c>
       <c r="E19" t="s">
         <v>49</v>
@@ -3989,8 +3989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0794BECB-8045-468B-952A-D5CA5B535CCB}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4034,13 +4034,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>100</v>
@@ -4130,7 +4130,7 @@
         <v>87</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.4">
@@ -4145,10 +4145,10 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -4268,10 +4268,10 @@
         <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -4394,7 +4394,7 @@
         <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -4517,7 +4517,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -4637,10 +4637,10 @@
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -4763,7 +4763,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>27</v>
       </c>
       <c r="W7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X7" t="s">
         <v>27</v>
@@ -4865,7 +4865,7 @@
         <v>91</v>
       </c>
       <c r="AM7" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -4886,7 +4886,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -4925,7 +4925,7 @@
         <v>105</v>
       </c>
       <c r="R8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S8" t="s">
         <v>33</v>
@@ -4988,7 +4988,7 @@
         <v>85</v>
       </c>
       <c r="AM8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN8">
         <v>0</v>
@@ -5009,7 +5009,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -5051,7 +5051,7 @@
         <v>102</v>
       </c>
       <c r="S9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T9" t="s">
         <v>27</v>
@@ -5111,7 +5111,7 @@
         <v>85</v>
       </c>
       <c r="AM9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -5132,7 +5132,7 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10">
         <v>12</v>
@@ -5162,7 +5162,7 @@
         <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s">
         <v>71</v>
@@ -5171,7 +5171,7 @@
         <v>105</v>
       </c>
       <c r="R10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S10" t="s">
         <v>27</v>
@@ -5186,7 +5186,7 @@
         <v>27</v>
       </c>
       <c r="W10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X10" t="s">
         <v>27</v>
@@ -5234,7 +5234,7 @@
         <v>85</v>
       </c>
       <c r="AM10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -5378,7 +5378,7 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -5498,10 +5498,10 @@
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -5537,16 +5537,16 @@
         <v>115</v>
       </c>
       <c r="Q13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>
@@ -5555,10 +5555,10 @@
         <v>27</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y13">
         <v>25</v>
@@ -5603,7 +5603,7 @@
         <v>93</v>
       </c>
       <c r="AM13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -5681,7 +5681,7 @@
         <v>75</v>
       </c>
       <c r="X14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y14">
         <v>40</v>
@@ -5726,7 +5726,7 @@
         <v>89</v>
       </c>
       <c r="AM14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -5747,7 +5747,7 @@
         <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -5774,13 +5774,13 @@
         <v>77</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q15" t="s">
         <v>27</v>
@@ -5849,7 +5849,7 @@
         <v>90</v>
       </c>
       <c r="AM15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -5870,7 +5870,7 @@
         <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F16">
         <v>18</v>
@@ -5993,7 +5993,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17">
         <v>18</v>
@@ -6110,10 +6110,10 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
@@ -6233,10 +6233,10 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" t="s">
         <v>167</v>
-      </c>
-      <c r="D19" t="s">
-        <v>168</v>
       </c>
       <c r="E19" t="s">
         <v>49</v>
@@ -6358,8 +6358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AM13" sqref="AM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6403,13 +6403,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>100</v>
@@ -6499,7 +6499,7 @@
         <v>87</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.4">
@@ -6511,10 +6511,10 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -6634,10 +6634,10 @@
         <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -6757,10 +6757,10 @@
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
         <v>59</v>
@@ -6880,10 +6880,10 @@
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
         <v>59</v>
@@ -7003,10 +7003,10 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" t="s">
         <v>59</v>
@@ -7126,10 +7126,10 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
@@ -7249,10 +7249,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
         <v>59</v>
@@ -7372,10 +7372,10 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" t="s">
         <v>59</v>
@@ -7495,13 +7495,13 @@
         <v>124</v>
       </c>
       <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" t="s">
         <v>159</v>
-      </c>
-      <c r="D10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" t="s">
-        <v>160</v>
       </c>
       <c r="F10">
         <v>30</v>
@@ -7618,13 +7618,13 @@
         <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11">
         <v>30</v>
@@ -7864,10 +7864,10 @@
         <v>97</v>
       </c>
       <c r="C13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" t="s">
         <v>196</v>
-      </c>
-      <c r="D13" t="s">
-        <v>197</v>
       </c>
       <c r="E13" t="s">
         <v>96</v>
@@ -7990,7 +7990,7 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14" t="s">
         <v>54</v>
@@ -8047,7 +8047,7 @@
         <v>27</v>
       </c>
       <c r="W14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X14" t="s">
         <v>27</v>
@@ -8095,7 +8095,7 @@
         <v>91</v>
       </c>
       <c r="AM14" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
         <v>118</v>
@@ -8155,7 +8155,7 @@
         <v>105</v>
       </c>
       <c r="R15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S15" t="s">
         <v>27</v>
@@ -8218,7 +8218,7 @@
         <v>85</v>
       </c>
       <c r="AM15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -8233,10 +8233,10 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
         <v>49</v>
@@ -8356,10 +8356,10 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" t="s">
         <v>169</v>
-      </c>
-      <c r="D17" t="s">
-        <v>170</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -8479,10 +8479,10 @@
         <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
@@ -8602,10 +8602,10 @@
         <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
         <v>49</v>
@@ -8725,10 +8725,10 @@
         <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E20" t="s">
         <v>49</v>
@@ -8848,10 +8848,10 @@
         <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" t="s">
         <v>49</v>
@@ -8973,8 +8973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9018,13 +9018,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>100</v>
@@ -9114,7 +9114,7 @@
         <v>87</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.4">
@@ -9126,13 +9126,13 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -9249,13 +9249,13 @@
         <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -9372,13 +9372,13 @@
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -9495,13 +9495,13 @@
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -9618,13 +9618,13 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -9741,13 +9741,13 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -9864,13 +9864,13 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -9987,13 +9987,13 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -10110,13 +10110,13 @@
         <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10">
         <v>30</v>
@@ -10233,13 +10233,13 @@
         <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11">
         <v>30</v>
@@ -10362,7 +10362,7 @@
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -10479,13 +10479,13 @@
         <v>97</v>
       </c>
       <c r="C13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" t="s">
         <v>196</v>
       </c>
-      <c r="D13" t="s">
-        <v>197</v>
-      </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13">
         <v>30</v>
@@ -10605,10 +10605,10 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -10662,7 +10662,7 @@
         <v>27</v>
       </c>
       <c r="W14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X14" t="s">
         <v>27</v>
@@ -10710,7 +10710,7 @@
         <v>91</v>
       </c>
       <c r="AM14" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -10725,13 +10725,13 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F15">
         <v>15</v>
@@ -10770,7 +10770,7 @@
         <v>105</v>
       </c>
       <c r="R15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S15" t="s">
         <v>27</v>
@@ -10833,7 +10833,7 @@
         <v>85</v>
       </c>
       <c r="AM15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -10848,13 +10848,13 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F16">
         <v>90</v>
@@ -10971,13 +10971,13 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" t="s">
         <v>169</v>
       </c>
-      <c r="D17" t="s">
-        <v>170</v>
-      </c>
       <c r="E17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17">
         <v>90</v>
@@ -11094,13 +11094,13 @@
         <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18">
         <v>90</v>
@@ -11217,13 +11217,13 @@
         <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F19">
         <v>90</v>
@@ -11340,13 +11340,13 @@
         <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F20">
         <v>90</v>
@@ -11463,13 +11463,13 @@
         <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F21">
         <v>90</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D30B06-2B6C-45C4-962E-37FF8C5F5EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34541B4-DF68-4A96-A976-EBDB1A174077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1305" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1665" yWindow="1110" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="201">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1243,6 +1243,16 @@
   </si>
   <si>
     <t>sakura_chip</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>春の牧場</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ボクジョウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6368,7 +6378,7 @@
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="D12" sqref="D12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7753,7 +7763,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
@@ -7768,10 +7778,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -8983,7 +8993,7 @@
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10368,7 +10378,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E12" t="s">
         <v>143</v>
@@ -10383,10 +10393,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34541B4-DF68-4A96-A976-EBDB1A174077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7A355C-1F5B-44B4-B255-FB55B1C94F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="1110" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2640" yWindow="540" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="203">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1253,6 +1253,14 @@
     <rPh sb="2" eb="4">
       <t>ボクジョウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>place_category</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Farm</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1636,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="L1" sqref="L1:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1650,17 +1658,17 @@
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="8" width="8.125" customWidth="1"/>
-    <col min="9" max="11" width="6.75" customWidth="1"/>
-    <col min="12" max="12" width="7.125" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1"/>
-    <col min="21" max="21" width="10.25" customWidth="1"/>
-    <col min="23" max="23" width="14.5" customWidth="1"/>
-    <col min="24" max="24" width="14.125" customWidth="1"/>
-    <col min="35" max="36" width="14" customWidth="1"/>
-    <col min="37" max="37" width="13.625" customWidth="1"/>
+    <col min="9" max="12" width="6.75" customWidth="1"/>
+    <col min="13" max="13" width="7.125" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
+    <col min="22" max="22" width="10.25" customWidth="1"/>
+    <col min="24" max="24" width="14.5" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="36" max="37" width="14" customWidth="1"/>
+    <col min="38" max="38" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1695,94 +1703,97 @@
         <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A19" si="0">ROW()-2</f>
         <v>0</v>
@@ -1817,12 +1828,12 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
       <c r="N2" t="s">
         <v>27</v>
       </c>
@@ -1856,11 +1867,11 @@
       <c r="X2" t="s">
         <v>27</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2">
         <v>10</v>
-      </c>
-      <c r="Z2">
-        <v>30</v>
       </c>
       <c r="AA2">
         <v>30</v>
@@ -1869,7 +1880,7 @@
         <v>30</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1887,25 +1898,28 @@
         <v>0</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>95</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>5</v>
       </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>91</v>
+      <c r="AL2">
+        <v>0</v>
       </c>
       <c r="AM2" t="s">
         <v>91</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1940,12 +1954,12 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
       <c r="N3" t="s">
         <v>27</v>
       </c>
@@ -1979,11 +1993,11 @@
       <c r="X3" t="s">
         <v>27</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3">
         <v>10</v>
-      </c>
-      <c r="Z3">
-        <v>30</v>
       </c>
       <c r="AA3">
         <v>30</v>
@@ -1992,7 +2006,7 @@
         <v>30</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -2010,25 +2024,28 @@
         <v>0</v>
       </c>
       <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>95</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>5</v>
       </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>27</v>
+      <c r="AL3">
+        <v>0</v>
       </c>
       <c r="AM3" t="s">
         <v>27</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2063,12 +2080,12 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
       <c r="N4" t="s">
         <v>27</v>
       </c>
@@ -2102,11 +2119,11 @@
       <c r="X4" t="s">
         <v>27</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4">
         <v>10</v>
-      </c>
-      <c r="Z4">
-        <v>30</v>
       </c>
       <c r="AA4">
         <v>30</v>
@@ -2115,7 +2132,7 @@
         <v>30</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -2133,25 +2150,28 @@
         <v>0</v>
       </c>
       <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>95</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>5</v>
       </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>91</v>
+      <c r="AL4">
+        <v>0</v>
       </c>
       <c r="AM4" t="s">
         <v>91</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2186,12 +2206,12 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>26</v>
       </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
       <c r="N5" t="s">
         <v>27</v>
       </c>
@@ -2225,21 +2245,21 @@
       <c r="X5" t="s">
         <v>27</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5">
         <v>60</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>25</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>12</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>3</v>
       </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
       <c r="AD5">
         <v>0</v>
       </c>
@@ -2256,25 +2276,28 @@
         <v>0</v>
       </c>
       <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>95</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>5</v>
       </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>91</v>
+      <c r="AL5">
+        <v>0</v>
       </c>
       <c r="AM5" t="s">
         <v>91</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2309,12 +2332,12 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>26</v>
       </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
       <c r="N6" t="s">
         <v>27</v>
       </c>
@@ -2348,11 +2371,11 @@
       <c r="X6" t="s">
         <v>27</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6">
         <v>10</v>
-      </c>
-      <c r="Z6">
-        <v>30</v>
       </c>
       <c r="AA6">
         <v>30</v>
@@ -2361,7 +2384,7 @@
         <v>30</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -2379,25 +2402,28 @@
         <v>0</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>95</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>5</v>
       </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>27</v>
+      <c r="AL6">
+        <v>0</v>
       </c>
       <c r="AM6" t="s">
         <v>27</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2432,15 +2458,15 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>36</v>
       </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
       <c r="O7" t="s">
         <v>27</v>
       </c>
@@ -2466,20 +2492,20 @@
         <v>27</v>
       </c>
       <c r="W7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" t="s">
         <v>142</v>
       </c>
-      <c r="X7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
+      <c r="Y7" t="s">
+        <v>27</v>
       </c>
       <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
         <v>100</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
       <c r="AB7">
         <v>0</v>
       </c>
@@ -2502,25 +2528,28 @@
         <v>0</v>
       </c>
       <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>98</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>2</v>
       </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="s">
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="s">
         <v>90</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>190</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2555,30 +2584,30 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>26</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>28</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>29</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>25</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>104</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>140</v>
       </c>
-      <c r="S8" t="s">
-        <v>27</v>
-      </c>
       <c r="T8" t="s">
         <v>27</v>
       </c>
@@ -2589,35 +2618,35 @@
         <v>27</v>
       </c>
       <c r="W8" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" t="s">
         <v>33</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>84</v>
-      </c>
-      <c r="Y8">
-        <v>20</v>
       </c>
       <c r="Z8">
         <v>20</v>
       </c>
       <c r="AA8">
+        <v>20</v>
+      </c>
+      <c r="AB8">
         <v>17</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>13</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>8</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>15</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>7</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
       <c r="AG8">
         <v>0</v>
       </c>
@@ -2625,25 +2654,28 @@
         <v>0</v>
       </c>
       <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>83</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>10</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>7</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>85</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>192</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2678,30 +2710,30 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>26</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>80</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>74</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>25</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>71</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>100</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>101</v>
       </c>
-      <c r="S9" t="s">
-        <v>27</v>
-      </c>
       <c r="T9" t="s">
         <v>27</v>
       </c>
@@ -2712,35 +2744,35 @@
         <v>27</v>
       </c>
       <c r="W9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" t="s">
         <v>81</v>
       </c>
-      <c r="X9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y9">
+      <c r="Y9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9">
         <v>19</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>20</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>18</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>8</v>
-      </c>
-      <c r="AC9">
-        <v>10</v>
       </c>
       <c r="AD9">
         <v>10</v>
       </c>
       <c r="AE9">
+        <v>10</v>
+      </c>
+      <c r="AF9">
         <v>15</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
       <c r="AG9">
         <v>0</v>
       </c>
@@ -2748,25 +2780,28 @@
         <v>0</v>
       </c>
       <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>90</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>10</v>
       </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="s">
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="s">
         <v>85</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>191</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2801,27 +2836,27 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>26</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>28</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>111</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>129</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>104</v>
       </c>
-      <c r="R10" t="s">
-        <v>27</v>
-      </c>
       <c r="S10" t="s">
         <v>27</v>
       </c>
@@ -2835,32 +2870,32 @@
         <v>27</v>
       </c>
       <c r="W10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10" t="s">
         <v>134</v>
       </c>
-      <c r="X10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y10">
+      <c r="Y10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z10">
         <v>20</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>12</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>10</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>5</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>40</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>13</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
       <c r="AF10">
         <v>0</v>
       </c>
@@ -2871,25 +2906,28 @@
         <v>0</v>
       </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>90</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>10</v>
       </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="s">
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="s">
         <v>85</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>193</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2924,27 +2962,27 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
         <v>26</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>82</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>109</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>110</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>113</v>
       </c>
-      <c r="R11" t="s">
-        <v>27</v>
-      </c>
       <c r="S11" t="s">
         <v>27</v>
       </c>
@@ -2958,19 +2996,19 @@
         <v>27</v>
       </c>
       <c r="W11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" t="s">
         <v>73</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>112</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>40</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>20</v>
-      </c>
-      <c r="AA11">
-        <v>10</v>
       </c>
       <c r="AB11">
         <v>10</v>
@@ -2982,7 +3020,7 @@
         <v>10</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2994,25 +3032,28 @@
         <v>0</v>
       </c>
       <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>87</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>10</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>3</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>85</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
         <v>194</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3047,21 +3088,21 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
         <v>26</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>23</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>24</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>25</v>
       </c>
-      <c r="P12" t="s">
-        <v>27</v>
-      </c>
       <c r="Q12" t="s">
         <v>27</v>
       </c>
@@ -3086,21 +3127,21 @@
       <c r="X12" t="s">
         <v>27</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z12">
         <v>60</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>25</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>12</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>3</v>
       </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
       <c r="AD12">
         <v>0</v>
       </c>
@@ -3117,25 +3158,28 @@
         <v>0</v>
       </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>95</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>5</v>
       </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="s">
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="s">
         <v>85</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
         <v>194</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3170,27 +3214,27 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
         <v>26</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>83</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>74</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>36</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>114</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>129</v>
       </c>
-      <c r="R13" t="s">
-        <v>27</v>
-      </c>
       <c r="S13" t="s">
         <v>27</v>
       </c>
@@ -3204,32 +3248,32 @@
         <v>27</v>
       </c>
       <c r="W13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" t="s">
         <v>128</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>137</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>48</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>15</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>2</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>12</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>13</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>10</v>
       </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
       <c r="AF13">
         <v>0</v>
       </c>
@@ -3240,25 +3284,28 @@
         <v>0</v>
       </c>
       <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>83</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>10</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>7</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>92</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>195</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3293,24 +3340,24 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
         <v>26</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>73</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>82</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>74</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>111</v>
       </c>
-      <c r="Q14" t="s">
-        <v>27</v>
-      </c>
       <c r="R14" t="s">
         <v>27</v>
       </c>
@@ -3327,29 +3374,29 @@
         <v>27</v>
       </c>
       <c r="W14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" t="s">
         <v>75</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>139</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>40</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>35</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>10</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>5</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>10</v>
       </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
       <c r="AE14">
         <v>0</v>
       </c>
@@ -3363,25 +3410,28 @@
         <v>0</v>
       </c>
       <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>83</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>10</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>7</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>88</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>196</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3416,24 +3466,24 @@
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
         <v>26</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>77</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>133</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>130</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>138</v>
       </c>
-      <c r="Q15" t="s">
-        <v>27</v>
-      </c>
       <c r="R15" t="s">
         <v>27</v>
       </c>
@@ -3455,24 +3505,24 @@
       <c r="X15" t="s">
         <v>27</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z15">
         <v>40</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>30</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>15</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>5</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>10</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
       <c r="AE15">
         <v>0</v>
       </c>
@@ -3486,25 +3536,28 @@
         <v>0</v>
       </c>
       <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>97</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>3</v>
       </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="s">
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="s">
         <v>89</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>197</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3539,21 +3592,21 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
         <v>26</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>23</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>24</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>25</v>
       </c>
-      <c r="P16" t="s">
-        <v>27</v>
-      </c>
       <c r="Q16" t="s">
         <v>27</v>
       </c>
@@ -3578,21 +3631,21 @@
       <c r="X16" t="s">
         <v>27</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z16">
         <v>60</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>25</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>12</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>3</v>
       </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
       <c r="AD16">
         <v>0</v>
       </c>
@@ -3609,25 +3662,28 @@
         <v>0</v>
       </c>
       <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>95</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>5</v>
       </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="s">
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="s">
         <v>85</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>194</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3662,21 +3718,21 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
         <v>26</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>23</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>24</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>25</v>
       </c>
-      <c r="P17" t="s">
-        <v>27</v>
-      </c>
       <c r="Q17" t="s">
         <v>27</v>
       </c>
@@ -3701,21 +3757,21 @@
       <c r="X17" t="s">
         <v>27</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z17">
         <v>60</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>25</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>12</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>3</v>
       </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
       <c r="AD17">
         <v>0</v>
       </c>
@@ -3732,25 +3788,28 @@
         <v>0</v>
       </c>
       <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>95</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>5</v>
       </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="s">
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="s">
         <v>85</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>194</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3785,12 +3844,12 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
         <v>26</v>
       </c>
-      <c r="M18" t="s">
-        <v>27</v>
-      </c>
       <c r="N18" t="s">
         <v>27</v>
       </c>
@@ -3824,21 +3883,21 @@
       <c r="X18" t="s">
         <v>27</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z18">
         <v>60</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>25</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>12</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>3</v>
       </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
       <c r="AD18">
         <v>0</v>
       </c>
@@ -3855,25 +3914,28 @@
         <v>0</v>
       </c>
       <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <v>95</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>5</v>
       </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="s">
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="s">
         <v>85</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
         <v>194</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3908,12 +3970,12 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
         <v>26</v>
       </c>
-      <c r="M19" t="s">
-        <v>27</v>
-      </c>
       <c r="N19" t="s">
         <v>27</v>
       </c>
@@ -3947,21 +4009,21 @@
       <c r="X19" t="s">
         <v>27</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z19">
         <v>60</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>25</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>12</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>3</v>
       </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
       <c r="AD19">
         <v>0</v>
       </c>
@@ -3978,21 +4040,24 @@
         <v>0</v>
       </c>
       <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>95</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>5</v>
       </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="s">
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="s">
         <v>85</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AN19" t="s">
         <v>194</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>1</v>
       </c>
     </row>
@@ -4005,10 +4070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0794BECB-8045-468B-952A-D5CA5B535CCB}">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4019,18 +4084,18 @@
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="8" width="8.125" customWidth="1"/>
-    <col min="9" max="11" width="6.75" customWidth="1"/>
-    <col min="12" max="12" width="7.125" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1"/>
-    <col min="21" max="21" width="10.25" customWidth="1"/>
-    <col min="23" max="23" width="14.5" customWidth="1"/>
-    <col min="24" max="24" width="14.125" customWidth="1"/>
-    <col min="35" max="36" width="14" customWidth="1"/>
-    <col min="37" max="37" width="13.625" customWidth="1"/>
-    <col min="39" max="39" width="13" customWidth="1"/>
+    <col min="9" max="12" width="6.75" customWidth="1"/>
+    <col min="13" max="13" width="7.125" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
+    <col min="22" max="22" width="10.25" customWidth="1"/>
+    <col min="24" max="24" width="14.5" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="36" max="37" width="14" customWidth="1"/>
+    <col min="38" max="38" width="13.625" customWidth="1"/>
+    <col min="40" max="40" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4065,94 +4130,97 @@
         <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-2</f>
         <v>0</v>
@@ -4187,12 +4255,12 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
       <c r="N2" t="s">
         <v>27</v>
       </c>
@@ -4226,11 +4294,11 @@
       <c r="X2" t="s">
         <v>27</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2">
         <v>10</v>
-      </c>
-      <c r="Z2">
-        <v>30</v>
       </c>
       <c r="AA2">
         <v>30</v>
@@ -4239,7 +4307,7 @@
         <v>30</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -4257,25 +4325,28 @@
         <v>0</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>95</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>5</v>
       </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>27</v>
+      <c r="AL2">
+        <v>0</v>
       </c>
       <c r="AM2" t="s">
         <v>27</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" ref="A3:A19" si="0">ROW()-2</f>
         <v>1</v>
@@ -4310,12 +4381,12 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
       <c r="N3" t="s">
         <v>27</v>
       </c>
@@ -4349,11 +4420,11 @@
       <c r="X3" t="s">
         <v>27</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3">
         <v>10</v>
-      </c>
-      <c r="Z3">
-        <v>30</v>
       </c>
       <c r="AA3">
         <v>30</v>
@@ -4362,7 +4433,7 @@
         <v>30</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -4380,25 +4451,28 @@
         <v>0</v>
       </c>
       <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>95</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>5</v>
       </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>27</v>
+      <c r="AL3">
+        <v>0</v>
       </c>
       <c r="AM3" t="s">
         <v>27</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4433,12 +4507,12 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
       <c r="N4" t="s">
         <v>27</v>
       </c>
@@ -4472,11 +4546,11 @@
       <c r="X4" t="s">
         <v>27</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4">
         <v>10</v>
-      </c>
-      <c r="Z4">
-        <v>30</v>
       </c>
       <c r="AA4">
         <v>30</v>
@@ -4485,7 +4559,7 @@
         <v>30</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -4503,25 +4577,28 @@
         <v>0</v>
       </c>
       <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>95</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>5</v>
       </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>27</v>
+      <c r="AL4">
+        <v>0</v>
       </c>
       <c r="AM4" t="s">
         <v>27</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4556,12 +4633,12 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>26</v>
       </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
       <c r="N5" t="s">
         <v>27</v>
       </c>
@@ -4595,21 +4672,21 @@
       <c r="X5" t="s">
         <v>27</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5">
         <v>60</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>25</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>12</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>3</v>
       </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
       <c r="AD5">
         <v>0</v>
       </c>
@@ -4626,25 +4703,28 @@
         <v>0</v>
       </c>
       <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>95</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>5</v>
       </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>27</v>
+      <c r="AL5">
+        <v>0</v>
       </c>
       <c r="AM5" t="s">
         <v>27</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4679,12 +4759,12 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>26</v>
       </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
       <c r="N6" t="s">
         <v>27</v>
       </c>
@@ -4718,11 +4798,11 @@
       <c r="X6" t="s">
         <v>27</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6">
         <v>10</v>
-      </c>
-      <c r="Z6">
-        <v>30</v>
       </c>
       <c r="AA6">
         <v>30</v>
@@ -4731,7 +4811,7 @@
         <v>30</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -4749,25 +4829,28 @@
         <v>0</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>95</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>5</v>
       </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>27</v>
+      <c r="AL6">
+        <v>0</v>
       </c>
       <c r="AM6" t="s">
         <v>27</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4802,15 +4885,15 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>36</v>
       </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
       <c r="O7" t="s">
         <v>27</v>
       </c>
@@ -4836,20 +4919,20 @@
         <v>27</v>
       </c>
       <c r="W7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" t="s">
         <v>142</v>
       </c>
-      <c r="X7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
+      <c r="Y7" t="s">
+        <v>27</v>
       </c>
       <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
         <v>100</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
       <c r="AB7">
         <v>0</v>
       </c>
@@ -4872,25 +4955,28 @@
         <v>0</v>
       </c>
       <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>98</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>2</v>
       </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="s">
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="s">
         <v>90</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>190</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4925,95 +5011,98 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>26</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>28</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>29</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>25</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>104</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>140</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>33</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>84</v>
       </c>
-      <c r="U8" t="s">
-        <v>27</v>
-      </c>
       <c r="V8" t="s">
         <v>27</v>
       </c>
       <c r="W8" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" t="s">
         <v>33</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>84</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>20</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>15</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>12</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>13</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>8</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>10</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>7</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>10</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>5</v>
       </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
       <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>83</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>10</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>7</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>85</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>192</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5048,33 +5137,33 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>26</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>80</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>74</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>25</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>71</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>100</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>101</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>145</v>
       </c>
-      <c r="T9" t="s">
-        <v>27</v>
-      </c>
       <c r="U9" t="s">
         <v>27</v>
       </c>
@@ -5082,61 +5171,64 @@
         <v>27</v>
       </c>
       <c r="W9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" t="s">
         <v>81</v>
       </c>
-      <c r="X9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y9">
+      <c r="Y9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9">
         <v>19</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>12</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
       <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
         <v>4</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>10</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>30</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>13</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>12</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>90</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>10</v>
       </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="s">
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="s">
         <v>85</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>191</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5171,30 +5263,30 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>26</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>28</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>111</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>129</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>104</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>145</v>
       </c>
-      <c r="S10" t="s">
-        <v>27</v>
-      </c>
       <c r="T10" t="s">
         <v>27</v>
       </c>
@@ -5205,35 +5297,35 @@
         <v>27</v>
       </c>
       <c r="W10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10" t="s">
         <v>134</v>
       </c>
-      <c r="X10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y10">
+      <c r="Y10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z10">
         <v>20</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>12</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>10</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>5</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>30</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>13</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>10</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
       <c r="AG10">
         <v>0</v>
       </c>
@@ -5241,25 +5333,28 @@
         <v>0</v>
       </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>90</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>10</v>
       </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="s">
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="s">
         <v>85</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>193</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5294,30 +5389,30 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
         <v>26</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>82</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>109</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>110</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>113</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>112</v>
       </c>
-      <c r="S11" t="s">
-        <v>27</v>
-      </c>
       <c r="T11" t="s">
         <v>27</v>
       </c>
@@ -5328,19 +5423,19 @@
         <v>27</v>
       </c>
       <c r="W11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" t="s">
         <v>73</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>112</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>40</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>20</v>
-      </c>
-      <c r="AA11">
-        <v>10</v>
       </c>
       <c r="AB11">
         <v>10</v>
@@ -5349,14 +5444,14 @@
         <v>10</v>
       </c>
       <c r="AD11">
+        <v>10</v>
+      </c>
+      <c r="AE11">
         <v>7</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>3</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
       <c r="AG11">
         <v>0</v>
       </c>
@@ -5364,25 +5459,28 @@
         <v>0</v>
       </c>
       <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>87</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>10</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>3</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>85</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
         <v>194</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5417,21 +5515,21 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
         <v>26</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>23</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>24</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>25</v>
       </c>
-      <c r="P12" t="s">
-        <v>27</v>
-      </c>
       <c r="Q12" t="s">
         <v>27</v>
       </c>
@@ -5456,21 +5554,21 @@
       <c r="X12" t="s">
         <v>27</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z12">
         <v>60</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>25</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>12</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>3</v>
       </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
       <c r="AD12">
         <v>0</v>
       </c>
@@ -5487,25 +5585,28 @@
         <v>0</v>
       </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>95</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>5</v>
       </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="s">
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="s">
         <v>85</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
         <v>194</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5540,95 +5641,98 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
         <v>26</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>83</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>74</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>36</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>114</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>129</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>128</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>137</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>144</v>
       </c>
-      <c r="U13" t="s">
-        <v>27</v>
-      </c>
       <c r="V13" t="s">
         <v>27</v>
       </c>
       <c r="W13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" t="s">
         <v>128</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>137</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>25</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>33</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>2</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>12</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>13</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>8</v>
-      </c>
-      <c r="AE13">
-        <v>5</v>
       </c>
       <c r="AF13">
         <v>5</v>
       </c>
       <c r="AG13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>83</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>10</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>7</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>92</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>195</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5663,24 +5767,24 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
         <v>26</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>73</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>82</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>74</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>111</v>
       </c>
-      <c r="Q14" t="s">
-        <v>27</v>
-      </c>
       <c r="R14" t="s">
         <v>27</v>
       </c>
@@ -5697,29 +5801,29 @@
         <v>27</v>
       </c>
       <c r="W14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" t="s">
         <v>75</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>139</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>40</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>35</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>10</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>5</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>10</v>
       </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
       <c r="AE14">
         <v>0</v>
       </c>
@@ -5733,25 +5837,28 @@
         <v>0</v>
       </c>
       <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>83</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>10</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>7</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>88</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>196</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5786,24 +5893,24 @@
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
         <v>26</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>77</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>133</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>130</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>138</v>
       </c>
-      <c r="Q15" t="s">
-        <v>27</v>
-      </c>
       <c r="R15" t="s">
         <v>27</v>
       </c>
@@ -5825,24 +5932,24 @@
       <c r="X15" t="s">
         <v>27</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z15">
         <v>40</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>30</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>15</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>5</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>10</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
       <c r="AE15">
         <v>0</v>
       </c>
@@ -5856,25 +5963,28 @@
         <v>0</v>
       </c>
       <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>97</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>3</v>
       </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="s">
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="s">
         <v>89</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>197</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5909,21 +6019,21 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
         <v>26</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>23</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>24</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>25</v>
       </c>
-      <c r="P16" t="s">
-        <v>27</v>
-      </c>
       <c r="Q16" t="s">
         <v>27</v>
       </c>
@@ -5948,21 +6058,21 @@
       <c r="X16" t="s">
         <v>27</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z16">
         <v>60</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>25</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>12</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>3</v>
       </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
       <c r="AD16">
         <v>0</v>
       </c>
@@ -5979,25 +6089,28 @@
         <v>0</v>
       </c>
       <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>95</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>5</v>
       </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="s">
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="s">
         <v>85</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>194</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6032,21 +6145,21 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
         <v>26</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>23</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>24</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>25</v>
       </c>
-      <c r="P17" t="s">
-        <v>27</v>
-      </c>
       <c r="Q17" t="s">
         <v>27</v>
       </c>
@@ -6071,21 +6184,21 @@
       <c r="X17" t="s">
         <v>27</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z17">
         <v>60</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>25</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>12</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>3</v>
       </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
       <c r="AD17">
         <v>0</v>
       </c>
@@ -6102,25 +6215,28 @@
         <v>0</v>
       </c>
       <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>95</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>5</v>
       </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="s">
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="s">
         <v>85</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>194</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6155,12 +6271,12 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
         <v>26</v>
       </c>
-      <c r="M18" t="s">
-        <v>27</v>
-      </c>
       <c r="N18" t="s">
         <v>27</v>
       </c>
@@ -6194,21 +6310,21 @@
       <c r="X18" t="s">
         <v>27</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z18">
         <v>60</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>25</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>12</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>3</v>
       </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
       <c r="AD18">
         <v>0</v>
       </c>
@@ -6225,25 +6341,28 @@
         <v>0</v>
       </c>
       <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <v>95</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>5</v>
       </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="s">
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="s">
         <v>85</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
         <v>194</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6278,12 +6397,12 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
         <v>26</v>
       </c>
-      <c r="M19" t="s">
-        <v>27</v>
-      </c>
       <c r="N19" t="s">
         <v>27</v>
       </c>
@@ -6317,21 +6436,21 @@
       <c r="X19" t="s">
         <v>27</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z19">
         <v>60</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>25</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>12</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>3</v>
       </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
       <c r="AD19">
         <v>0</v>
       </c>
@@ -6348,21 +6467,24 @@
         <v>0</v>
       </c>
       <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>95</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>5</v>
       </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="s">
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="s">
         <v>85</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AN19" t="s">
         <v>194</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>1</v>
       </c>
     </row>
@@ -6375,10 +6497,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
-  <dimension ref="A1:AN21"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:J12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6389,17 +6511,17 @@
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="8" width="8.125" customWidth="1"/>
-    <col min="9" max="11" width="6.75" customWidth="1"/>
-    <col min="12" max="12" width="7.125" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1"/>
-    <col min="21" max="21" width="10.25" customWidth="1"/>
-    <col min="23" max="23" width="14.5" customWidth="1"/>
-    <col min="24" max="24" width="14.125" customWidth="1"/>
-    <col min="35" max="37" width="8.875" customWidth="1"/>
-    <col min="39" max="39" width="14.625" customWidth="1"/>
+    <col min="9" max="12" width="6.75" customWidth="1"/>
+    <col min="13" max="13" width="7.125" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
+    <col min="22" max="22" width="10.25" customWidth="1"/>
+    <col min="24" max="24" width="14.5" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="36" max="38" width="8.875" customWidth="1"/>
+    <col min="40" max="40" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6434,94 +6556,97 @@
         <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-2+100</f>
         <v>100</v>
@@ -6556,12 +6681,12 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
       <c r="N2" t="s">
         <v>27</v>
       </c>
@@ -6595,11 +6720,11 @@
       <c r="X2" t="s">
         <v>27</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2">
         <v>10</v>
-      </c>
-      <c r="Z2">
-        <v>30</v>
       </c>
       <c r="AA2">
         <v>30</v>
@@ -6608,7 +6733,7 @@
         <v>30</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -6626,25 +6751,28 @@
         <v>0</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>95</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>5</v>
       </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>27</v>
+      <c r="AL2">
+        <v>0</v>
       </c>
       <c r="AM2" t="s">
         <v>27</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A3">
         <f>ROW()-2+100</f>
         <v>101</v>
@@ -6679,12 +6807,12 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
       <c r="N3" t="s">
         <v>27</v>
       </c>
@@ -6718,11 +6846,11 @@
       <c r="X3" t="s">
         <v>27</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3">
         <v>10</v>
-      </c>
-      <c r="Z3">
-        <v>30</v>
       </c>
       <c r="AA3">
         <v>30</v>
@@ -6731,7 +6859,7 @@
         <v>30</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -6749,25 +6877,28 @@
         <v>0</v>
       </c>
       <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>95</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>5</v>
       </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>27</v>
+      <c r="AL3">
+        <v>0</v>
       </c>
       <c r="AM3" t="s">
         <v>27</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A4">
         <f>ROW()-2+100</f>
         <v>102</v>
@@ -6802,12 +6933,12 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
       <c r="N4" t="s">
         <v>27</v>
       </c>
@@ -6841,11 +6972,11 @@
       <c r="X4" t="s">
         <v>27</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4">
         <v>10</v>
-      </c>
-      <c r="Z4">
-        <v>30</v>
       </c>
       <c r="AA4">
         <v>30</v>
@@ -6854,7 +6985,7 @@
         <v>30</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -6872,25 +7003,28 @@
         <v>0</v>
       </c>
       <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>95</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>5</v>
       </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>27</v>
+      <c r="AL4">
+        <v>0</v>
       </c>
       <c r="AM4" t="s">
         <v>27</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A5">
         <f>ROW()-2+100</f>
         <v>103</v>
@@ -6925,12 +7059,12 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
         <v>26</v>
       </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
       <c r="N5" t="s">
         <v>27</v>
       </c>
@@ -6964,11 +7098,11 @@
       <c r="X5" t="s">
         <v>27</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5">
         <v>10</v>
-      </c>
-      <c r="Z5">
-        <v>30</v>
       </c>
       <c r="AA5">
         <v>30</v>
@@ -6977,7 +7111,7 @@
         <v>30</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -6995,25 +7129,28 @@
         <v>0</v>
       </c>
       <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>95</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>5</v>
       </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>27</v>
+      <c r="AL5">
+        <v>0</v>
       </c>
       <c r="AM5" t="s">
         <v>27</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" ref="A6:A21" si="0">ROW()-2+100</f>
         <v>104</v>
@@ -7048,12 +7185,12 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
         <v>26</v>
       </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
       <c r="N6" t="s">
         <v>27</v>
       </c>
@@ -7087,11 +7224,11 @@
       <c r="X6" t="s">
         <v>27</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6">
         <v>10</v>
-      </c>
-      <c r="Z6">
-        <v>30</v>
       </c>
       <c r="AA6">
         <v>30</v>
@@ -7100,7 +7237,7 @@
         <v>30</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -7118,25 +7255,28 @@
         <v>0</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>95</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>5</v>
       </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>27</v>
+      <c r="AL6">
+        <v>0</v>
       </c>
       <c r="AM6" t="s">
         <v>27</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -7171,12 +7311,12 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
       <c r="N7" t="s">
         <v>27</v>
       </c>
@@ -7210,11 +7350,11 @@
       <c r="X7" t="s">
         <v>27</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7">
         <v>10</v>
-      </c>
-      <c r="Z7">
-        <v>30</v>
       </c>
       <c r="AA7">
         <v>30</v>
@@ -7223,7 +7363,7 @@
         <v>30</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -7241,25 +7381,28 @@
         <v>0</v>
       </c>
       <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>95</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>5</v>
       </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>27</v>
+      <c r="AL7">
+        <v>0</v>
       </c>
       <c r="AM7" t="s">
         <v>27</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -7294,12 +7437,12 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
         <v>26</v>
       </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
       <c r="N8" t="s">
         <v>27</v>
       </c>
@@ -7333,11 +7476,11 @@
       <c r="X8" t="s">
         <v>27</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8">
         <v>10</v>
-      </c>
-      <c r="Z8">
-        <v>30</v>
       </c>
       <c r="AA8">
         <v>30</v>
@@ -7346,7 +7489,7 @@
         <v>30</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -7364,25 +7507,28 @@
         <v>0</v>
       </c>
       <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>95</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>5</v>
       </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>27</v>
+      <c r="AL8">
+        <v>0</v>
       </c>
       <c r="AM8" t="s">
         <v>27</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -7417,12 +7563,12 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
         <v>26</v>
       </c>
-      <c r="M9" t="s">
-        <v>27</v>
-      </c>
       <c r="N9" t="s">
         <v>27</v>
       </c>
@@ -7456,11 +7602,11 @@
       <c r="X9" t="s">
         <v>27</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9">
         <v>10</v>
-      </c>
-      <c r="Z9">
-        <v>30</v>
       </c>
       <c r="AA9">
         <v>30</v>
@@ -7469,7 +7615,7 @@
         <v>30</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -7487,25 +7633,28 @@
         <v>0</v>
       </c>
       <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>95</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>5</v>
       </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>27</v>
+      <c r="AL9">
+        <v>0</v>
       </c>
       <c r="AM9" t="s">
         <v>27</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -7514,16 +7663,16 @@
         <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -7540,12 +7689,12 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
         <v>26</v>
       </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
       <c r="N10" t="s">
         <v>27</v>
       </c>
@@ -7579,20 +7728,20 @@
       <c r="X10" t="s">
         <v>27</v>
       </c>
-      <c r="Y10">
-        <v>10</v>
+      <c r="Y10" t="s">
+        <v>27</v>
       </c>
       <c r="Z10">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AA10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB10">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -7610,25 +7759,28 @@
         <v>0</v>
       </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>95</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>5</v>
       </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>27</v>
+      <c r="AL10">
+        <v>0</v>
       </c>
       <c r="AM10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN10">
+        <v>85</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -7637,16 +7789,16 @@
         <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -7655,20 +7807,20 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
         <v>26</v>
       </c>
-      <c r="M11" t="s">
-        <v>27</v>
-      </c>
       <c r="N11" t="s">
         <v>27</v>
       </c>
@@ -7702,20 +7854,20 @@
       <c r="X11" t="s">
         <v>27</v>
       </c>
-      <c r="Y11">
-        <v>10</v>
+      <c r="Y11" t="s">
+        <v>27</v>
       </c>
       <c r="Z11">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AA11">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB11">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -7733,43 +7885,46 @@
         <v>0</v>
       </c>
       <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>95</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>5</v>
       </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>27</v>
+      <c r="AL11">
+        <v>0</v>
       </c>
       <c r="AM11" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN11">
+        <v>85</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -7786,12 +7941,12 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
         <v>26</v>
       </c>
-      <c r="M12" t="s">
-        <v>27</v>
-      </c>
       <c r="N12" t="s">
         <v>27</v>
       </c>
@@ -7825,21 +7980,21 @@
       <c r="X12" t="s">
         <v>27</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z12">
         <v>60</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>25</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>12</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>3</v>
       </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
       <c r="AD12">
         <v>0</v>
       </c>
@@ -7856,328 +8011,337 @@
         <v>0</v>
       </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>95</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>5</v>
       </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>27</v>
+      <c r="AL12">
+        <v>0</v>
       </c>
       <c r="AM12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN12">
+        <v>85</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13">
+        <v>90</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z13">
+        <v>60</v>
+      </c>
+      <c r="AA13">
+        <v>25</v>
+      </c>
+      <c r="AB13">
+        <v>12</v>
+      </c>
+      <c r="AC13">
+        <v>3</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>95</v>
       </c>
-      <c r="F13">
-        <v>30</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T13" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" t="s">
-        <v>27</v>
-      </c>
-      <c r="V13" t="s">
-        <v>27</v>
-      </c>
-      <c r="W13" t="s">
-        <v>27</v>
-      </c>
-      <c r="X13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y13">
-        <v>10</v>
-      </c>
-      <c r="Z13">
-        <v>30</v>
-      </c>
-      <c r="AA13">
-        <v>30</v>
-      </c>
-      <c r="AB13">
-        <v>30</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>95</v>
-      </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>5</v>
       </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>27</v>
+      <c r="AL13">
+        <v>0</v>
       </c>
       <c r="AM13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN13">
+        <v>85</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14">
+        <v>30</v>
+      </c>
+      <c r="AB14">
+        <v>30</v>
+      </c>
+      <c r="AC14">
+        <v>30</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>95</v>
+      </c>
+      <c r="AK14">
         <v>5</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S14" t="s">
-        <v>27</v>
-      </c>
-      <c r="T14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" t="s">
-        <v>27</v>
-      </c>
-      <c r="V14" t="s">
-        <v>27</v>
-      </c>
-      <c r="W14" t="s">
-        <v>142</v>
-      </c>
-      <c r="X14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>100</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>98</v>
-      </c>
-      <c r="AJ14">
-        <v>2</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>90</v>
+      <c r="AL14">
+        <v>0</v>
       </c>
       <c r="AM14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN14">
+        <v>27</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
         <v>26</v>
       </c>
-      <c r="M15" t="s">
-        <v>28</v>
-      </c>
       <c r="N15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P15" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="Q15" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="R15" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="S15" t="s">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="T15" t="s">
         <v>27</v>
@@ -8189,79 +8353,82 @@
         <v>27</v>
       </c>
       <c r="W15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="X15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y15">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>27</v>
       </c>
       <c r="Z15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA15">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AB15">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AC15">
+        <v>30</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>95</v>
+      </c>
+      <c r="AK15">
         <v>5</v>
       </c>
-      <c r="AD15">
-        <v>10</v>
-      </c>
-      <c r="AE15">
-        <v>7</v>
-      </c>
-      <c r="AF15">
-        <v>18</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>83</v>
-      </c>
-      <c r="AJ15">
-        <v>10</v>
-      </c>
-      <c r="AK15">
-        <v>7</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>85</v>
+      <c r="AL15">
+        <v>0</v>
       </c>
       <c r="AM15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AN15">
+        <v>27</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F16">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -8270,20 +8437,20 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
         <v>26</v>
       </c>
-      <c r="M16" t="s">
-        <v>27</v>
-      </c>
       <c r="N16" t="s">
         <v>27</v>
       </c>
@@ -8317,21 +8484,21 @@
       <c r="X16" t="s">
         <v>27</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z16">
         <v>60</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>25</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>12</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>3</v>
       </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
       <c r="AD16">
         <v>0</v>
       </c>
@@ -8348,43 +8515,46 @@
         <v>0</v>
       </c>
       <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>95</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>5</v>
       </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>85</v>
+      <c r="AL16">
+        <v>0</v>
       </c>
       <c r="AM16" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN16">
+        <v>27</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="F17">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -8401,12 +8571,12 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
         <v>26</v>
       </c>
-      <c r="M17" t="s">
-        <v>27</v>
-      </c>
       <c r="N17" t="s">
         <v>27</v>
       </c>
@@ -8440,20 +8610,20 @@
       <c r="X17" t="s">
         <v>27</v>
       </c>
-      <c r="Y17">
-        <v>60</v>
+      <c r="Y17" t="s">
+        <v>27</v>
       </c>
       <c r="Z17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA17">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AB17">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -8471,172 +8641,178 @@
         <v>0</v>
       </c>
       <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>95</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>5</v>
       </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>85</v>
+      <c r="AL17">
+        <v>0</v>
       </c>
       <c r="AM17" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN17">
+        <v>27</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>100</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>98</v>
+      </c>
+      <c r="AK18">
+        <v>2</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="s">
         <v>90</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" t="s">
-        <v>27</v>
-      </c>
-      <c r="S18" t="s">
-        <v>27</v>
-      </c>
-      <c r="T18" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18" t="s">
-        <v>27</v>
-      </c>
-      <c r="V18" t="s">
-        <v>27</v>
-      </c>
-      <c r="W18" t="s">
-        <v>27</v>
-      </c>
-      <c r="X18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y18">
-        <v>60</v>
-      </c>
-      <c r="Z18">
-        <v>25</v>
-      </c>
-      <c r="AA18">
-        <v>12</v>
-      </c>
-      <c r="AB18">
-        <v>3</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>95</v>
-      </c>
-      <c r="AJ18">
-        <v>5</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN18">
+      <c r="AN18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="F19">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -8645,34 +8821,34 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19" t="s">
         <v>26</v>
       </c>
-      <c r="M19" t="s">
-        <v>27</v>
-      </c>
       <c r="N19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q19" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="R19" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="S19" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="T19" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="U19" t="s">
         <v>27</v>
@@ -8684,70 +8860,73 @@
         <v>27</v>
       </c>
       <c r="X19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y19">
-        <v>60</v>
+        <v>33</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>84</v>
       </c>
       <c r="Z19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA19">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AB19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH19">
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL19">
+        <v>7</v>
+      </c>
+      <c r="AM19" t="s">
         <v>85</v>
       </c>
-      <c r="AM19" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN19">
+      <c r="AN19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="E20" t="s">
         <v>49</v>
@@ -8762,20 +8941,20 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20" t="s">
         <v>26</v>
       </c>
-      <c r="M20" t="s">
-        <v>27</v>
-      </c>
       <c r="N20" t="s">
         <v>27</v>
       </c>
@@ -8809,21 +8988,21 @@
       <c r="X20" t="s">
         <v>27</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z20">
         <v>60</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>25</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>12</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>3</v>
       </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
       <c r="AD20">
         <v>0</v>
       </c>
@@ -8840,37 +9019,40 @@
         <v>0</v>
       </c>
       <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
         <v>95</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>5</v>
       </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="s">
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="s">
         <v>85</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AN20" t="s">
         <v>194</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E21" t="s">
         <v>49</v>
@@ -8893,12 +9075,12 @@
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
         <v>26</v>
       </c>
-      <c r="M21" t="s">
-        <v>27</v>
-      </c>
       <c r="N21" t="s">
         <v>27</v>
       </c>
@@ -8932,21 +9114,21 @@
       <c r="X21" t="s">
         <v>27</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z21">
         <v>60</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>25</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>12</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>3</v>
       </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
       <c r="AD21">
         <v>0</v>
       </c>
@@ -8963,21 +9145,24 @@
         <v>0</v>
       </c>
       <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
         <v>95</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>5</v>
       </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="s">
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="s">
         <v>85</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AN21" t="s">
         <v>194</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>1</v>
       </c>
     </row>
@@ -8990,10 +9175,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
-  <dimension ref="A1:AN21"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9004,17 +9189,17 @@
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="8" width="8.125" customWidth="1"/>
-    <col min="9" max="11" width="6.75" customWidth="1"/>
-    <col min="12" max="12" width="7.125" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1"/>
-    <col min="21" max="21" width="10.25" customWidth="1"/>
-    <col min="23" max="23" width="14.5" customWidth="1"/>
-    <col min="24" max="24" width="14.125" customWidth="1"/>
-    <col min="35" max="36" width="14" customWidth="1"/>
-    <col min="37" max="37" width="13.625" customWidth="1"/>
+    <col min="9" max="12" width="6.75" customWidth="1"/>
+    <col min="13" max="13" width="7.125" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
+    <col min="22" max="22" width="10.25" customWidth="1"/>
+    <col min="24" max="24" width="14.5" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="36" max="37" width="14" customWidth="1"/>
+    <col min="38" max="38" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9049,94 +9234,97 @@
         <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-2+100</f>
         <v>100</v>
@@ -9171,12 +9359,12 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
       <c r="N2" t="s">
         <v>27</v>
       </c>
@@ -9210,11 +9398,11 @@
       <c r="X2" t="s">
         <v>27</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2">
         <v>10</v>
-      </c>
-      <c r="Z2">
-        <v>30</v>
       </c>
       <c r="AA2">
         <v>30</v>
@@ -9223,7 +9411,7 @@
         <v>30</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -9241,25 +9429,28 @@
         <v>0</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>95</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>5</v>
       </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>27</v>
+      <c r="AL2">
+        <v>0</v>
       </c>
       <c r="AM2" t="s">
         <v>27</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A3">
         <f>ROW()-2+100</f>
         <v>101</v>
@@ -9294,12 +9485,12 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
       <c r="N3" t="s">
         <v>27</v>
       </c>
@@ -9333,11 +9524,11 @@
       <c r="X3" t="s">
         <v>27</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3">
         <v>10</v>
-      </c>
-      <c r="Z3">
-        <v>30</v>
       </c>
       <c r="AA3">
         <v>30</v>
@@ -9346,7 +9537,7 @@
         <v>30</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -9364,25 +9555,28 @@
         <v>0</v>
       </c>
       <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>95</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>5</v>
       </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>27</v>
+      <c r="AL3">
+        <v>0</v>
       </c>
       <c r="AM3" t="s">
         <v>27</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A4">
         <f>ROW()-2+100</f>
         <v>102</v>
@@ -9417,12 +9611,12 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
       <c r="N4" t="s">
         <v>27</v>
       </c>
@@ -9456,11 +9650,11 @@
       <c r="X4" t="s">
         <v>27</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4">
         <v>10</v>
-      </c>
-      <c r="Z4">
-        <v>30</v>
       </c>
       <c r="AA4">
         <v>30</v>
@@ -9469,7 +9663,7 @@
         <v>30</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -9487,25 +9681,28 @@
         <v>0</v>
       </c>
       <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>95</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>5</v>
       </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>27</v>
+      <c r="AL4">
+        <v>0</v>
       </c>
       <c r="AM4" t="s">
         <v>27</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A5">
         <f>ROW()-2+100</f>
         <v>103</v>
@@ -9540,12 +9737,12 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
         <v>26</v>
       </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
       <c r="N5" t="s">
         <v>27</v>
       </c>
@@ -9579,11 +9776,11 @@
       <c r="X5" t="s">
         <v>27</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5">
         <v>10</v>
-      </c>
-      <c r="Z5">
-        <v>30</v>
       </c>
       <c r="AA5">
         <v>30</v>
@@ -9592,7 +9789,7 @@
         <v>30</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -9610,25 +9807,28 @@
         <v>0</v>
       </c>
       <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>95</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>5</v>
       </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>27</v>
+      <c r="AL5">
+        <v>0</v>
       </c>
       <c r="AM5" t="s">
         <v>27</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" ref="A6:A9" si="0">ROW()-2+100</f>
         <v>104</v>
@@ -9663,12 +9863,12 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
         <v>26</v>
       </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
       <c r="N6" t="s">
         <v>27</v>
       </c>
@@ -9702,11 +9902,11 @@
       <c r="X6" t="s">
         <v>27</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6">
         <v>10</v>
-      </c>
-      <c r="Z6">
-        <v>30</v>
       </c>
       <c r="AA6">
         <v>30</v>
@@ -9715,7 +9915,7 @@
         <v>30</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -9733,25 +9933,28 @@
         <v>0</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>95</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>5</v>
       </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>27</v>
+      <c r="AL6">
+        <v>0</v>
       </c>
       <c r="AM6" t="s">
         <v>27</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -9786,12 +9989,12 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
       <c r="N7" t="s">
         <v>27</v>
       </c>
@@ -9825,11 +10028,11 @@
       <c r="X7" t="s">
         <v>27</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7">
         <v>10</v>
-      </c>
-      <c r="Z7">
-        <v>30</v>
       </c>
       <c r="AA7">
         <v>30</v>
@@ -9838,7 +10041,7 @@
         <v>30</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -9856,25 +10059,28 @@
         <v>0</v>
       </c>
       <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>95</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>5</v>
       </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>27</v>
+      <c r="AL7">
+        <v>0</v>
       </c>
       <c r="AM7" t="s">
         <v>27</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -9909,12 +10115,12 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
         <v>26</v>
       </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
       <c r="N8" t="s">
         <v>27</v>
       </c>
@@ -9948,11 +10154,11 @@
       <c r="X8" t="s">
         <v>27</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8">
         <v>10</v>
-      </c>
-      <c r="Z8">
-        <v>30</v>
       </c>
       <c r="AA8">
         <v>30</v>
@@ -9961,7 +10167,7 @@
         <v>30</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -9979,25 +10185,28 @@
         <v>0</v>
       </c>
       <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>95</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>5</v>
       </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>27</v>
+      <c r="AL8">
+        <v>0</v>
       </c>
       <c r="AM8" t="s">
         <v>27</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -10032,12 +10241,12 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
         <v>26</v>
       </c>
-      <c r="M9" t="s">
-        <v>27</v>
-      </c>
       <c r="N9" t="s">
         <v>27</v>
       </c>
@@ -10071,11 +10280,11 @@
       <c r="X9" t="s">
         <v>27</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9">
         <v>10</v>
-      </c>
-      <c r="Z9">
-        <v>30</v>
       </c>
       <c r="AA9">
         <v>30</v>
@@ -10084,7 +10293,7 @@
         <v>30</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -10102,25 +10311,28 @@
         <v>0</v>
       </c>
       <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>95</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>5</v>
       </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>27</v>
+      <c r="AL9">
+        <v>0</v>
       </c>
       <c r="AM9" t="s">
         <v>27</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" ref="A10:A21" si="1">ROW()-2+100</f>
         <v>108</v>
@@ -10129,16 +10341,16 @@
         <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
         <v>143</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -10155,12 +10367,12 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
         <v>26</v>
       </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
       <c r="N10" t="s">
         <v>27</v>
       </c>
@@ -10194,20 +10406,20 @@
       <c r="X10" t="s">
         <v>27</v>
       </c>
-      <c r="Y10">
-        <v>10</v>
+      <c r="Y10" t="s">
+        <v>27</v>
       </c>
       <c r="Z10">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AA10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB10">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -10225,25 +10437,28 @@
         <v>0</v>
       </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>95</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>5</v>
       </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>27</v>
+      <c r="AL10">
+        <v>0</v>
       </c>
       <c r="AM10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN10">
+        <v>85</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -10252,16 +10467,16 @@
         <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
         <v>143</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -10270,20 +10485,20 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
         <v>26</v>
       </c>
-      <c r="M11" t="s">
-        <v>27</v>
-      </c>
       <c r="N11" t="s">
         <v>27</v>
       </c>
@@ -10317,20 +10532,20 @@
       <c r="X11" t="s">
         <v>27</v>
       </c>
-      <c r="Y11">
-        <v>10</v>
+      <c r="Y11" t="s">
+        <v>27</v>
       </c>
       <c r="Z11">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AA11">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB11">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -10348,43 +10563,46 @@
         <v>0</v>
       </c>
       <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>95</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>5</v>
       </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>27</v>
+      <c r="AL11">
+        <v>0</v>
       </c>
       <c r="AM11" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN11">
+        <v>85</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
         <v>143</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -10401,12 +10619,12 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
         <v>26</v>
       </c>
-      <c r="M12" t="s">
-        <v>27</v>
-      </c>
       <c r="N12" t="s">
         <v>27</v>
       </c>
@@ -10440,21 +10658,21 @@
       <c r="X12" t="s">
         <v>27</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z12">
         <v>60</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>25</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>12</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>3</v>
       </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
       <c r="AD12">
         <v>0</v>
       </c>
@@ -10471,43 +10689,46 @@
         <v>0</v>
       </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>95</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>5</v>
       </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>27</v>
+      <c r="AL12">
+        <v>0</v>
       </c>
       <c r="AM12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN12">
+        <v>85</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
         <v>143</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -10524,12 +10745,12 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s">
         <v>26</v>
       </c>
-      <c r="M13" t="s">
-        <v>27</v>
-      </c>
       <c r="N13" t="s">
         <v>27</v>
       </c>
@@ -10563,20 +10784,20 @@
       <c r="X13" t="s">
         <v>27</v>
       </c>
-      <c r="Y13">
-        <v>10</v>
+      <c r="Y13" t="s">
+        <v>27</v>
       </c>
       <c r="Z13">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AA13">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB13">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -10594,205 +10815,211 @@
         <v>0</v>
       </c>
       <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>95</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>5</v>
       </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>27</v>
+      <c r="AL13">
+        <v>0</v>
       </c>
       <c r="AM13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN13">
+        <v>85</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
         <v>143</v>
       </c>
       <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14">
+        <v>30</v>
+      </c>
+      <c r="AB14">
+        <v>30</v>
+      </c>
+      <c r="AC14">
+        <v>30</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>95</v>
+      </c>
+      <c r="AK14">
         <v>5</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S14" t="s">
-        <v>27</v>
-      </c>
-      <c r="T14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" t="s">
-        <v>27</v>
-      </c>
-      <c r="V14" t="s">
-        <v>27</v>
-      </c>
-      <c r="W14" t="s">
-        <v>142</v>
-      </c>
-      <c r="X14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>100</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>98</v>
-      </c>
-      <c r="AJ14">
-        <v>2</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>90</v>
+      <c r="AL14">
+        <v>0</v>
       </c>
       <c r="AM14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN14">
+        <v>27</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="E15" t="s">
         <v>143</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
         <v>26</v>
       </c>
-      <c r="M15" t="s">
-        <v>28</v>
-      </c>
       <c r="N15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P15" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="Q15" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="R15" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="S15" t="s">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="T15" t="s">
         <v>27</v>
@@ -10804,79 +11031,82 @@
         <v>27</v>
       </c>
       <c r="W15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="X15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y15">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>27</v>
       </c>
       <c r="Z15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA15">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AB15">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AC15">
+        <v>30</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>95</v>
+      </c>
+      <c r="AK15">
         <v>5</v>
       </c>
-      <c r="AD15">
-        <v>10</v>
-      </c>
-      <c r="AE15">
-        <v>7</v>
-      </c>
-      <c r="AF15">
-        <v>18</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>83</v>
-      </c>
-      <c r="AJ15">
-        <v>10</v>
-      </c>
-      <c r="AK15">
-        <v>7</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>85</v>
+      <c r="AL15">
+        <v>0</v>
       </c>
       <c r="AM15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AN15">
+        <v>27</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="E16" t="s">
         <v>143</v>
       </c>
       <c r="F16">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -10885,20 +11115,20 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
         <v>26</v>
       </c>
-      <c r="M16" t="s">
-        <v>27</v>
-      </c>
       <c r="N16" t="s">
         <v>27</v>
       </c>
@@ -10932,21 +11162,21 @@
       <c r="X16" t="s">
         <v>27</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z16">
         <v>60</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>25</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>12</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>3</v>
       </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
       <c r="AD16">
         <v>0</v>
       </c>
@@ -10963,43 +11193,46 @@
         <v>0</v>
       </c>
       <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>95</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>5</v>
       </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>85</v>
+      <c r="AL16">
+        <v>0</v>
       </c>
       <c r="AM16" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN16">
+        <v>27</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
         <v>143</v>
       </c>
       <c r="F17">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -11016,12 +11249,12 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
         <v>26</v>
       </c>
-      <c r="M17" t="s">
-        <v>27</v>
-      </c>
       <c r="N17" t="s">
         <v>27</v>
       </c>
@@ -11055,20 +11288,20 @@
       <c r="X17" t="s">
         <v>27</v>
       </c>
-      <c r="Y17">
-        <v>60</v>
+      <c r="Y17" t="s">
+        <v>27</v>
       </c>
       <c r="Z17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA17">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AB17">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -11086,172 +11319,178 @@
         <v>0</v>
       </c>
       <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>95</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>5</v>
       </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>85</v>
+      <c r="AL17">
+        <v>0</v>
       </c>
       <c r="AM17" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN17">
+        <v>27</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E18" t="s">
         <v>143</v>
       </c>
       <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>100</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>98</v>
+      </c>
+      <c r="AK18">
+        <v>2</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="s">
         <v>90</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" t="s">
-        <v>27</v>
-      </c>
-      <c r="S18" t="s">
-        <v>27</v>
-      </c>
-      <c r="T18" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18" t="s">
-        <v>27</v>
-      </c>
-      <c r="V18" t="s">
-        <v>27</v>
-      </c>
-      <c r="W18" t="s">
-        <v>27</v>
-      </c>
-      <c r="X18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y18">
-        <v>60</v>
-      </c>
-      <c r="Z18">
-        <v>25</v>
-      </c>
-      <c r="AA18">
-        <v>12</v>
-      </c>
-      <c r="AB18">
-        <v>3</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>95</v>
-      </c>
-      <c r="AJ18">
-        <v>5</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN18">
+      <c r="AN18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
         <v>143</v>
       </c>
       <c r="F19">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -11260,34 +11499,34 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19" t="s">
         <v>26</v>
       </c>
-      <c r="M19" t="s">
-        <v>27</v>
-      </c>
       <c r="N19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q19" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="R19" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="S19" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="T19" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="U19" t="s">
         <v>27</v>
@@ -11299,70 +11538,73 @@
         <v>27</v>
       </c>
       <c r="X19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y19">
-        <v>60</v>
+        <v>33</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>84</v>
       </c>
       <c r="Z19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA19">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AB19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH19">
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL19">
+        <v>7</v>
+      </c>
+      <c r="AM19" t="s">
         <v>85</v>
       </c>
-      <c r="AM19" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN19">
+      <c r="AN19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="E20" t="s">
         <v>143</v>
@@ -11377,20 +11619,20 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20" t="s">
         <v>26</v>
       </c>
-      <c r="M20" t="s">
-        <v>27</v>
-      </c>
       <c r="N20" t="s">
         <v>27</v>
       </c>
@@ -11424,21 +11666,21 @@
       <c r="X20" t="s">
         <v>27</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z20">
         <v>60</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>25</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>12</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>3</v>
       </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
       <c r="AD20">
         <v>0</v>
       </c>
@@ -11455,37 +11697,40 @@
         <v>0</v>
       </c>
       <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
         <v>95</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>5</v>
       </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="s">
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="s">
         <v>85</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AN20" t="s">
         <v>194</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E21" t="s">
         <v>143</v>
@@ -11508,12 +11753,12 @@
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
         <v>26</v>
       </c>
-      <c r="M21" t="s">
-        <v>27</v>
-      </c>
       <c r="N21" t="s">
         <v>27</v>
       </c>
@@ -11547,21 +11792,21 @@
       <c r="X21" t="s">
         <v>27</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z21">
         <v>60</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>25</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>12</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>3</v>
       </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
       <c r="AD21">
         <v>0</v>
       </c>
@@ -11578,21 +11823,24 @@
         <v>0</v>
       </c>
       <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
         <v>95</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>5</v>
       </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="s">
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="s">
         <v>85</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AN21" t="s">
         <v>194</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7A355C-1F5B-44B4-B255-FB55B1C94F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F98138-30E0-466F-9C24-0D1F9D958725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="540" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1800" yWindow="720" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="216">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -227,13 +227,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エメラルドの森</t>
-    <rPh sb="6" eb="7">
-      <t>モリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Emerald_Forest</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1081,10 +1074,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エクレール</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>マリトッツォ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1261,6 +1250,99 @@
   </si>
   <si>
     <t>Or_Farm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Old_Ido</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブルートパーズのお花畑</t>
+    <rPh sb="9" eb="11">
+      <t>ハナバタケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bluetopaz_Garden</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクアマリンの湖</t>
+    <rPh sb="7" eb="8">
+      <t>ミズウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>琥珀の湖</t>
+    <rPh sb="0" eb="2">
+      <t>コハク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミズウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダイヤモンド山</t>
+    <rPh sb="6" eb="7">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ムーンストーンの丘</t>
+    <rPh sb="8" eb="9">
+      <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エメラルドの大森林</t>
+    <rPh sb="6" eb="9">
+      <t>ダイシンリン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Amber_Lake</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MoonStone_Hill</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Diamond_Mountain</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルビー平野</t>
+    <rPh sb="3" eb="5">
+      <t>ヘイヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ruby_Plane</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製菓材料店エクレール</t>
+    <rPh sb="0" eb="2">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エク・レ～ル</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1325,11 +1407,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1644,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L19"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1682,28 +1767,28 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -1721,19 +1806,19 @@
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>9</v>
@@ -1760,19 +1845,19 @@
         <v>15</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>16</v>
@@ -1784,31 +1869,31 @@
         <v>32</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="AO1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A19" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A18" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
         <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1910,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="AM2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -1928,13 +2013,13 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1946,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>9999</v>
@@ -2051,16 +2136,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -2072,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>9999</v>
@@ -2162,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="AM4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -2177,16 +2262,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -2198,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>9999</v>
@@ -2288,10 +2373,10 @@
         <v>0</v>
       </c>
       <c r="AM5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -2303,16 +2388,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s">
         <v>94</v>
-      </c>
-      <c r="D6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" t="s">
-        <v>95</v>
       </c>
       <c r="F6">
         <v>30</v>
@@ -2324,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>9999</v>
@@ -2429,7 +2514,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -2438,7 +2523,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2495,7 +2580,7 @@
         <v>27</v>
       </c>
       <c r="X7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y7" t="s">
         <v>27</v>
@@ -2540,10 +2625,10 @@
         <v>0</v>
       </c>
       <c r="AM7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AN7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -2564,7 +2649,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8">
         <v>15</v>
@@ -2600,13 +2685,13 @@
         <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T8" t="s">
         <v>27</v>
@@ -2624,7 +2709,7 @@
         <v>33</v>
       </c>
       <c r="Y8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z8">
         <v>20</v>
@@ -2666,10 +2751,10 @@
         <v>7</v>
       </c>
       <c r="AM8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -2681,16 +2766,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
         <v>78</v>
       </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -2717,23 +2802,23 @@
         <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P9" t="s">
         <v>25</v>
       </c>
       <c r="Q9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R9" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" t="s">
         <v>100</v>
       </c>
-      <c r="S9" t="s">
-        <v>101</v>
-      </c>
       <c r="T9" t="s">
         <v>27</v>
       </c>
@@ -2747,7 +2832,7 @@
         <v>27</v>
       </c>
       <c r="X9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s">
         <v>27</v>
@@ -2792,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="AM9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -2807,16 +2892,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
         <v>115</v>
       </c>
-      <c r="D10" t="s">
-        <v>116</v>
-      </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10">
         <v>60</v>
@@ -2846,16 +2931,16 @@
         <v>28</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S10" t="s">
         <v>27</v>
@@ -2873,7 +2958,7 @@
         <v>27</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y10" t="s">
         <v>27</v>
@@ -2918,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="AM10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -2933,16 +3018,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
         <v>107</v>
       </c>
-      <c r="D11" t="s">
-        <v>108</v>
-      </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11">
         <v>30</v>
@@ -2954,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>9999</v>
@@ -2969,19 +3054,19 @@
         <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" t="s">
         <v>109</v>
       </c>
-      <c r="P11" t="s">
-        <v>110</v>
-      </c>
       <c r="Q11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S11" t="s">
         <v>27</v>
@@ -2999,10 +3084,10 @@
         <v>27</v>
       </c>
       <c r="X11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z11">
         <v>40</v>
@@ -3044,10 +3129,10 @@
         <v>3</v>
       </c>
       <c r="AM11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -3059,16 +3144,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F12">
         <v>30</v>
@@ -3080,10 +3165,10 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -3095,19 +3180,19 @@
         <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q12" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="R12" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="S12" t="s">
         <v>27</v>
@@ -3125,28 +3210,28 @@
         <v>27</v>
       </c>
       <c r="X12" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="Y12" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="Z12">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AA12">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
         <v>12</v>
       </c>
-      <c r="AC12">
-        <v>3</v>
-      </c>
       <c r="AD12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -3161,19 +3246,19 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AK12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AN12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -3185,22 +3270,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="F13">
         <v>30</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -3221,58 +3306,58 @@
         <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="O13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>110</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" t="s">
         <v>74</v>
       </c>
-      <c r="P13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>114</v>
-      </c>
-      <c r="R13" t="s">
-        <v>129</v>
-      </c>
-      <c r="S13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T13" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" t="s">
-        <v>27</v>
-      </c>
-      <c r="V13" t="s">
-        <v>27</v>
-      </c>
-      <c r="W13" t="s">
-        <v>27</v>
-      </c>
-      <c r="X13" t="s">
-        <v>128</v>
-      </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Z13">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AA13">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AB13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AC13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AD13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -3296,10 +3381,10 @@
         <v>7</v>
       </c>
       <c r="AM13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AN13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -3311,22 +3396,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14">
         <v>30</v>
       </c>
       <c r="G14">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -3347,16 +3432,16 @@
         <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="P14" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="Q14" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="R14" t="s">
         <v>27</v>
@@ -3377,19 +3462,19 @@
         <v>27</v>
       </c>
       <c r="X14" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="Z14">
         <v>40</v>
       </c>
       <c r="AA14">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC14">
         <v>5</v>
@@ -3413,19 +3498,19 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="AK14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="s">
         <v>88</v>
       </c>
       <c r="AN14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3437,31 +3522,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -3473,16 +3558,16 @@
         <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="O15" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="R15" t="s">
         <v>27</v>
@@ -3509,49 +3594,49 @@
         <v>27</v>
       </c>
       <c r="Z15">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AA15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>95</v>
+      </c>
+      <c r="AK15">
         <v>5</v>
       </c>
-      <c r="AD15">
-        <v>10</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>97</v>
-      </c>
-      <c r="AK15">
-        <v>3</v>
-      </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AN15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3566,10 +3651,10 @@
         <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
@@ -3674,10 +3759,10 @@
         <v>0</v>
       </c>
       <c r="AM16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3689,25 +3774,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17">
         <v>90</v>
       </c>
       <c r="G17">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3716,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3725,13 +3810,13 @@
         <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q17" t="s">
         <v>27</v>
@@ -3800,10 +3885,10 @@
         <v>0</v>
       </c>
       <c r="AM17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3818,13 +3903,13 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18">
         <v>90</v>
@@ -3836,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -3926,138 +4011,12 @@
         <v>0</v>
       </c>
       <c r="AM18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19">
-        <v>90</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S19" t="s">
-        <v>27</v>
-      </c>
-      <c r="T19" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19" t="s">
-        <v>27</v>
-      </c>
-      <c r="V19" t="s">
-        <v>27</v>
-      </c>
-      <c r="W19" t="s">
-        <v>27</v>
-      </c>
-      <c r="X19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z19">
-        <v>60</v>
-      </c>
-      <c r="AA19">
-        <v>25</v>
-      </c>
-      <c r="AB19">
-        <v>12</v>
-      </c>
-      <c r="AC19">
-        <v>3</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>95</v>
-      </c>
-      <c r="AK19">
-        <v>5</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO19">
         <v>1</v>
       </c>
     </row>
@@ -4070,10 +4029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0794BECB-8045-468B-952A-D5CA5B535CCB}">
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4109,28 +4068,28 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -4148,19 +4107,19 @@
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>9</v>
@@ -4187,19 +4146,19 @@
         <v>15</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>16</v>
@@ -4211,13 +4170,13 @@
         <v>32</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="AO1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.4">
@@ -4226,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -4348,20 +4307,20 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A3">
-        <f t="shared" ref="A3:A19" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A18" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -4373,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>9999</v>
@@ -4478,16 +4437,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -4499,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>9999</v>
@@ -4604,16 +4563,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -4625,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>9999</v>
@@ -4730,16 +4689,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -4751,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>9999</v>
@@ -4856,7 +4815,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -4865,7 +4824,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4922,7 +4881,7 @@
         <v>27</v>
       </c>
       <c r="X7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y7" t="s">
         <v>27</v>
@@ -4967,10 +4926,10 @@
         <v>0</v>
       </c>
       <c r="AM7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AN7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -4991,7 +4950,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -5027,19 +4986,19 @@
         <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T8" t="s">
         <v>33</v>
       </c>
       <c r="U8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V8" t="s">
         <v>27</v>
@@ -5051,7 +5010,7 @@
         <v>33</v>
       </c>
       <c r="Y8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z8">
         <v>20</v>
@@ -5093,10 +5052,10 @@
         <v>7</v>
       </c>
       <c r="AM8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -5108,16 +5067,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
         <v>78</v>
       </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -5144,25 +5103,25 @@
         <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P9" t="s">
         <v>25</v>
       </c>
       <c r="Q9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R9" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" t="s">
         <v>100</v>
       </c>
-      <c r="S9" t="s">
-        <v>101</v>
-      </c>
       <c r="T9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -5174,7 +5133,7 @@
         <v>27</v>
       </c>
       <c r="X9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s">
         <v>27</v>
@@ -5219,10 +5178,10 @@
         <v>0</v>
       </c>
       <c r="AM9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -5234,16 +5193,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
         <v>115</v>
       </c>
-      <c r="D10" t="s">
-        <v>116</v>
-      </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10">
         <v>12</v>
@@ -5273,19 +5232,19 @@
         <v>28</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T10" t="s">
         <v>27</v>
@@ -5300,7 +5259,7 @@
         <v>27</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y10" t="s">
         <v>27</v>
@@ -5345,10 +5304,10 @@
         <v>0</v>
       </c>
       <c r="AM10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -5360,16 +5319,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
         <v>107</v>
       </c>
-      <c r="D11" t="s">
-        <v>108</v>
-      </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -5381,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>9999</v>
@@ -5396,22 +5355,22 @@
         <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" t="s">
         <v>109</v>
       </c>
-      <c r="P11" t="s">
-        <v>110</v>
-      </c>
       <c r="Q11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T11" t="s">
         <v>27</v>
@@ -5426,10 +5385,10 @@
         <v>27</v>
       </c>
       <c r="X11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z11">
         <v>40</v>
@@ -5471,10 +5430,10 @@
         <v>3</v>
       </c>
       <c r="AM11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -5486,16 +5445,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -5507,10 +5466,10 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -5522,85 +5481,85 @@
         <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" t="s">
+        <v>128</v>
+      </c>
+      <c r="S12" t="s">
+        <v>127</v>
+      </c>
+      <c r="T12" t="s">
+        <v>136</v>
+      </c>
+      <c r="U12" t="s">
+        <v>143</v>
+      </c>
+      <c r="V12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z12">
         <v>25</v>
       </c>
-      <c r="Q12" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T12" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" t="s">
-        <v>27</v>
-      </c>
-      <c r="V12" t="s">
-        <v>27</v>
-      </c>
-      <c r="W12" t="s">
-        <v>27</v>
-      </c>
-      <c r="X12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z12">
-        <v>60</v>
-      </c>
       <c r="AA12">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
         <v>12</v>
       </c>
-      <c r="AC12">
-        <v>3</v>
-      </c>
       <c r="AD12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AK12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AN12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -5612,22 +5571,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -5648,67 +5607,67 @@
         <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="O13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>110</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" t="s">
         <v>74</v>
       </c>
-      <c r="P13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>114</v>
-      </c>
-      <c r="R13" t="s">
-        <v>129</v>
-      </c>
-      <c r="S13" t="s">
-        <v>128</v>
-      </c>
-      <c r="T13" t="s">
-        <v>137</v>
-      </c>
-      <c r="U13" t="s">
-        <v>144</v>
-      </c>
-      <c r="V13" t="s">
-        <v>27</v>
-      </c>
-      <c r="W13" t="s">
-        <v>27</v>
-      </c>
-      <c r="X13" t="s">
-        <v>128</v>
-      </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Z13">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AA13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AC13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AD13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -5723,10 +5682,10 @@
         <v>7</v>
       </c>
       <c r="AM13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AN13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -5738,22 +5697,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -5774,16 +5733,16 @@
         <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="P14" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="Q14" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="R14" t="s">
         <v>27</v>
@@ -5804,19 +5763,19 @@
         <v>27</v>
       </c>
       <c r="X14" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="Z14">
         <v>40</v>
       </c>
       <c r="AA14">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC14">
         <v>5</v>
@@ -5840,19 +5799,19 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="AK14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="s">
         <v>88</v>
       </c>
       <c r="AN14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -5864,31 +5823,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -5900,16 +5859,16 @@
         <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="O15" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="R15" t="s">
         <v>27</v>
@@ -5936,49 +5895,49 @@
         <v>27</v>
       </c>
       <c r="Z15">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AA15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>95</v>
+      </c>
+      <c r="AK15">
         <v>5</v>
       </c>
-      <c r="AD15">
-        <v>10</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>97</v>
-      </c>
-      <c r="AK15">
-        <v>3</v>
-      </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AN15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -5993,13 +5952,13 @@
         <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16">
         <v>18</v>
@@ -6101,10 +6060,10 @@
         <v>0</v>
       </c>
       <c r="AM16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -6116,34 +6075,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G17">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -6152,13 +6111,13 @@
         <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q17" t="s">
         <v>27</v>
@@ -6227,10 +6186,10 @@
         <v>0</v>
       </c>
       <c r="AM17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -6245,13 +6204,13 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18">
         <v>90</v>
@@ -6266,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -6353,138 +6312,12 @@
         <v>0</v>
       </c>
       <c r="AM18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19">
-        <v>90</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S19" t="s">
-        <v>27</v>
-      </c>
-      <c r="T19" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19" t="s">
-        <v>27</v>
-      </c>
-      <c r="V19" t="s">
-        <v>27</v>
-      </c>
-      <c r="W19" t="s">
-        <v>27</v>
-      </c>
-      <c r="X19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z19">
-        <v>60</v>
-      </c>
-      <c r="AA19">
-        <v>25</v>
-      </c>
-      <c r="AB19">
-        <v>12</v>
-      </c>
-      <c r="AC19">
-        <v>3</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>95</v>
-      </c>
-      <c r="AK19">
-        <v>5</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO19">
         <v>1</v>
       </c>
     </row>
@@ -6497,10 +6330,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6535,28 +6368,28 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -6574,19 +6407,19 @@
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>9</v>
@@ -6613,19 +6446,19 @@
         <v>15</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>16</v>
@@ -6637,13 +6470,13 @@
         <v>32</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="AO1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.4">
@@ -6652,16 +6485,16 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" t="s">
-        <v>167</v>
+        <v>155</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -6778,16 +6611,16 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -6904,16 +6737,16 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -7030,16 +6863,16 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -7152,20 +6985,20 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A6">
-        <f t="shared" ref="A6:A21" si="0">ROW()-2+100</f>
+        <f t="shared" ref="A6:A28" si="0">ROW()-2+100</f>
         <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -7177,10 +7010,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -7285,13 +7118,13 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -7411,13 +7244,13 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -7537,13 +7370,13 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -7660,16 +7493,16 @@
         <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <v>90</v>
@@ -7681,10 +7514,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -7771,10 +7604,10 @@
         <v>0</v>
       </c>
       <c r="AM10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -7786,16 +7619,16 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <v>90</v>
@@ -7897,10 +7730,10 @@
         <v>0</v>
       </c>
       <c r="AM11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -7912,16 +7745,16 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12">
         <v>90</v>
@@ -8023,10 +7856,10 @@
         <v>0</v>
       </c>
       <c r="AM12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -8038,16 +7871,16 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13">
         <v>90</v>
@@ -8149,10 +7982,10 @@
         <v>0</v>
       </c>
       <c r="AM13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -8164,16 +7997,16 @@
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" t="s">
         <v>151</v>
-      </c>
-      <c r="D14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" t="s">
-        <v>152</v>
       </c>
       <c r="F14">
         <v>30</v>
@@ -8185,10 +8018,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -8290,16 +8123,16 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F15">
         <v>30</v>
@@ -8416,16 +8249,16 @@
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -8437,10 +8270,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -8542,16 +8375,16 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17">
         <v>30</v>
@@ -8563,10 +8396,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -8668,16 +8501,16 @@
         <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -8707,10 +8540,10 @@
         <v>36</v>
       </c>
       <c r="O18" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="P18" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="Q18" t="s">
         <v>27</v>
@@ -8734,7 +8567,7 @@
         <v>27</v>
       </c>
       <c r="X18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y18" t="s">
         <v>27</v>
@@ -8743,13 +8576,13 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -8779,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="AM18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AN18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -8797,13 +8630,13 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19">
         <v>15</v>
@@ -8839,16 +8672,16 @@
         <v>25</v>
       </c>
       <c r="Q19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S19" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="T19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U19" t="s">
         <v>27</v>
@@ -8863,7 +8696,7 @@
         <v>33</v>
       </c>
       <c r="Y19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z19">
         <v>20</v>
@@ -8884,10 +8717,10 @@
         <v>10</v>
       </c>
       <c r="AF19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -8905,10 +8738,10 @@
         <v>7</v>
       </c>
       <c r="AM19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -8920,34 +8753,34 @@
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="F20">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -8956,25 +8789,25 @@
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q20" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="R20" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="S20" t="s">
         <v>27</v>
       </c>
       <c r="T20" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U20" t="s">
         <v>27</v>
@@ -8986,35 +8819,35 @@
         <v>27</v>
       </c>
       <c r="X20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Y20" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="Z20">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AA20">
+        <v>20</v>
+      </c>
+      <c r="AB20">
+        <v>7</v>
+      </c>
+      <c r="AC20">
+        <v>13</v>
+      </c>
+      <c r="AD20">
+        <v>5</v>
+      </c>
+      <c r="AE20">
+        <v>10</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
         <v>25</v>
       </c>
-      <c r="AB20">
-        <v>12</v>
-      </c>
-      <c r="AC20">
-        <v>3</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
       <c r="AH20">
         <v>0</v>
       </c>
@@ -9022,19 +8855,19 @@
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AK20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -9046,25 +8879,25 @@
         <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="F21">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -9073,34 +8906,34 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M21" t="s">
         <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q21" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="R21" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="S21" t="s">
         <v>27</v>
       </c>
       <c r="T21" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U21" t="s">
         <v>27</v>
@@ -9112,57 +8945,939 @@
         <v>27</v>
       </c>
       <c r="X21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Y21" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="Z21">
+        <v>20</v>
+      </c>
+      <c r="AA21">
+        <v>20</v>
+      </c>
+      <c r="AB21">
+        <v>7</v>
+      </c>
+      <c r="AC21">
+        <v>13</v>
+      </c>
+      <c r="AD21">
+        <v>5</v>
+      </c>
+      <c r="AE21">
+        <v>10</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>25</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>83</v>
+      </c>
+      <c r="AK21">
+        <v>10</v>
+      </c>
+      <c r="AL21">
+        <v>7</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" t="s">
+        <v>27</v>
+      </c>
+      <c r="U22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" t="s">
+        <v>27</v>
+      </c>
+      <c r="X22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z22">
         <v>60</v>
       </c>
-      <c r="AA21">
+      <c r="AA22">
         <v>25</v>
       </c>
-      <c r="AB21">
+      <c r="AB22">
         <v>12</v>
       </c>
-      <c r="AC21">
+      <c r="AC22">
         <v>3</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
         <v>95</v>
       </c>
-      <c r="AK21">
+      <c r="AK22">
         <v>5</v>
       </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO21">
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R23" t="s">
+        <v>103</v>
+      </c>
+      <c r="S23" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" t="s">
+        <v>197</v>
+      </c>
+      <c r="U23" t="s">
+        <v>27</v>
+      </c>
+      <c r="V23" t="s">
+        <v>27</v>
+      </c>
+      <c r="W23" t="s">
+        <v>27</v>
+      </c>
+      <c r="X23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z23">
+        <v>20</v>
+      </c>
+      <c r="AA23">
+        <v>20</v>
+      </c>
+      <c r="AB23">
+        <v>7</v>
+      </c>
+      <c r="AC23">
+        <v>13</v>
+      </c>
+      <c r="AD23">
+        <v>5</v>
+      </c>
+      <c r="AE23">
+        <v>10</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>25</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>83</v>
+      </c>
+      <c r="AK23">
+        <v>10</v>
+      </c>
+      <c r="AL23">
+        <v>7</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" t="s">
+        <v>27</v>
+      </c>
+      <c r="U24" t="s">
+        <v>27</v>
+      </c>
+      <c r="V24" t="s">
+        <v>27</v>
+      </c>
+      <c r="W24" t="s">
+        <v>27</v>
+      </c>
+      <c r="X24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z24">
+        <v>60</v>
+      </c>
+      <c r="AA24">
+        <v>25</v>
+      </c>
+      <c r="AB24">
+        <v>12</v>
+      </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>95</v>
+      </c>
+      <c r="AK24">
+        <v>5</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>70</v>
+      </c>
+      <c r="R25" t="s">
+        <v>103</v>
+      </c>
+      <c r="S25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" t="s">
+        <v>197</v>
+      </c>
+      <c r="U25" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" t="s">
+        <v>27</v>
+      </c>
+      <c r="W25" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z25">
+        <v>20</v>
+      </c>
+      <c r="AA25">
+        <v>20</v>
+      </c>
+      <c r="AB25">
+        <v>7</v>
+      </c>
+      <c r="AC25">
+        <v>13</v>
+      </c>
+      <c r="AD25">
+        <v>5</v>
+      </c>
+      <c r="AE25">
+        <v>10</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>25</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>83</v>
+      </c>
+      <c r="AK25">
+        <v>10</v>
+      </c>
+      <c r="AL25">
+        <v>7</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>40</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26" t="s">
+        <v>27</v>
+      </c>
+      <c r="X26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z26">
+        <v>60</v>
+      </c>
+      <c r="AA26">
+        <v>25</v>
+      </c>
+      <c r="AB26">
+        <v>12</v>
+      </c>
+      <c r="AC26">
+        <v>3</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>95</v>
+      </c>
+      <c r="AK26">
+        <v>5</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27">
+        <v>90</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" t="s">
+        <v>27</v>
+      </c>
+      <c r="U27" t="s">
+        <v>27</v>
+      </c>
+      <c r="V27" t="s">
+        <v>27</v>
+      </c>
+      <c r="W27" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z27">
+        <v>60</v>
+      </c>
+      <c r="AA27">
+        <v>25</v>
+      </c>
+      <c r="AB27">
+        <v>12</v>
+      </c>
+      <c r="AC27">
+        <v>3</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>95</v>
+      </c>
+      <c r="AK27">
+        <v>5</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28">
+        <v>90</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>9999</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" t="s">
+        <v>27</v>
+      </c>
+      <c r="T28" t="s">
+        <v>27</v>
+      </c>
+      <c r="U28" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" t="s">
+        <v>27</v>
+      </c>
+      <c r="X28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z28">
+        <v>60</v>
+      </c>
+      <c r="AA28">
+        <v>25</v>
+      </c>
+      <c r="AB28">
+        <v>12</v>
+      </c>
+      <c r="AC28">
+        <v>3</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>95</v>
+      </c>
+      <c r="AK28">
+        <v>5</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO28">
         <v>1</v>
       </c>
     </row>
@@ -9175,10 +9890,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9213,28 +9928,28 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -9252,19 +9967,19 @@
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>9</v>
@@ -9291,19 +10006,19 @@
         <v>15</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>16</v>
@@ -9315,13 +10030,13 @@
         <v>32</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="AO1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.4">
@@ -9330,16 +10045,16 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -9456,16 +10171,16 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -9582,16 +10297,16 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -9708,16 +10423,16 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -9837,13 +10552,13 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -9855,10 +10570,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -9963,13 +10678,13 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -10089,13 +10804,13 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -10215,13 +10930,13 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -10334,20 +11049,20 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A10">
-        <f t="shared" ref="A10:A21" si="1">ROW()-2+100</f>
+        <f t="shared" ref="A10:A28" si="1">ROW()-2+100</f>
         <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10">
         <v>90</v>
@@ -10359,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -10449,10 +11164,10 @@
         <v>0</v>
       </c>
       <c r="AM10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -10464,16 +11179,16 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11">
         <v>90</v>
@@ -10575,10 +11290,10 @@
         <v>0</v>
       </c>
       <c r="AM11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -10590,16 +11305,16 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12">
         <v>90</v>
@@ -10701,10 +11416,10 @@
         <v>0</v>
       </c>
       <c r="AM12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -10716,16 +11431,16 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13">
         <v>90</v>
@@ -10827,10 +11542,10 @@
         <v>0</v>
       </c>
       <c r="AM13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -10842,16 +11557,16 @@
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F14">
         <v>30</v>
@@ -10863,10 +11578,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -10968,16 +11683,16 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15">
         <v>30</v>
@@ -11094,16 +11809,16 @@
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -11115,10 +11830,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -11220,16 +11935,16 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17">
         <v>30</v>
@@ -11241,10 +11956,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -11346,16 +12061,16 @@
         <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -11385,10 +12100,10 @@
         <v>36</v>
       </c>
       <c r="O18" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="P18" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="Q18" t="s">
         <v>27</v>
@@ -11412,7 +12127,7 @@
         <v>27</v>
       </c>
       <c r="X18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y18" t="s">
         <v>27</v>
@@ -11421,13 +12136,13 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -11457,10 +12172,10 @@
         <v>0</v>
       </c>
       <c r="AM18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AN18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -11475,13 +12190,13 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F19">
         <v>15</v>
@@ -11517,16 +12232,16 @@
         <v>25</v>
       </c>
       <c r="Q19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S19" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="T19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U19" t="s">
         <v>27</v>
@@ -11541,7 +12256,7 @@
         <v>33</v>
       </c>
       <c r="Y19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z19">
         <v>20</v>
@@ -11562,10 +12277,10 @@
         <v>10</v>
       </c>
       <c r="AF19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -11583,10 +12298,10 @@
         <v>7</v>
       </c>
       <c r="AM19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -11598,34 +12313,34 @@
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -11634,25 +12349,25 @@
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q20" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="R20" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="S20" t="s">
         <v>27</v>
       </c>
       <c r="T20" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U20" t="s">
         <v>27</v>
@@ -11664,35 +12379,35 @@
         <v>27</v>
       </c>
       <c r="X20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Y20" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="Z20">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AA20">
+        <v>20</v>
+      </c>
+      <c r="AB20">
+        <v>7</v>
+      </c>
+      <c r="AC20">
+        <v>13</v>
+      </c>
+      <c r="AD20">
+        <v>5</v>
+      </c>
+      <c r="AE20">
+        <v>10</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
         <v>25</v>
       </c>
-      <c r="AB20">
-        <v>12</v>
-      </c>
-      <c r="AC20">
-        <v>3</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
       <c r="AH20">
         <v>0</v>
       </c>
@@ -11700,19 +12415,19 @@
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AK20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -11724,25 +12439,25 @@
         <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -11751,34 +12466,34 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M21" t="s">
         <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q21" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="R21" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="S21" t="s">
         <v>27</v>
       </c>
       <c r="T21" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U21" t="s">
         <v>27</v>
@@ -11790,57 +12505,939 @@
         <v>27</v>
       </c>
       <c r="X21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Y21" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="Z21">
+        <v>20</v>
+      </c>
+      <c r="AA21">
+        <v>20</v>
+      </c>
+      <c r="AB21">
+        <v>7</v>
+      </c>
+      <c r="AC21">
+        <v>13</v>
+      </c>
+      <c r="AD21">
+        <v>5</v>
+      </c>
+      <c r="AE21">
+        <v>10</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>25</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>83</v>
+      </c>
+      <c r="AK21">
+        <v>10</v>
+      </c>
+      <c r="AL21">
+        <v>7</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" t="s">
+        <v>27</v>
+      </c>
+      <c r="U22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" t="s">
+        <v>27</v>
+      </c>
+      <c r="X22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z22">
         <v>60</v>
       </c>
-      <c r="AA21">
+      <c r="AA22">
         <v>25</v>
       </c>
-      <c r="AB21">
+      <c r="AB22">
         <v>12</v>
       </c>
-      <c r="AC21">
+      <c r="AC22">
         <v>3</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
         <v>95</v>
       </c>
-      <c r="AK21">
+      <c r="AK22">
         <v>5</v>
       </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO21">
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R23" t="s">
+        <v>103</v>
+      </c>
+      <c r="S23" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" t="s">
+        <v>197</v>
+      </c>
+      <c r="U23" t="s">
+        <v>27</v>
+      </c>
+      <c r="V23" t="s">
+        <v>27</v>
+      </c>
+      <c r="W23" t="s">
+        <v>27</v>
+      </c>
+      <c r="X23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z23">
+        <v>20</v>
+      </c>
+      <c r="AA23">
+        <v>20</v>
+      </c>
+      <c r="AB23">
+        <v>7</v>
+      </c>
+      <c r="AC23">
+        <v>13</v>
+      </c>
+      <c r="AD23">
+        <v>5</v>
+      </c>
+      <c r="AE23">
+        <v>10</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>25</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>83</v>
+      </c>
+      <c r="AK23">
+        <v>10</v>
+      </c>
+      <c r="AL23">
+        <v>7</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" t="s">
+        <v>27</v>
+      </c>
+      <c r="U24" t="s">
+        <v>27</v>
+      </c>
+      <c r="V24" t="s">
+        <v>27</v>
+      </c>
+      <c r="W24" t="s">
+        <v>27</v>
+      </c>
+      <c r="X24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z24">
+        <v>60</v>
+      </c>
+      <c r="AA24">
+        <v>25</v>
+      </c>
+      <c r="AB24">
+        <v>12</v>
+      </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>95</v>
+      </c>
+      <c r="AK24">
+        <v>5</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>70</v>
+      </c>
+      <c r="R25" t="s">
+        <v>103</v>
+      </c>
+      <c r="S25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" t="s">
+        <v>197</v>
+      </c>
+      <c r="U25" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" t="s">
+        <v>27</v>
+      </c>
+      <c r="W25" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z25">
+        <v>20</v>
+      </c>
+      <c r="AA25">
+        <v>20</v>
+      </c>
+      <c r="AB25">
+        <v>7</v>
+      </c>
+      <c r="AC25">
+        <v>13</v>
+      </c>
+      <c r="AD25">
+        <v>5</v>
+      </c>
+      <c r="AE25">
+        <v>10</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>25</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>83</v>
+      </c>
+      <c r="AK25">
+        <v>10</v>
+      </c>
+      <c r="AL25">
+        <v>7</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>40</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26" t="s">
+        <v>27</v>
+      </c>
+      <c r="X26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z26">
+        <v>60</v>
+      </c>
+      <c r="AA26">
+        <v>25</v>
+      </c>
+      <c r="AB26">
+        <v>12</v>
+      </c>
+      <c r="AC26">
+        <v>3</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>95</v>
+      </c>
+      <c r="AK26">
+        <v>5</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27">
+        <v>90</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" t="s">
+        <v>27</v>
+      </c>
+      <c r="U27" t="s">
+        <v>27</v>
+      </c>
+      <c r="V27" t="s">
+        <v>27</v>
+      </c>
+      <c r="W27" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z27">
+        <v>60</v>
+      </c>
+      <c r="AA27">
+        <v>25</v>
+      </c>
+      <c r="AB27">
+        <v>12</v>
+      </c>
+      <c r="AC27">
+        <v>3</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>95</v>
+      </c>
+      <c r="AK27">
+        <v>5</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28">
+        <v>90</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>9999</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" t="s">
+        <v>27</v>
+      </c>
+      <c r="T28" t="s">
+        <v>27</v>
+      </c>
+      <c r="U28" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" t="s">
+        <v>27</v>
+      </c>
+      <c r="X28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z28">
+        <v>60</v>
+      </c>
+      <c r="AA28">
+        <v>25</v>
+      </c>
+      <c r="AB28">
+        <v>12</v>
+      </c>
+      <c r="AC28">
+        <v>3</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>95</v>
+      </c>
+      <c r="AK28">
+        <v>5</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO28">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F98138-30E0-466F-9C24-0D1F9D958725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF88611F-B3C0-4BED-81A7-5D75564A4953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="720" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1800" yWindow="720" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="217">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1343,6 +1343,10 @@
   </si>
   <si>
     <t>エク・レ～ル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MapBG_Nemofira_plain</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1732,7 +1736,7 @@
   <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F12" sqref="F12:AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6332,8 +6336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8765,49 +8769,49 @@
         <v>116</v>
       </c>
       <c r="F20">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M20" t="s">
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="O20" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="P20" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q20" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="R20" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="S20" t="s">
         <v>27</v>
       </c>
       <c r="T20" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="U20" t="s">
         <v>27</v>
@@ -8819,25 +8823,25 @@
         <v>27</v>
       </c>
       <c r="X20" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="Y20" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="Z20">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AA20">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AB20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC20">
+        <v>12</v>
+      </c>
+      <c r="AD20">
         <v>13</v>
-      </c>
-      <c r="AD20">
-        <v>5</v>
       </c>
       <c r="AE20">
         <v>10</v>
@@ -8846,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -8864,10 +8868,10 @@
         <v>7</v>
       </c>
       <c r="AM20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AN20" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -9892,8 +9896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12325,49 +12329,49 @@
         <v>142</v>
       </c>
       <c r="F20">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M20" t="s">
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="O20" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="P20" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q20" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="R20" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="S20" t="s">
         <v>27</v>
       </c>
       <c r="T20" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="U20" t="s">
         <v>27</v>
@@ -12379,25 +12383,25 @@
         <v>27</v>
       </c>
       <c r="X20" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="Y20" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="Z20">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AA20">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AB20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC20">
+        <v>12</v>
+      </c>
+      <c r="AD20">
         <v>13</v>
-      </c>
-      <c r="AD20">
-        <v>5</v>
       </c>
       <c r="AE20">
         <v>10</v>
@@ -12406,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -12424,10 +12428,10 @@
         <v>7</v>
       </c>
       <c r="AM20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AN20" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AO20">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF88611F-B3C0-4BED-81A7-5D75564A4953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D02B787-F824-45AD-B3BF-1DD1F9FA4F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="720" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3555" yWindow="1245" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="219">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1347,6 +1347,14 @@
   </si>
   <si>
     <t>MapBG_Nemofira_plain</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sapphire_suger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Aquamarine_Lake</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6336,8 +6344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8823,7 +8831,7 @@
         <v>27</v>
       </c>
       <c r="X20" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="Y20" t="s">
         <v>136</v>
@@ -8886,7 +8894,7 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="D21" t="s">
         <v>204</v>
@@ -9896,8 +9904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12446,7 +12454,7 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="D21" t="s">
         <v>204</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D02B787-F824-45AD-B3BF-1DD1F9FA4F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A943744-24F1-43B9-ACE2-9E35D38441BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="1245" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1335" yWindow="915" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="220">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1355,6 +1355,10 @@
   </si>
   <si>
     <t>Aquamarine_Lake</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>contest_mini_icon</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6344,8 +6348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7505,7 +7509,7 @@
         <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
         <v>177</v>
@@ -7631,7 +7635,7 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C11" t="s">
         <v>179</v>
@@ -7757,7 +7761,7 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
         <v>180</v>
@@ -7883,7 +7887,7 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C13" t="s">
         <v>181</v>
@@ -8786,7 +8790,7 @@
         <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>9999</v>
@@ -8795,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M20" t="s">
         <v>26</v>
@@ -9904,8 +9908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11065,7 +11069,7 @@
         <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
         <v>177</v>
@@ -11191,7 +11195,7 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C11" t="s">
         <v>179</v>
@@ -11317,7 +11321,7 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
         <v>180</v>
@@ -11443,7 +11447,7 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C13" t="s">
         <v>181</v>
@@ -12346,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>9999</v>
@@ -12355,7 +12359,7 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M20" t="s">
         <v>26</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A943744-24F1-43B9-ACE2-9E35D38441BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32497381-2963-465C-A121-006C514C9EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="915" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2625" yWindow="1260" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="237">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1359,6 +1359,74 @@
   </si>
   <si>
     <t>contest_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>moon_apple</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nuts_pistachio</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jems_nuts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>maron</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apricot</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>melon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>scarletberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>orange_of_sun</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rainbowberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blacklotus</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cacao_beans</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strawberry_satinoka</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>vanilla_fruits</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pineapple</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>water_high</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MapBG_EmeraldForest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MapBG_AquamarineLake</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6349,7 +6417,7 @@
   <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A19" sqref="A19:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8907,10 +8975,10 @@
         <v>116</v>
       </c>
       <c r="F21">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -8931,25 +8999,25 @@
         <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="O21" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="Q21" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="R21" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="S21" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="U21" t="s">
         <v>27</v>
@@ -8964,7 +9032,7 @@
         <v>33</v>
       </c>
       <c r="Y21" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="Z21">
         <v>20</v>
@@ -8985,10 +9053,10 @@
         <v>10</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -9009,7 +9077,7 @@
         <v>84</v>
       </c>
       <c r="AN21" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -9036,10 +9104,10 @@
         <v>30</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -9057,19 +9125,19 @@
         <v>26</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s">
         <v>25</v>
       </c>
       <c r="Q22" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="R22" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="S22" t="s">
         <v>27</v>
@@ -9093,22 +9161,22 @@
         <v>27</v>
       </c>
       <c r="Z22">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AA22">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB22">
         <v>12</v>
       </c>
       <c r="AC22">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -9135,7 +9203,7 @@
         <v>84</v>
       </c>
       <c r="AN22" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -9159,16 +9227,16 @@
         <v>116</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -9183,25 +9251,25 @@
         <v>26</v>
       </c>
       <c r="N23" t="s">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="P23" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="Q23" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="R23" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="S23" t="s">
         <v>27</v>
       </c>
       <c r="T23" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="U23" t="s">
         <v>27</v>
@@ -9216,7 +9284,7 @@
         <v>33</v>
       </c>
       <c r="Y23" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="Z23">
         <v>20</v>
@@ -9228,10 +9296,10 @@
         <v>7</v>
       </c>
       <c r="AC23">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AD23">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AE23">
         <v>10</v>
@@ -9240,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -9288,10 +9356,10 @@
         <v>30</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -9309,13 +9377,13 @@
         <v>26</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="Q24" t="s">
         <v>27</v>
@@ -9345,16 +9413,16 @@
         <v>27</v>
       </c>
       <c r="Z24">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AA24">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AB24">
         <v>12</v>
       </c>
       <c r="AC24">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -9411,16 +9479,16 @@
         <v>116</v>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -9435,10 +9503,10 @@
         <v>26</v>
       </c>
       <c r="N25" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="P25" t="s">
         <v>25</v>
@@ -9453,7 +9521,7 @@
         <v>27</v>
       </c>
       <c r="T25" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="U25" t="s">
         <v>27</v>
@@ -9468,16 +9536,16 @@
         <v>33</v>
       </c>
       <c r="Y25" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="Z25">
         <v>20</v>
       </c>
       <c r="AA25">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AB25">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AC25">
         <v>13</v>
@@ -9492,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -9540,10 +9608,10 @@
         <v>30</v>
       </c>
       <c r="G26">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -9561,7 +9629,7 @@
         <v>26</v>
       </c>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s">
         <v>24</v>
@@ -9591,7 +9659,7 @@
         <v>27</v>
       </c>
       <c r="X26" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="Y26" t="s">
         <v>27</v>
@@ -9909,7 +9977,7 @@
   <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12395,7 +12463,7 @@
         <v>27</v>
       </c>
       <c r="X20" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="Y20" t="s">
         <v>136</v>
@@ -12467,10 +12535,10 @@
         <v>142</v>
       </c>
       <c r="F21">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -12491,25 +12559,25 @@
         <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="O21" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="Q21" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="R21" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="S21" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="U21" t="s">
         <v>27</v>
@@ -12524,7 +12592,7 @@
         <v>33</v>
       </c>
       <c r="Y21" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="Z21">
         <v>20</v>
@@ -12545,10 +12613,10 @@
         <v>10</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -12569,7 +12637,7 @@
         <v>84</v>
       </c>
       <c r="AN21" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -12596,10 +12664,10 @@
         <v>30</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -12617,19 +12685,19 @@
         <v>26</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s">
         <v>25</v>
       </c>
       <c r="Q22" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="R22" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="S22" t="s">
         <v>27</v>
@@ -12653,22 +12721,22 @@
         <v>27</v>
       </c>
       <c r="Z22">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AA22">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB22">
         <v>12</v>
       </c>
       <c r="AC22">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -12695,7 +12763,7 @@
         <v>84</v>
       </c>
       <c r="AN22" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -12719,16 +12787,16 @@
         <v>142</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -12743,25 +12811,25 @@
         <v>26</v>
       </c>
       <c r="N23" t="s">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="P23" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="Q23" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="R23" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="S23" t="s">
         <v>27</v>
       </c>
       <c r="T23" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="U23" t="s">
         <v>27</v>
@@ -12776,7 +12844,7 @@
         <v>33</v>
       </c>
       <c r="Y23" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="Z23">
         <v>20</v>
@@ -12788,10 +12856,10 @@
         <v>7</v>
       </c>
       <c r="AC23">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AD23">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AE23">
         <v>10</v>
@@ -12800,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -12848,10 +12916,10 @@
         <v>30</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -12869,13 +12937,13 @@
         <v>26</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="Q24" t="s">
         <v>27</v>
@@ -12905,16 +12973,16 @@
         <v>27</v>
       </c>
       <c r="Z24">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AA24">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AB24">
         <v>12</v>
       </c>
       <c r="AC24">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -12971,16 +13039,16 @@
         <v>142</v>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -12995,10 +13063,10 @@
         <v>26</v>
       </c>
       <c r="N25" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="P25" t="s">
         <v>25</v>
@@ -13013,7 +13081,7 @@
         <v>27</v>
       </c>
       <c r="T25" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="U25" t="s">
         <v>27</v>
@@ -13028,16 +13096,16 @@
         <v>33</v>
       </c>
       <c r="Y25" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="Z25">
         <v>20</v>
       </c>
       <c r="AA25">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AB25">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AC25">
         <v>13</v>
@@ -13052,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -13100,10 +13168,10 @@
         <v>30</v>
       </c>
       <c r="G26">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -13121,7 +13189,7 @@
         <v>26</v>
       </c>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s">
         <v>24</v>
@@ -13151,7 +13219,7 @@
         <v>27</v>
       </c>
       <c r="X26" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="Y26" t="s">
         <v>27</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32497381-2963-465C-A121-006C514C9EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1C8033-7F10-4D6D-BDEE-6AF1ED3A3AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="1260" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="236">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1403,10 +1403,6 @@
   </si>
   <si>
     <t>cacao_beans</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>strawberry_satinoka</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1815,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AO18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:AN12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6416,8 +6412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8879,7 +8875,7 @@
         <v>73</v>
       </c>
       <c r="P20" t="s">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="Q20" t="s">
         <v>113</v>
@@ -8909,13 +8905,13 @@
         <v>136</v>
       </c>
       <c r="Z20">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AA20">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC20">
         <v>12</v>
@@ -9017,7 +9013,7 @@
         <v>74</v>
       </c>
       <c r="T21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U21" t="s">
         <v>27</v>
@@ -9077,7 +9073,7 @@
         <v>84</v>
       </c>
       <c r="AN21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -9134,10 +9130,10 @@
         <v>25</v>
       </c>
       <c r="Q22" t="s">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="R22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S22" t="s">
         <v>27</v>
@@ -9155,25 +9151,25 @@
         <v>27</v>
       </c>
       <c r="X22" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s">
         <v>27</v>
       </c>
       <c r="Z22">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AA22">
         <v>20</v>
       </c>
       <c r="AB22">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC22">
         <v>13</v>
       </c>
       <c r="AD22">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AE22">
         <v>10</v>
@@ -9203,7 +9199,7 @@
         <v>84</v>
       </c>
       <c r="AN22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -9263,7 +9259,7 @@
         <v>110</v>
       </c>
       <c r="R23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S23" t="s">
         <v>27</v>
@@ -9281,7 +9277,7 @@
         <v>27</v>
       </c>
       <c r="X23" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="Y23" t="s">
         <v>27</v>
@@ -9416,10 +9412,10 @@
         <v>30</v>
       </c>
       <c r="AA24">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="AB24">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AC24">
         <v>23</v>
@@ -9665,10 +9661,10 @@
         <v>27</v>
       </c>
       <c r="Z26">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AA26">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AB26">
         <v>12</v>
@@ -9976,8 +9972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12439,7 +12435,7 @@
         <v>73</v>
       </c>
       <c r="P20" t="s">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="Q20" t="s">
         <v>113</v>
@@ -12469,13 +12465,13 @@
         <v>136</v>
       </c>
       <c r="Z20">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AA20">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC20">
         <v>12</v>
@@ -12577,7 +12573,7 @@
         <v>74</v>
       </c>
       <c r="T21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U21" t="s">
         <v>27</v>
@@ -12637,7 +12633,7 @@
         <v>84</v>
       </c>
       <c r="AN21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -12694,10 +12690,10 @@
         <v>25</v>
       </c>
       <c r="Q22" t="s">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="R22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S22" t="s">
         <v>27</v>
@@ -12715,25 +12711,25 @@
         <v>27</v>
       </c>
       <c r="X22" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s">
         <v>27</v>
       </c>
       <c r="Z22">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AA22">
         <v>20</v>
       </c>
       <c r="AB22">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC22">
         <v>13</v>
       </c>
       <c r="AD22">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AE22">
         <v>10</v>
@@ -12763,7 +12759,7 @@
         <v>84</v>
       </c>
       <c r="AN22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -12823,7 +12819,7 @@
         <v>110</v>
       </c>
       <c r="R23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S23" t="s">
         <v>27</v>
@@ -12841,7 +12837,7 @@
         <v>27</v>
       </c>
       <c r="X23" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="Y23" t="s">
         <v>27</v>
@@ -12976,10 +12972,10 @@
         <v>30</v>
       </c>
       <c r="AA24">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="AB24">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AC24">
         <v>23</v>
@@ -13225,10 +13221,10 @@
         <v>27</v>
       </c>
       <c r="Z26">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AA26">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AB26">
         <v>12</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1C8033-7F10-4D6D-BDEE-6AF1ED3A3AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A58E821-49E0-4497-AF95-2CD07FE3E022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2940" yWindow="1185" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="248">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1423,6 +1423,54 @@
   </si>
   <si>
     <t>MapBG_AquamarineLake</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>orange_pinkblood</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apple_kogyoku</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strawberry_satinoka</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strawberry_sweatking</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>silver_grass</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>water_special</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>grape_kihu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>diamond_2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MapBG_AmberLake</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MapBG_RubyPlane</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MapBG_MoonStoneHills</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MapBG_DiamondMountain</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6412,8 +6460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9025,7 +9073,7 @@
         <v>27</v>
       </c>
       <c r="X21" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="Y21" t="s">
         <v>27</v>
@@ -9034,10 +9082,10 @@
         <v>20</v>
       </c>
       <c r="AA21">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AC21">
         <v>13</v>
@@ -9136,7 +9184,7 @@
         <v>232</v>
       </c>
       <c r="S22" t="s">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="T22" t="s">
         <v>27</v>
@@ -9154,7 +9202,7 @@
         <v>225</v>
       </c>
       <c r="Y22" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="Z22">
         <v>20</v>
@@ -9169,13 +9217,13 @@
         <v>13</v>
       </c>
       <c r="AD22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE22">
         <v>10</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -9190,10 +9238,10 @@
         <v>95</v>
       </c>
       <c r="AK22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22" t="s">
         <v>84</v>
@@ -9259,16 +9307,16 @@
         <v>110</v>
       </c>
       <c r="R23" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="S23" t="s">
         <v>27</v>
       </c>
       <c r="T23" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="U23" t="s">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="V23" t="s">
         <v>27</v>
@@ -9277,10 +9325,10 @@
         <v>27</v>
       </c>
       <c r="X23" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="Y23" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="Z23">
         <v>20</v>
@@ -9292,40 +9340,40 @@
         <v>7</v>
       </c>
       <c r="AC23">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AD23">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE23">
         <v>10</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI23">
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AK23">
         <v>10</v>
       </c>
       <c r="AL23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AM23" t="s">
         <v>84</v>
       </c>
       <c r="AN23" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -9373,16 +9421,16 @@
         <v>26</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>72</v>
       </c>
       <c r="O24" t="s">
         <v>226</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="Q24" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="R24" t="s">
         <v>27</v>
@@ -9403,25 +9451,25 @@
         <v>27</v>
       </c>
       <c r="X24" t="s">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="Y24" t="s">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="Z24">
+        <v>25</v>
+      </c>
+      <c r="AA24">
         <v>30</v>
       </c>
-      <c r="AA24">
-        <v>5</v>
-      </c>
       <c r="AB24">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AC24">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -9439,19 +9487,19 @@
         <v>0</v>
       </c>
       <c r="AJ24">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK24">
         <v>5</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM24" t="s">
         <v>84</v>
       </c>
       <c r="AN24" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -9499,13 +9547,13 @@
         <v>26</v>
       </c>
       <c r="N25" t="s">
+        <v>240</v>
+      </c>
+      <c r="O25" t="s">
         <v>220</v>
       </c>
-      <c r="O25" t="s">
-        <v>228</v>
-      </c>
       <c r="P25" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="Q25" t="s">
         <v>70</v>
@@ -9529,7 +9577,7 @@
         <v>27</v>
       </c>
       <c r="X25" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="Y25" t="s">
         <v>27</v>
@@ -9541,13 +9589,13 @@
         <v>35</v>
       </c>
       <c r="AB25">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AC25">
         <v>13</v>
       </c>
       <c r="AD25">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE25">
         <v>10</v>
@@ -9577,7 +9625,7 @@
         <v>84</v>
       </c>
       <c r="AN25" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -9628,10 +9676,10 @@
         <v>222</v>
       </c>
       <c r="O26" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="P26" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="Q26" t="s">
         <v>27</v>
@@ -9658,19 +9706,19 @@
         <v>229</v>
       </c>
       <c r="Y26" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="Z26">
         <v>40</v>
       </c>
       <c r="AA26">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AB26">
         <v>12</v>
       </c>
       <c r="AC26">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -9694,16 +9742,16 @@
         <v>95</v>
       </c>
       <c r="AK26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" t="s">
         <v>84</v>
       </c>
       <c r="AN26" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -9972,8 +10020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12585,7 +12633,7 @@
         <v>27</v>
       </c>
       <c r="X21" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="Y21" t="s">
         <v>27</v>
@@ -12594,10 +12642,10 @@
         <v>20</v>
       </c>
       <c r="AA21">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AC21">
         <v>13</v>
@@ -12696,7 +12744,7 @@
         <v>232</v>
       </c>
       <c r="S22" t="s">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="T22" t="s">
         <v>27</v>
@@ -12714,7 +12762,7 @@
         <v>225</v>
       </c>
       <c r="Y22" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="Z22">
         <v>20</v>
@@ -12729,13 +12777,13 @@
         <v>13</v>
       </c>
       <c r="AD22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE22">
         <v>10</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -12750,10 +12798,10 @@
         <v>95</v>
       </c>
       <c r="AK22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22" t="s">
         <v>84</v>
@@ -12819,16 +12867,16 @@
         <v>110</v>
       </c>
       <c r="R23" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="S23" t="s">
         <v>27</v>
       </c>
       <c r="T23" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="U23" t="s">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="V23" t="s">
         <v>27</v>
@@ -12837,10 +12885,10 @@
         <v>27</v>
       </c>
       <c r="X23" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="Y23" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="Z23">
         <v>20</v>
@@ -12852,40 +12900,40 @@
         <v>7</v>
       </c>
       <c r="AC23">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AD23">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE23">
         <v>10</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI23">
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AK23">
         <v>10</v>
       </c>
       <c r="AL23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AM23" t="s">
         <v>84</v>
       </c>
       <c r="AN23" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -12933,16 +12981,16 @@
         <v>26</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>72</v>
       </c>
       <c r="O24" t="s">
         <v>226</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="Q24" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="R24" t="s">
         <v>27</v>
@@ -12963,25 +13011,25 @@
         <v>27</v>
       </c>
       <c r="X24" t="s">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="Y24" t="s">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="Z24">
+        <v>25</v>
+      </c>
+      <c r="AA24">
         <v>30</v>
       </c>
-      <c r="AA24">
-        <v>5</v>
-      </c>
       <c r="AB24">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AC24">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -12999,19 +13047,19 @@
         <v>0</v>
       </c>
       <c r="AJ24">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK24">
         <v>5</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM24" t="s">
         <v>84</v>
       </c>
       <c r="AN24" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -13059,13 +13107,13 @@
         <v>26</v>
       </c>
       <c r="N25" t="s">
+        <v>240</v>
+      </c>
+      <c r="O25" t="s">
         <v>220</v>
       </c>
-      <c r="O25" t="s">
-        <v>228</v>
-      </c>
       <c r="P25" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="Q25" t="s">
         <v>70</v>
@@ -13089,7 +13137,7 @@
         <v>27</v>
       </c>
       <c r="X25" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="Y25" t="s">
         <v>27</v>
@@ -13101,13 +13149,13 @@
         <v>35</v>
       </c>
       <c r="AB25">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AC25">
         <v>13</v>
       </c>
       <c r="AD25">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE25">
         <v>10</v>
@@ -13137,7 +13185,7 @@
         <v>84</v>
       </c>
       <c r="AN25" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -13188,10 +13236,10 @@
         <v>222</v>
       </c>
       <c r="O26" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="P26" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="Q26" t="s">
         <v>27</v>
@@ -13218,19 +13266,19 @@
         <v>229</v>
       </c>
       <c r="Y26" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="Z26">
         <v>40</v>
       </c>
       <c r="AA26">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AB26">
         <v>12</v>
       </c>
       <c r="AC26">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -13254,16 +13302,16 @@
         <v>95</v>
       </c>
       <c r="AK26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" t="s">
         <v>84</v>
       </c>
       <c r="AN26" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="AO26">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A58E821-49E0-4497-AF95-2CD07FE3E022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DE8E72-AE93-4052-8060-495A31A3CC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1185" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4185" yWindow="1230" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -6460,8 +6460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9277,7 +9277,7 @@
         <v>500</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -10020,8 +10020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12837,7 +12837,7 @@
         <v>500</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DE8E72-AE93-4052-8060-495A31A3CC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5112DEEC-E344-435D-9A53-293B94CE4A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="1230" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3930" yWindow="1035" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -1859,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AO18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6460,8 +6460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8830,13 +8830,13 @@
         <v>20</v>
       </c>
       <c r="AA19">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AB19">
         <v>7</v>
       </c>
       <c r="AC19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD19">
         <v>5</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -10021,7 +10021,7 @@
   <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12390,13 +12390,13 @@
         <v>20</v>
       </c>
       <c r="AA19">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AB19">
         <v>7</v>
       </c>
       <c r="AC19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD19">
         <v>5</v>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AH19">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5112DEEC-E344-435D-9A53-293B94CE4A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BA4FDC-EE66-473D-8296-1CA8A999B5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="1035" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3150" yWindow="1200" windowWidth="23355" windowHeight="13695" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -1859,7 +1859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:AO18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -4159,7 +4159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0794BECB-8045-468B-952A-D5CA5B535CCB}">
   <dimension ref="A1:AO18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -6460,8 +6460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6760,10 +6760,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -6886,10 +6886,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -7012,10 +7012,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -7264,10 +7264,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -7390,10 +7390,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -7516,10 +7516,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -7768,10 +7768,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -7894,10 +7894,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -8020,10 +8020,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -9028,10 +9028,10 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -9535,7 +9535,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -10020,8 +10020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10320,10 +10320,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -10824,10 +10824,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -10950,10 +10950,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -11076,10 +11076,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -11328,10 +11328,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -11580,10 +11580,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -12588,10 +12588,10 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -12843,7 +12843,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -12969,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -13095,7 +13095,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K26">
         <v>1</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BA4FDC-EE66-473D-8296-1CA8A999B5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64FD1DF-166F-4AB3-B201-BE822DE6E30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="1200" windowWidth="23355" windowHeight="13695" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -6460,8 +6460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10020,7 +10020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64FD1DF-166F-4AB3-B201-BE822DE6E30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11B16BA-DBD4-484E-9DE7-86A169B0CB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="260">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1471,6 +1471,90 @@
   </si>
   <si>
     <t>MapBG_DiamondMountain</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミラボー先生の家</t>
+    <rPh sb="4" eb="6">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_MagicHouseA1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>春エリア入口</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イリグチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_HirobaEnter_A1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夏エリア入口</t>
+    <rPh sb="0" eb="1">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イリグチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>秋エリア入口</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イリグチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冬エリア入口</t>
+    <rPh sb="0" eb="1">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イリグチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_HirobaEnter_B1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_HirobaEnter_C1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_HirobaEnter_D1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オランジーナ城入口</t>
+    <rPh sb="6" eb="7">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イリグチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_HirobaEnter_Catsle</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6458,10 +6542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7113,7 +7197,7 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A6">
-        <f t="shared" ref="A6:A28" si="0">ROW()-2+100</f>
+        <f t="shared" ref="A6:A34" si="0">ROW()-2+100</f>
         <v>104</v>
       </c>
       <c r="B6" t="s">
@@ -8125,19 +8209,19 @@
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>250</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -8197,16 +8281,16 @@
         <v>27</v>
       </c>
       <c r="Z14">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AA14">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB14">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AC14">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -8236,10 +8320,10 @@
         <v>0</v>
       </c>
       <c r="AM14" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="AN14" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -8251,19 +8335,19 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -8275,13 +8359,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s">
         <v>26</v>
@@ -8323,16 +8407,16 @@
         <v>27</v>
       </c>
       <c r="Z15">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AA15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB15">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AC15">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -8362,10 +8446,10 @@
         <v>0</v>
       </c>
       <c r="AM15" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="AN15" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -8377,19 +8461,19 @@
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -8407,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M16" t="s">
         <v>26</v>
@@ -8488,10 +8572,10 @@
         <v>0</v>
       </c>
       <c r="AM16" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="AN16" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -8503,19 +8587,19 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -8533,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M17" t="s">
         <v>26</v>
@@ -8575,16 +8659,16 @@
         <v>27</v>
       </c>
       <c r="Z17">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AA17">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB17">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AC17">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -8614,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="AM17" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="AN17" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -8629,34 +8713,34 @@
         <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -8665,13 +8749,13 @@
         <v>26</v>
       </c>
       <c r="N18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="Q18" t="s">
         <v>27</v>
@@ -8695,22 +8779,22 @@
         <v>27</v>
       </c>
       <c r="X18" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="Y18" t="s">
         <v>27</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA18">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="AB18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -8731,19 +8815,19 @@
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AK18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AN18" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -8755,34 +8839,34 @@
         <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -8791,25 +8875,25 @@
         <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q19" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R19" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="S19" t="s">
         <v>27</v>
       </c>
       <c r="T19" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="U19" t="s">
         <v>27</v>
@@ -8821,55 +8905,55 @@
         <v>27</v>
       </c>
       <c r="X19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Y19" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="Z19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA19">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AB19">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AC19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>95</v>
+      </c>
+      <c r="AK19">
         <v>5</v>
       </c>
-      <c r="AE19">
-        <v>10</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>33</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>83</v>
-      </c>
-      <c r="AK19">
-        <v>10</v>
-      </c>
       <c r="AL19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="AN19" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -8881,25 +8965,25 @@
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="F20">
         <v>30</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -8908,7 +8992,7 @@
         <v>9999</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -8917,19 +9001,19 @@
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="P20" t="s">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="Q20" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="R20" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="S20" t="s">
         <v>27</v>
@@ -8947,28 +9031,28 @@
         <v>27</v>
       </c>
       <c r="X20" t="s">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="Y20" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="Z20">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="AA20">
         <v>30</v>
       </c>
       <c r="AB20">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AC20">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AD20">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -8983,19 +9067,19 @@
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AK20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="AN20" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -9007,61 +9091,61 @@
         <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="F21">
         <v>30</v>
       </c>
       <c r="G21">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M21" t="s">
         <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="P21" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="Q21" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="R21" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="S21" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="T21" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="U21" t="s">
         <v>27</v>
@@ -9073,55 +9157,55 @@
         <v>27</v>
       </c>
       <c r="X21" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="Y21" t="s">
         <v>27</v>
       </c>
       <c r="Z21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC21">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>95</v>
+      </c>
+      <c r="AK21">
         <v>5</v>
       </c>
-      <c r="AE21">
-        <v>10</v>
-      </c>
-      <c r="AF21">
-        <v>15</v>
-      </c>
-      <c r="AG21">
-        <v>10</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>83</v>
-      </c>
-      <c r="AK21">
-        <v>10</v>
-      </c>
       <c r="AL21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="AN21" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -9133,25 +9217,25 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F22">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G22">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -9160,70 +9244,70 @@
         <v>9999</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M22" t="s">
         <v>26</v>
       </c>
       <c r="N22" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="O22" t="s">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" t="s">
+        <v>27</v>
+      </c>
+      <c r="U22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" t="s">
+        <v>27</v>
+      </c>
+      <c r="X22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z22">
+        <v>60</v>
+      </c>
+      <c r="AA22">
         <v>25</v>
       </c>
-      <c r="Q22" t="s">
-        <v>137</v>
-      </c>
-      <c r="R22" t="s">
-        <v>232</v>
-      </c>
-      <c r="S22" t="s">
-        <v>236</v>
-      </c>
-      <c r="T22" t="s">
-        <v>27</v>
-      </c>
-      <c r="U22" t="s">
-        <v>27</v>
-      </c>
-      <c r="V22" t="s">
-        <v>27</v>
-      </c>
-      <c r="W22" t="s">
-        <v>27</v>
-      </c>
-      <c r="X22" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z22">
-        <v>20</v>
-      </c>
-      <c r="AA22">
-        <v>20</v>
-      </c>
       <c r="AB22">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AC22">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AD22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -9238,16 +9322,16 @@
         <v>95</v>
       </c>
       <c r="AK22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="AN22" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -9259,25 +9343,25 @@
         <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F23">
         <v>30</v>
       </c>
       <c r="G23">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -9286,37 +9370,37 @@
         <v>9999</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M23" t="s">
         <v>26</v>
       </c>
       <c r="N23" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="O23" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="Q23" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="R23" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="S23" t="s">
         <v>27</v>
       </c>
       <c r="T23" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="U23" t="s">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="V23" t="s">
         <v>27</v>
@@ -9325,55 +9409,55 @@
         <v>27</v>
       </c>
       <c r="X23" t="s">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="Y23" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="Z23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA23">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AB23">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AC23">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AD23">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>95</v>
+      </c>
+      <c r="AK23">
         <v>5</v>
       </c>
-      <c r="AH23">
-        <v>5</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>85</v>
-      </c>
-      <c r="AK23">
-        <v>10</v>
-      </c>
       <c r="AL23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="AN23" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -9385,52 +9469,52 @@
         <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D24" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F24">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M24" t="s">
         <v>26</v>
       </c>
       <c r="N24" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="O24" t="s">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="P24" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="Q24" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="R24" t="s">
         <v>27</v>
@@ -9451,25 +9535,25 @@
         <v>27</v>
       </c>
       <c r="X24" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="Y24" t="s">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="Z24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="AB24">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AC24">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -9487,19 +9571,19 @@
         <v>0</v>
       </c>
       <c r="AJ24">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AK24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AN24" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -9514,46 +9598,46 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="E25" t="s">
         <v>116</v>
       </c>
       <c r="F25">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G25">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M25" t="s">
         <v>26</v>
       </c>
       <c r="N25" t="s">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="O25" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="P25" t="s">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="Q25" t="s">
         <v>70</v>
@@ -9565,7 +9649,7 @@
         <v>27</v>
       </c>
       <c r="T25" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U25" t="s">
         <v>27</v>
@@ -9577,26 +9661,26 @@
         <v>27</v>
       </c>
       <c r="X25" t="s">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="Y25" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="Z25">
         <v>20</v>
       </c>
       <c r="AA25">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="AB25">
+        <v>7</v>
+      </c>
+      <c r="AC25">
+        <v>10</v>
+      </c>
+      <c r="AD25">
         <v>5</v>
       </c>
-      <c r="AC25">
-        <v>13</v>
-      </c>
-      <c r="AD25">
-        <v>17</v>
-      </c>
       <c r="AE25">
         <v>10</v>
       </c>
@@ -9604,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -9625,7 +9709,7 @@
         <v>84</v>
       </c>
       <c r="AN25" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -9640,22 +9724,22 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="F26">
         <v>30</v>
       </c>
       <c r="G26">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -9667,25 +9751,25 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M26" t="s">
         <v>26</v>
       </c>
       <c r="N26" t="s">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="O26" t="s">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="P26" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="Q26" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="R26" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="S26" t="s">
         <v>27</v>
@@ -9703,28 +9787,28 @@
         <v>27</v>
       </c>
       <c r="X26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="Y26" t="s">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="Z26">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AA26">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB26">
+        <v>7</v>
+      </c>
+      <c r="AC26">
         <v>12</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>13</v>
       </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
       <c r="AE26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -9739,19 +9823,19 @@
         <v>0</v>
       </c>
       <c r="AJ26">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AK26">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AM26" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AN26" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -9763,61 +9847,61 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="F27">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M27" t="s">
         <v>26</v>
       </c>
       <c r="N27" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="O27" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="Q27" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="R27" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="S27" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="U27" t="s">
         <v>27</v>
@@ -9829,34 +9913,34 @@
         <v>27</v>
       </c>
       <c r="X27" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="Y27" t="s">
         <v>27</v>
       </c>
       <c r="Z27">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AA27">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AC27">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -9865,19 +9949,19 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AK27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM27" t="s">
         <v>84</v>
       </c>
       <c r="AN27" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -9889,25 +9973,25 @@
         <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -9916,31 +10000,31 @@
         <v>9999</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M28" t="s">
         <v>26</v>
       </c>
       <c r="N28" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="O28" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="P28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q28" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="R28" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="S28" t="s">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="T28" t="s">
         <v>27</v>
@@ -9955,31 +10039,31 @@
         <v>27</v>
       </c>
       <c r="X28" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="Y28" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="Z28">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AA28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB28">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC28">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -9994,18 +10078,774 @@
         <v>95</v>
       </c>
       <c r="AK28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28" t="s">
         <v>84</v>
       </c>
       <c r="AN28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>500</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>9999</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>30</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" t="s">
+        <v>224</v>
+      </c>
+      <c r="P29" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>110</v>
+      </c>
+      <c r="R29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S29" t="s">
+        <v>27</v>
+      </c>
+      <c r="T29" t="s">
+        <v>129</v>
+      </c>
+      <c r="U29" t="s">
+        <v>237</v>
+      </c>
+      <c r="V29" t="s">
+        <v>27</v>
+      </c>
+      <c r="W29" t="s">
+        <v>27</v>
+      </c>
+      <c r="X29" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z29">
+        <v>20</v>
+      </c>
+      <c r="AA29">
+        <v>20</v>
+      </c>
+      <c r="AB29">
+        <v>7</v>
+      </c>
+      <c r="AC29">
+        <v>10</v>
+      </c>
+      <c r="AD29">
+        <v>15</v>
+      </c>
+      <c r="AE29">
+        <v>10</v>
+      </c>
+      <c r="AF29">
+        <v>8</v>
+      </c>
+      <c r="AG29">
+        <v>5</v>
+      </c>
+      <c r="AH29">
+        <v>5</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>85</v>
+      </c>
+      <c r="AK29">
+        <v>10</v>
+      </c>
+      <c r="AL29">
+        <v>5</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>500</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>9999</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" t="s">
+        <v>226</v>
+      </c>
+      <c r="P30" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>111</v>
+      </c>
+      <c r="R30" t="s">
+        <v>27</v>
+      </c>
+      <c r="S30" t="s">
+        <v>27</v>
+      </c>
+      <c r="T30" t="s">
+        <v>27</v>
+      </c>
+      <c r="U30" t="s">
+        <v>27</v>
+      </c>
+      <c r="V30" t="s">
+        <v>27</v>
+      </c>
+      <c r="W30" t="s">
+        <v>27</v>
+      </c>
+      <c r="X30" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z30">
+        <v>25</v>
+      </c>
+      <c r="AA30">
+        <v>30</v>
+      </c>
+      <c r="AB30">
+        <v>16</v>
+      </c>
+      <c r="AC30">
+        <v>28</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>90</v>
+      </c>
+      <c r="AK30">
+        <v>5</v>
+      </c>
+      <c r="AL30">
+        <v>5</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>800</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>9999</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>40</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" t="s">
+        <v>240</v>
+      </c>
+      <c r="O31" t="s">
+        <v>220</v>
+      </c>
+      <c r="P31" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>70</v>
+      </c>
+      <c r="R31" t="s">
+        <v>103</v>
+      </c>
+      <c r="S31" t="s">
+        <v>27</v>
+      </c>
+      <c r="T31" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31" t="s">
+        <v>27</v>
+      </c>
+      <c r="V31" t="s">
+        <v>27</v>
+      </c>
+      <c r="W31" t="s">
+        <v>27</v>
+      </c>
+      <c r="X31" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z31">
+        <v>20</v>
+      </c>
+      <c r="AA31">
+        <v>35</v>
+      </c>
+      <c r="AB31">
+        <v>5</v>
+      </c>
+      <c r="AC31">
+        <v>13</v>
+      </c>
+      <c r="AD31">
+        <v>17</v>
+      </c>
+      <c r="AE31">
+        <v>10</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>83</v>
+      </c>
+      <c r="AK31">
+        <v>10</v>
+      </c>
+      <c r="AL31">
+        <v>7</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>1200</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>9999</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>40</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>222</v>
+      </c>
+      <c r="O32" t="s">
+        <v>241</v>
+      </c>
+      <c r="P32" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32" t="s">
+        <v>27</v>
+      </c>
+      <c r="T32" t="s">
+        <v>27</v>
+      </c>
+      <c r="U32" t="s">
+        <v>27</v>
+      </c>
+      <c r="V32" t="s">
+        <v>27</v>
+      </c>
+      <c r="W32" t="s">
+        <v>27</v>
+      </c>
+      <c r="X32" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z32">
+        <v>40</v>
+      </c>
+      <c r="AA32">
+        <v>35</v>
+      </c>
+      <c r="AB32">
+        <v>12</v>
+      </c>
+      <c r="AC32">
+        <v>13</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>95</v>
+      </c>
+      <c r="AK32">
+        <v>4</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33">
+        <v>90</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>27</v>
+      </c>
+      <c r="R33" t="s">
+        <v>27</v>
+      </c>
+      <c r="S33" t="s">
+        <v>27</v>
+      </c>
+      <c r="T33" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" t="s">
+        <v>27</v>
+      </c>
+      <c r="V33" t="s">
+        <v>27</v>
+      </c>
+      <c r="W33" t="s">
+        <v>27</v>
+      </c>
+      <c r="X33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z33">
+        <v>60</v>
+      </c>
+      <c r="AA33">
+        <v>25</v>
+      </c>
+      <c r="AB33">
+        <v>12</v>
+      </c>
+      <c r="AC33">
+        <v>3</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>95</v>
+      </c>
+      <c r="AK33">
+        <v>5</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN33" t="s">
         <v>192</v>
       </c>
-      <c r="AO28">
+      <c r="AO33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34">
+        <v>90</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>9999</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>27</v>
+      </c>
+      <c r="R34" t="s">
+        <v>27</v>
+      </c>
+      <c r="S34" t="s">
+        <v>27</v>
+      </c>
+      <c r="T34" t="s">
+        <v>27</v>
+      </c>
+      <c r="U34" t="s">
+        <v>27</v>
+      </c>
+      <c r="V34" t="s">
+        <v>27</v>
+      </c>
+      <c r="W34" t="s">
+        <v>27</v>
+      </c>
+      <c r="X34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z34">
+        <v>60</v>
+      </c>
+      <c r="AA34">
+        <v>25</v>
+      </c>
+      <c r="AB34">
+        <v>12</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>95</v>
+      </c>
+      <c r="AK34">
+        <v>5</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO34">
         <v>1</v>
       </c>
     </row>
@@ -10018,10 +10858,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11177,7 +12017,7 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A10">
-        <f t="shared" ref="A10:A28" si="1">ROW()-2+100</f>
+        <f t="shared" ref="A10:A34" si="1">ROW()-2+100</f>
         <v>108</v>
       </c>
       <c r="B10" t="s">
@@ -11685,19 +12525,19 @@
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>250</v>
       </c>
       <c r="E14" t="s">
         <v>142</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -11757,16 +12597,16 @@
         <v>27</v>
       </c>
       <c r="Z14">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AA14">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB14">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AC14">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -11796,10 +12636,10 @@
         <v>0</v>
       </c>
       <c r="AM14" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="AN14" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -11811,19 +12651,19 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="E15" t="s">
         <v>142</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -11835,13 +12675,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s">
         <v>26</v>
@@ -11883,16 +12723,16 @@
         <v>27</v>
       </c>
       <c r="Z15">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AA15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB15">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AC15">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -11922,10 +12762,10 @@
         <v>0</v>
       </c>
       <c r="AM15" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="AN15" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -11937,19 +12777,19 @@
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="E16" t="s">
         <v>142</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -11967,7 +12807,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M16" t="s">
         <v>26</v>
@@ -12048,10 +12888,10 @@
         <v>0</v>
       </c>
       <c r="AM16" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="AN16" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -12063,19 +12903,19 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="E17" t="s">
         <v>142</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -12093,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M17" t="s">
         <v>26</v>
@@ -12135,16 +12975,16 @@
         <v>27</v>
       </c>
       <c r="Z17">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AA17">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB17">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AC17">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -12174,10 +13014,10 @@
         <v>0</v>
       </c>
       <c r="AM17" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="AN17" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -12189,34 +13029,34 @@
         <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="E18" t="s">
         <v>142</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -12225,13 +13065,13 @@
         <v>26</v>
       </c>
       <c r="N18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="Q18" t="s">
         <v>27</v>
@@ -12255,22 +13095,22 @@
         <v>27</v>
       </c>
       <c r="X18" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="Y18" t="s">
         <v>27</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA18">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="AB18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -12291,19 +13131,19 @@
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AK18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AN18" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -12315,34 +13155,34 @@
         <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
         <v>142</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -12351,25 +13191,25 @@
         <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q19" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R19" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="S19" t="s">
         <v>27</v>
       </c>
       <c r="T19" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="U19" t="s">
         <v>27</v>
@@ -12381,55 +13221,55 @@
         <v>27</v>
       </c>
       <c r="X19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Y19" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="Z19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA19">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AB19">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AC19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>95</v>
+      </c>
+      <c r="AK19">
         <v>5</v>
       </c>
-      <c r="AE19">
-        <v>10</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>33</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>83</v>
-      </c>
-      <c r="AK19">
-        <v>10</v>
-      </c>
       <c r="AL19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="AN19" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -12441,13 +13281,13 @@
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="E20" t="s">
         <v>142</v>
@@ -12456,10 +13296,10 @@
         <v>30</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -12468,7 +13308,7 @@
         <v>9999</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -12477,19 +13317,19 @@
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="P20" t="s">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="Q20" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="R20" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="S20" t="s">
         <v>27</v>
@@ -12507,28 +13347,28 @@
         <v>27</v>
       </c>
       <c r="X20" t="s">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="Y20" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="Z20">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="AA20">
         <v>30</v>
       </c>
       <c r="AB20">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AC20">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AD20">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -12543,19 +13383,19 @@
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AK20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="AN20" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -12567,13 +13407,13 @@
         <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="E21" t="s">
         <v>142</v>
@@ -12582,46 +13422,46 @@
         <v>30</v>
       </c>
       <c r="G21">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M21" t="s">
         <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="P21" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="Q21" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="R21" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="S21" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="T21" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="U21" t="s">
         <v>27</v>
@@ -12633,55 +13473,55 @@
         <v>27</v>
       </c>
       <c r="X21" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="Y21" t="s">
         <v>27</v>
       </c>
       <c r="Z21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC21">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>95</v>
+      </c>
+      <c r="AK21">
         <v>5</v>
       </c>
-      <c r="AE21">
-        <v>10</v>
-      </c>
-      <c r="AF21">
-        <v>15</v>
-      </c>
-      <c r="AG21">
-        <v>10</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>83</v>
-      </c>
-      <c r="AK21">
-        <v>10</v>
-      </c>
       <c r="AL21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="AN21" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -12693,25 +13533,25 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E22" t="s">
         <v>142</v>
       </c>
       <c r="F22">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G22">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -12720,70 +13560,70 @@
         <v>9999</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M22" t="s">
         <v>26</v>
       </c>
       <c r="N22" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="O22" t="s">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" t="s">
+        <v>27</v>
+      </c>
+      <c r="U22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" t="s">
+        <v>27</v>
+      </c>
+      <c r="X22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z22">
+        <v>60</v>
+      </c>
+      <c r="AA22">
         <v>25</v>
       </c>
-      <c r="Q22" t="s">
-        <v>137</v>
-      </c>
-      <c r="R22" t="s">
-        <v>232</v>
-      </c>
-      <c r="S22" t="s">
-        <v>236</v>
-      </c>
-      <c r="T22" t="s">
-        <v>27</v>
-      </c>
-      <c r="U22" t="s">
-        <v>27</v>
-      </c>
-      <c r="V22" t="s">
-        <v>27</v>
-      </c>
-      <c r="W22" t="s">
-        <v>27</v>
-      </c>
-      <c r="X22" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z22">
-        <v>20</v>
-      </c>
-      <c r="AA22">
-        <v>20</v>
-      </c>
       <c r="AB22">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AC22">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AD22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -12798,16 +13638,16 @@
         <v>95</v>
       </c>
       <c r="AK22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="AN22" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -12819,13 +13659,13 @@
         <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E23" t="s">
         <v>142</v>
@@ -12834,10 +13674,10 @@
         <v>30</v>
       </c>
       <c r="G23">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -12846,37 +13686,37 @@
         <v>9999</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M23" t="s">
         <v>26</v>
       </c>
       <c r="N23" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="O23" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="Q23" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="R23" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="S23" t="s">
         <v>27</v>
       </c>
       <c r="T23" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="U23" t="s">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="V23" t="s">
         <v>27</v>
@@ -12885,55 +13725,55 @@
         <v>27</v>
       </c>
       <c r="X23" t="s">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="Y23" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="Z23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA23">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AB23">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AC23">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AD23">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>95</v>
+      </c>
+      <c r="AK23">
         <v>5</v>
       </c>
-      <c r="AH23">
-        <v>5</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>85</v>
-      </c>
-      <c r="AK23">
-        <v>10</v>
-      </c>
       <c r="AL23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="AN23" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -12945,52 +13785,52 @@
         <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D24" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
         <v>142</v>
       </c>
       <c r="F24">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M24" t="s">
         <v>26</v>
       </c>
       <c r="N24" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="O24" t="s">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="P24" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="Q24" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="R24" t="s">
         <v>27</v>
@@ -13011,25 +13851,25 @@
         <v>27</v>
       </c>
       <c r="X24" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="Y24" t="s">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="Z24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="AB24">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AC24">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -13047,19 +13887,19 @@
         <v>0</v>
       </c>
       <c r="AJ24">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AK24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AN24" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -13074,46 +13914,46 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="E25" t="s">
         <v>142</v>
       </c>
       <c r="F25">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G25">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M25" t="s">
         <v>26</v>
       </c>
       <c r="N25" t="s">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="O25" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="P25" t="s">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="Q25" t="s">
         <v>70</v>
@@ -13125,7 +13965,7 @@
         <v>27</v>
       </c>
       <c r="T25" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U25" t="s">
         <v>27</v>
@@ -13137,26 +13977,26 @@
         <v>27</v>
       </c>
       <c r="X25" t="s">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="Y25" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="Z25">
         <v>20</v>
       </c>
       <c r="AA25">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="AB25">
+        <v>7</v>
+      </c>
+      <c r="AC25">
+        <v>10</v>
+      </c>
+      <c r="AD25">
         <v>5</v>
       </c>
-      <c r="AC25">
-        <v>13</v>
-      </c>
-      <c r="AD25">
-        <v>17</v>
-      </c>
       <c r="AE25">
         <v>10</v>
       </c>
@@ -13164,7 +14004,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -13185,7 +14025,7 @@
         <v>84</v>
       </c>
       <c r="AN25" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -13200,10 +14040,10 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
         <v>142</v>
@@ -13212,10 +14052,10 @@
         <v>30</v>
       </c>
       <c r="G26">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -13227,25 +14067,25 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M26" t="s">
         <v>26</v>
       </c>
       <c r="N26" t="s">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="O26" t="s">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="P26" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="Q26" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="R26" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="S26" t="s">
         <v>27</v>
@@ -13263,28 +14103,28 @@
         <v>27</v>
       </c>
       <c r="X26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="Y26" t="s">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="Z26">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AA26">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB26">
+        <v>7</v>
+      </c>
+      <c r="AC26">
         <v>12</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>13</v>
       </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
       <c r="AE26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -13299,19 +14139,19 @@
         <v>0</v>
       </c>
       <c r="AJ26">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AK26">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AM26" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AN26" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -13323,61 +14163,61 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="E27" t="s">
         <v>142</v>
       </c>
       <c r="F27">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M27" t="s">
         <v>26</v>
       </c>
       <c r="N27" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="O27" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="Q27" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="R27" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="S27" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="U27" t="s">
         <v>27</v>
@@ -13389,34 +14229,34 @@
         <v>27</v>
       </c>
       <c r="X27" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="Y27" t="s">
         <v>27</v>
       </c>
       <c r="Z27">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AA27">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AC27">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -13425,19 +14265,19 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AK27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM27" t="s">
         <v>84</v>
       </c>
       <c r="AN27" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -13449,25 +14289,25 @@
         <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="E28" t="s">
         <v>142</v>
       </c>
       <c r="F28">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -13476,31 +14316,31 @@
         <v>9999</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M28" t="s">
         <v>26</v>
       </c>
       <c r="N28" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="O28" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="P28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q28" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="R28" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="S28" t="s">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="T28" t="s">
         <v>27</v>
@@ -13515,31 +14355,31 @@
         <v>27</v>
       </c>
       <c r="X28" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="Y28" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="Z28">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AA28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB28">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC28">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -13554,18 +14394,774 @@
         <v>95</v>
       </c>
       <c r="AK28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28" t="s">
         <v>84</v>
       </c>
       <c r="AN28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>500</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>9999</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>30</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" t="s">
+        <v>224</v>
+      </c>
+      <c r="P29" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>110</v>
+      </c>
+      <c r="R29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S29" t="s">
+        <v>27</v>
+      </c>
+      <c r="T29" t="s">
+        <v>129</v>
+      </c>
+      <c r="U29" t="s">
+        <v>237</v>
+      </c>
+      <c r="V29" t="s">
+        <v>27</v>
+      </c>
+      <c r="W29" t="s">
+        <v>27</v>
+      </c>
+      <c r="X29" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z29">
+        <v>20</v>
+      </c>
+      <c r="AA29">
+        <v>20</v>
+      </c>
+      <c r="AB29">
+        <v>7</v>
+      </c>
+      <c r="AC29">
+        <v>10</v>
+      </c>
+      <c r="AD29">
+        <v>15</v>
+      </c>
+      <c r="AE29">
+        <v>10</v>
+      </c>
+      <c r="AF29">
+        <v>8</v>
+      </c>
+      <c r="AG29">
+        <v>5</v>
+      </c>
+      <c r="AH29">
+        <v>5</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>85</v>
+      </c>
+      <c r="AK29">
+        <v>10</v>
+      </c>
+      <c r="AL29">
+        <v>5</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>500</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>9999</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" t="s">
+        <v>226</v>
+      </c>
+      <c r="P30" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>111</v>
+      </c>
+      <c r="R30" t="s">
+        <v>27</v>
+      </c>
+      <c r="S30" t="s">
+        <v>27</v>
+      </c>
+      <c r="T30" t="s">
+        <v>27</v>
+      </c>
+      <c r="U30" t="s">
+        <v>27</v>
+      </c>
+      <c r="V30" t="s">
+        <v>27</v>
+      </c>
+      <c r="W30" t="s">
+        <v>27</v>
+      </c>
+      <c r="X30" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z30">
+        <v>25</v>
+      </c>
+      <c r="AA30">
+        <v>30</v>
+      </c>
+      <c r="AB30">
+        <v>16</v>
+      </c>
+      <c r="AC30">
+        <v>28</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>90</v>
+      </c>
+      <c r="AK30">
+        <v>5</v>
+      </c>
+      <c r="AL30">
+        <v>5</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>800</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>9999</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>40</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" t="s">
+        <v>240</v>
+      </c>
+      <c r="O31" t="s">
+        <v>220</v>
+      </c>
+      <c r="P31" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>70</v>
+      </c>
+      <c r="R31" t="s">
+        <v>103</v>
+      </c>
+      <c r="S31" t="s">
+        <v>27</v>
+      </c>
+      <c r="T31" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31" t="s">
+        <v>27</v>
+      </c>
+      <c r="V31" t="s">
+        <v>27</v>
+      </c>
+      <c r="W31" t="s">
+        <v>27</v>
+      </c>
+      <c r="X31" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z31">
+        <v>20</v>
+      </c>
+      <c r="AA31">
+        <v>35</v>
+      </c>
+      <c r="AB31">
+        <v>5</v>
+      </c>
+      <c r="AC31">
+        <v>13</v>
+      </c>
+      <c r="AD31">
+        <v>17</v>
+      </c>
+      <c r="AE31">
+        <v>10</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>83</v>
+      </c>
+      <c r="AK31">
+        <v>10</v>
+      </c>
+      <c r="AL31">
+        <v>7</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>1200</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>9999</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>40</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>222</v>
+      </c>
+      <c r="O32" t="s">
+        <v>241</v>
+      </c>
+      <c r="P32" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32" t="s">
+        <v>27</v>
+      </c>
+      <c r="T32" t="s">
+        <v>27</v>
+      </c>
+      <c r="U32" t="s">
+        <v>27</v>
+      </c>
+      <c r="V32" t="s">
+        <v>27</v>
+      </c>
+      <c r="W32" t="s">
+        <v>27</v>
+      </c>
+      <c r="X32" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z32">
+        <v>40</v>
+      </c>
+      <c r="AA32">
+        <v>35</v>
+      </c>
+      <c r="AB32">
+        <v>12</v>
+      </c>
+      <c r="AC32">
+        <v>13</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>95</v>
+      </c>
+      <c r="AK32">
+        <v>4</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33">
+        <v>90</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>27</v>
+      </c>
+      <c r="R33" t="s">
+        <v>27</v>
+      </c>
+      <c r="S33" t="s">
+        <v>27</v>
+      </c>
+      <c r="T33" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" t="s">
+        <v>27</v>
+      </c>
+      <c r="V33" t="s">
+        <v>27</v>
+      </c>
+      <c r="W33" t="s">
+        <v>27</v>
+      </c>
+      <c r="X33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z33">
+        <v>60</v>
+      </c>
+      <c r="AA33">
+        <v>25</v>
+      </c>
+      <c r="AB33">
+        <v>12</v>
+      </c>
+      <c r="AC33">
+        <v>3</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>95</v>
+      </c>
+      <c r="AK33">
+        <v>5</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN33" t="s">
         <v>192</v>
       </c>
-      <c r="AO28">
+      <c r="AO33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34">
+        <v>90</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>9999</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>27</v>
+      </c>
+      <c r="R34" t="s">
+        <v>27</v>
+      </c>
+      <c r="S34" t="s">
+        <v>27</v>
+      </c>
+      <c r="T34" t="s">
+        <v>27</v>
+      </c>
+      <c r="U34" t="s">
+        <v>27</v>
+      </c>
+      <c r="V34" t="s">
+        <v>27</v>
+      </c>
+      <c r="W34" t="s">
+        <v>27</v>
+      </c>
+      <c r="X34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z34">
+        <v>60</v>
+      </c>
+      <c r="AA34">
+        <v>25</v>
+      </c>
+      <c r="AB34">
+        <v>12</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>95</v>
+      </c>
+      <c r="AK34">
+        <v>5</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO34">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11B16BA-DBD4-484E-9DE7-86A169B0CB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CABB68-7F74-45D1-A974-20D232E2B4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="261">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1555,6 +1555,10 @@
   </si>
   <si>
     <t>Or_HirobaEnter_Catsle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mermaid_harb</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6544,8 +6548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9904,7 +9908,7 @@
         <v>231</v>
       </c>
       <c r="U27" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="V27" t="s">
         <v>27</v>
@@ -9916,7 +9920,7 @@
         <v>127</v>
       </c>
       <c r="Y27" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="Z27">
         <v>20</v>
@@ -9925,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AC27">
         <v>13</v>
@@ -9937,13 +9941,13 @@
         <v>10</v>
       </c>
       <c r="AF27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG27">
         <v>10</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -9952,10 +9956,10 @@
         <v>83</v>
       </c>
       <c r="AK27">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AL27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AM27" t="s">
         <v>84</v>
@@ -10860,8 +10864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14220,7 +14224,7 @@
         <v>231</v>
       </c>
       <c r="U27" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="V27" t="s">
         <v>27</v>
@@ -14232,7 +14236,7 @@
         <v>127</v>
       </c>
       <c r="Y27" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="Z27">
         <v>20</v>
@@ -14241,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AC27">
         <v>13</v>
@@ -14253,13 +14257,13 @@
         <v>10</v>
       </c>
       <c r="AF27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG27">
         <v>10</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -14268,10 +14272,10 @@
         <v>83</v>
       </c>
       <c r="AK27">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AL27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AM27" t="s">
         <v>84</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CABB68-7F74-45D1-A974-20D232E2B4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0A8DE2-1486-463C-BE41-B736B1B33FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2625" yWindow="1140" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="267">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1559,6 +1559,30 @@
   </si>
   <si>
     <t>mermaid_harb</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>aquamarineLake_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>moonstonehill_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>magichouse_01_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>summer_enter_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>winter_enter_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>farm_02_mini_icon</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6548,8 +6572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8339,7 +8363,7 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="C15" t="s">
         <v>255</v>
@@ -8591,7 +8615,7 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
         <v>257</v>
@@ -8969,7 +8993,7 @@
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C20" t="s">
         <v>249</v>
@@ -9221,7 +9245,7 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>266</v>
       </c>
       <c r="C22" t="s">
         <v>200</v>
@@ -9851,7 +9875,7 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="C27" t="s">
         <v>218</v>
@@ -10355,7 +10379,7 @@
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="C31" t="s">
         <v>210</v>
@@ -10481,7 +10505,7 @@
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
         <v>211</v>
@@ -10864,8 +10888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12655,7 +12679,7 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="C15" t="s">
         <v>255</v>
@@ -12907,7 +12931,7 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
         <v>257</v>
@@ -13285,7 +13309,7 @@
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="C20" t="s">
         <v>249</v>
@@ -13537,7 +13561,7 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>266</v>
       </c>
       <c r="C22" t="s">
         <v>200</v>
@@ -14167,7 +14191,7 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="C27" t="s">
         <v>218</v>
@@ -14671,7 +14695,7 @@
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="C31" t="s">
         <v>210</v>
@@ -14797,7 +14821,7 @@
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
         <v>211</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0A8DE2-1486-463C-BE41-B736B1B33FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4180869E-FA27-48CA-8296-D867D5E601DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="1140" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2325" yWindow="1170" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -6572,8 +6572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -10277,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -10889,7 +10889,7 @@
   <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14341,7 +14341,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -14467,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -14593,7 +14593,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>1</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4180869E-FA27-48CA-8296-D867D5E601DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3376618E-D070-44DB-86CD-99179D617D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="1170" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3435" yWindow="1455" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="268">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1583,6 +1583,10 @@
   </si>
   <si>
     <t>farm_02_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>satsumaimo</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6572,7 +6576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -10025,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -10151,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -10175,7 +10179,7 @@
         <v>110</v>
       </c>
       <c r="R29" t="s">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c r="S29" t="s">
         <v>27</v>
@@ -10277,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -10301,7 +10305,7 @@
         <v>111</v>
       </c>
       <c r="R30" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="S30" t="s">
         <v>27</v>
@@ -10328,19 +10332,19 @@
         <v>25</v>
       </c>
       <c r="AA30">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB30">
         <v>16</v>
       </c>
       <c r="AC30">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AD30">
         <v>1</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -10888,7 +10892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -14341,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -14467,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -14593,7 +14597,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K30">
         <v>1</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3376618E-D070-44DB-86CD-99179D617D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16554B94-E60A-48E5-BD27-2D518B91333C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="1455" windowWidth="24420" windowHeight="14295" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2160" yWindow="915" windowWidth="25575" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -6577,7 +6577,7 @@
   <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="L24" sqref="L24:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9531,7 +9531,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M24" t="s">
         <v>26</v>
@@ -9657,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M25" t="s">
         <v>26</v>
@@ -9783,7 +9783,7 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M26" t="s">
         <v>26</v>
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M27" t="s">
         <v>26</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M28" t="s">
         <v>26</v>
@@ -10161,7 +10161,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M29" t="s">
         <v>26</v>
@@ -10287,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M30" t="s">
         <v>26</v>
@@ -10413,7 +10413,7 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M31" t="s">
         <v>26</v>
@@ -10539,7 +10539,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M32" t="s">
         <v>26</v>
@@ -10893,7 +10893,7 @@
   <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13847,7 +13847,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M24" t="s">
         <v>26</v>
@@ -13973,7 +13973,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M25" t="s">
         <v>26</v>
@@ -14099,7 +14099,7 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M26" t="s">
         <v>26</v>
@@ -14225,7 +14225,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M27" t="s">
         <v>26</v>
@@ -14351,7 +14351,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M28" t="s">
         <v>26</v>
@@ -14477,7 +14477,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M29" t="s">
         <v>26</v>
@@ -14603,7 +14603,7 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M30" t="s">
         <v>26</v>
@@ -14729,7 +14729,7 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M31" t="s">
         <v>26</v>
@@ -14855,7 +14855,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M32" t="s">
         <v>26</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16554B94-E60A-48E5-BD27-2D518B91333C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A410415-4CF7-46A2-8745-356256EB3305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="915" windowWidth="25575" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3105" yWindow="1185" windowWidth="25575" windowHeight="14325" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -6576,8 +6576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24:L32"/>
+    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9576,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="AB24">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AC24">
         <v>7</v>
@@ -9699,13 +9699,13 @@
         <v>83</v>
       </c>
       <c r="Z25">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA25">
         <v>15</v>
       </c>
       <c r="AB25">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AC25">
         <v>10</v>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -10892,8 +10892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24:AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13892,10 +13892,10 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="AB24">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AC24">
         <v>7</v>
@@ -14015,13 +14015,13 @@
         <v>83</v>
       </c>
       <c r="Z25">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA25">
         <v>15</v>
       </c>
       <c r="AB25">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AC25">
         <v>10</v>
@@ -14036,7 +14036,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AH25">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A410415-4CF7-46A2-8745-356256EB3305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DB2E07-E636-4AED-A2AA-20D381E9567B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="1185" windowWidth="25575" windowHeight="14325" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2910" yWindow="540" windowWidth="25575" windowHeight="14325" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -6576,8 +6576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7749,7 +7749,7 @@
         <v>48</v>
       </c>
       <c r="F10">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         <v>48</v>
       </c>
       <c r="F11">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -8001,7 +8001,7 @@
         <v>48</v>
       </c>
       <c r="F12">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -8127,7 +8127,7 @@
         <v>48</v>
       </c>
       <c r="F13">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>48</v>
       </c>
       <c r="F14">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -8379,7 +8379,7 @@
         <v>48</v>
       </c>
       <c r="F15">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -8505,7 +8505,7 @@
         <v>48</v>
       </c>
       <c r="F16">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>48</v>
       </c>
       <c r="F17">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -8757,7 +8757,7 @@
         <v>48</v>
       </c>
       <c r="F18">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>151</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -10892,8 +10892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24:AC24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12065,7 +12065,7 @@
         <v>142</v>
       </c>
       <c r="F10">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -12191,7 +12191,7 @@
         <v>142</v>
       </c>
       <c r="F11">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -12317,7 +12317,7 @@
         <v>142</v>
       </c>
       <c r="F12">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -12443,7 +12443,7 @@
         <v>142</v>
       </c>
       <c r="F13">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -12569,7 +12569,7 @@
         <v>142</v>
       </c>
       <c r="F14">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -12695,7 +12695,7 @@
         <v>142</v>
       </c>
       <c r="F15">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -12821,7 +12821,7 @@
         <v>142</v>
       </c>
       <c r="F16">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -12947,7 +12947,7 @@
         <v>142</v>
       </c>
       <c r="F17">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -13073,7 +13073,7 @@
         <v>142</v>
       </c>
       <c r="F18">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>142</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DB2E07-E636-4AED-A2AA-20D381E9567B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42D6855-B71C-446E-8B2D-31A5D291589A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="540" windowWidth="25575" windowHeight="14325" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2730" yWindow="1050" windowWidth="25575" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -6576,8 +6576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -10892,8 +10892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42D6855-B71C-446E-8B2D-31A5D291589A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EC7F74-9E15-473C-936F-248F671D0FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1050" windowWidth="25575" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25575" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="271">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1587,6 +1587,48 @@
   </si>
   <si>
     <t>satsumaimo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DreamEater_Swamp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ：人の夢や希望をくらう沼。長くつかると心を失くしてしまう。</t>
+    <rPh sb="5" eb="6">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キボウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヌマ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夢喰い沼</t>
+    <rPh sb="0" eb="1">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヌマ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6574,10 +6616,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7229,7 +7271,7 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A6">
-        <f t="shared" ref="A6:A34" si="0">ROW()-2+100</f>
+        <f t="shared" ref="A6:A35" si="0">ROW()-2+100</f>
         <v>104</v>
       </c>
       <c r="B6" t="s">
@@ -10131,25 +10173,25 @@
         <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>269</v>
       </c>
       <c r="F29">
         <v>30</v>
       </c>
       <c r="G29">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -10167,28 +10209,28 @@
         <v>26</v>
       </c>
       <c r="N29" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="O29" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="Q29" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="R29" t="s">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="S29" t="s">
         <v>27</v>
       </c>
       <c r="T29" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="U29" t="s">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="V29" t="s">
         <v>27</v>
@@ -10197,55 +10239,55 @@
         <v>27</v>
       </c>
       <c r="X29" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="Y29" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="Z29">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AA29">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB29">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AC29">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI29">
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="AK29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AL29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AM29" t="s">
         <v>84</v>
       </c>
       <c r="AN29" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -10260,13 +10302,13 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D30" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="F30">
         <v>30</v>
@@ -10275,7 +10317,7 @@
         <v>500</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -10293,28 +10335,28 @@
         <v>26</v>
       </c>
       <c r="N30" t="s">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="O30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P30" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="Q30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R30" t="s">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c r="S30" t="s">
         <v>27</v>
       </c>
       <c r="T30" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="U30" t="s">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="V30" t="s">
         <v>27</v>
@@ -10323,46 +10365,46 @@
         <v>27</v>
       </c>
       <c r="X30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y30" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="Z30">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA30">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB30">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AC30">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AD30">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AE30">
         <v>10</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI30">
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL30">
         <v>5</v>
@@ -10371,7 +10413,7 @@
         <v>84</v>
       </c>
       <c r="AN30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -10383,25 +10425,25 @@
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="F31">
         <v>30</v>
       </c>
       <c r="G31">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -10419,19 +10461,19 @@
         <v>26</v>
       </c>
       <c r="N31" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="O31" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P31" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="Q31" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="R31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S31" t="s">
         <v>27</v>
@@ -10449,55 +10491,55 @@
         <v>27</v>
       </c>
       <c r="X31" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="Y31" t="s">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="Z31">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AA31">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AB31">
+        <v>16</v>
+      </c>
+      <c r="AC31">
+        <v>23</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>10</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>90</v>
+      </c>
+      <c r="AK31">
         <v>5</v>
       </c>
-      <c r="AC31">
-        <v>13</v>
-      </c>
-      <c r="AD31">
-        <v>17</v>
-      </c>
-      <c r="AE31">
-        <v>10</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>83</v>
-      </c>
-      <c r="AK31">
-        <v>10</v>
-      </c>
       <c r="AL31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AM31" t="s">
         <v>84</v>
       </c>
       <c r="AN31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -10509,25 +10551,25 @@
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c r="C32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="F32">
         <v>30</v>
       </c>
       <c r="G32">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -10545,19 +10587,19 @@
         <v>26</v>
       </c>
       <c r="N32" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="O32" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="P32" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="Q32" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="R32" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="S32" t="s">
         <v>27</v>
@@ -10575,28 +10617,28 @@
         <v>27</v>
       </c>
       <c r="X32" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="Y32" t="s">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="Z32">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AA32">
         <v>35</v>
       </c>
       <c r="AB32">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AC32">
         <v>13</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -10611,19 +10653,19 @@
         <v>0</v>
       </c>
       <c r="AJ32">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AK32">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AM32" t="s">
         <v>84</v>
       </c>
       <c r="AN32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -10635,49 +10677,49 @@
         <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F33">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M33" t="s">
         <v>26</v>
       </c>
       <c r="N33" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="O33" t="s">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="P33" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="Q33" t="s">
         <v>27</v>
@@ -10701,22 +10743,22 @@
         <v>27</v>
       </c>
       <c r="X33" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="Y33" t="s">
         <v>27</v>
       </c>
       <c r="Z33">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AA33">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AB33">
         <v>12</v>
       </c>
       <c r="AC33">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -10740,16 +10782,16 @@
         <v>95</v>
       </c>
       <c r="AK33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33" t="s">
         <v>84</v>
       </c>
       <c r="AN33" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -10764,10 +10806,10 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
         <v>48</v>
@@ -10785,7 +10827,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -10878,6 +10920,132 @@
         <v>192</v>
       </c>
       <c r="AO34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35">
+        <v>90</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>9999</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35" t="s">
+        <v>27</v>
+      </c>
+      <c r="S35" t="s">
+        <v>27</v>
+      </c>
+      <c r="T35" t="s">
+        <v>27</v>
+      </c>
+      <c r="U35" t="s">
+        <v>27</v>
+      </c>
+      <c r="V35" t="s">
+        <v>27</v>
+      </c>
+      <c r="W35" t="s">
+        <v>27</v>
+      </c>
+      <c r="X35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z35">
+        <v>60</v>
+      </c>
+      <c r="AA35">
+        <v>25</v>
+      </c>
+      <c r="AB35">
+        <v>12</v>
+      </c>
+      <c r="AC35">
+        <v>3</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>95</v>
+      </c>
+      <c r="AK35">
+        <v>5</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO35">
         <v>1</v>
       </c>
     </row>
@@ -10890,10 +11058,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12049,7 +12217,7 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A10">
-        <f t="shared" ref="A10:A34" si="1">ROW()-2+100</f>
+        <f t="shared" ref="A10:A35" si="1">ROW()-2+100</f>
         <v>108</v>
       </c>
       <c r="B10" t="s">
@@ -14447,13 +14615,13 @@
         <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="E29" t="s">
         <v>142</v>
@@ -14462,10 +14630,10 @@
         <v>30</v>
       </c>
       <c r="G29">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -14483,28 +14651,28 @@
         <v>26</v>
       </c>
       <c r="N29" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="O29" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="Q29" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="R29" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="S29" t="s">
         <v>27</v>
       </c>
       <c r="T29" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="U29" t="s">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="V29" t="s">
         <v>27</v>
@@ -14513,55 +14681,55 @@
         <v>27</v>
       </c>
       <c r="X29" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="Y29" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="Z29">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AA29">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB29">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AC29">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI29">
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="AK29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AL29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AM29" t="s">
         <v>84</v>
       </c>
       <c r="AN29" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -14576,10 +14744,10 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D30" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E30" t="s">
         <v>142</v>
@@ -14591,7 +14759,7 @@
         <v>500</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -14609,28 +14777,28 @@
         <v>26</v>
       </c>
       <c r="N30" t="s">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="O30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P30" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="Q30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R30" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="S30" t="s">
         <v>27</v>
       </c>
       <c r="T30" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="U30" t="s">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="V30" t="s">
         <v>27</v>
@@ -14639,46 +14807,46 @@
         <v>27</v>
       </c>
       <c r="X30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y30" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="Z30">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA30">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB30">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AC30">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="AD30">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI30">
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL30">
         <v>5</v>
@@ -14687,7 +14855,7 @@
         <v>84</v>
       </c>
       <c r="AN30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -14699,13 +14867,13 @@
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E31" t="s">
         <v>142</v>
@@ -14714,10 +14882,10 @@
         <v>30</v>
       </c>
       <c r="G31">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -14735,19 +14903,19 @@
         <v>26</v>
       </c>
       <c r="N31" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="O31" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P31" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="Q31" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="R31" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="S31" t="s">
         <v>27</v>
@@ -14765,55 +14933,55 @@
         <v>27</v>
       </c>
       <c r="X31" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="Y31" t="s">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="Z31">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AA31">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB31">
+        <v>16</v>
+      </c>
+      <c r="AC31">
+        <v>28</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>90</v>
+      </c>
+      <c r="AK31">
         <v>5</v>
       </c>
-      <c r="AC31">
-        <v>13</v>
-      </c>
-      <c r="AD31">
-        <v>17</v>
-      </c>
-      <c r="AE31">
-        <v>10</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>83</v>
-      </c>
-      <c r="AK31">
-        <v>10</v>
-      </c>
       <c r="AL31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AM31" t="s">
         <v>84</v>
       </c>
       <c r="AN31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -14825,13 +14993,13 @@
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c r="C32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E32" t="s">
         <v>142</v>
@@ -14840,10 +15008,10 @@
         <v>30</v>
       </c>
       <c r="G32">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -14861,19 +15029,19 @@
         <v>26</v>
       </c>
       <c r="N32" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="O32" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="P32" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="Q32" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="R32" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="S32" t="s">
         <v>27</v>
@@ -14891,28 +15059,28 @@
         <v>27</v>
       </c>
       <c r="X32" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="Y32" t="s">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="Z32">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AA32">
         <v>35</v>
       </c>
       <c r="AB32">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AC32">
         <v>13</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -14927,19 +15095,19 @@
         <v>0</v>
       </c>
       <c r="AJ32">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AK32">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AM32" t="s">
         <v>84</v>
       </c>
       <c r="AN32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -14951,49 +15119,49 @@
         <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="E33" t="s">
         <v>142</v>
       </c>
       <c r="F33">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M33" t="s">
         <v>26</v>
       </c>
       <c r="N33" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="O33" t="s">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="P33" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="Q33" t="s">
         <v>27</v>
@@ -15017,22 +15185,22 @@
         <v>27</v>
       </c>
       <c r="X33" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="Y33" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="Z33">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AA33">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AB33">
         <v>12</v>
       </c>
       <c r="AC33">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -15056,16 +15224,16 @@
         <v>95</v>
       </c>
       <c r="AK33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33" t="s">
         <v>84</v>
       </c>
       <c r="AN33" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -15080,10 +15248,10 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
         <v>142</v>
@@ -15101,7 +15269,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -15194,6 +15362,132 @@
         <v>192</v>
       </c>
       <c r="AO34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35">
+        <v>90</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>9999</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35" t="s">
+        <v>27</v>
+      </c>
+      <c r="S35" t="s">
+        <v>27</v>
+      </c>
+      <c r="T35" t="s">
+        <v>27</v>
+      </c>
+      <c r="U35" t="s">
+        <v>27</v>
+      </c>
+      <c r="V35" t="s">
+        <v>27</v>
+      </c>
+      <c r="W35" t="s">
+        <v>27</v>
+      </c>
+      <c r="X35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z35">
+        <v>60</v>
+      </c>
+      <c r="AA35">
+        <v>25</v>
+      </c>
+      <c r="AB35">
+        <v>12</v>
+      </c>
+      <c r="AC35">
+        <v>3</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>95</v>
+      </c>
+      <c r="AK35">
+        <v>5</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO35">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EC7F74-9E15-473C-936F-248F671D0FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98442CA4-1423-401C-BC70-B2DEE69F72A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25575" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25575" windowHeight="14325" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="275">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1619,16 +1619,29 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>夢喰い沼</t>
+    <t>夢くい沼</t>
     <rPh sb="0" eb="1">
       <t>ユメ</t>
     </rPh>
-    <rPh sb="1" eb="2">
-      <t>ク</t>
-    </rPh>
     <rPh sb="3" eb="4">
       <t>ヌマ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MapBG_DreamEater_Swamp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>springforest_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>yumekuinuma_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emeraldforest_mini_icon</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6618,8 +6631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9669,7 +9682,7 @@
         <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
         <v>185</v>
@@ -10047,7 +10060,7 @@
         <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
@@ -10173,7 +10186,7 @@
         <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>273</v>
       </c>
       <c r="C29" t="s">
         <v>268</v>
@@ -10287,7 +10300,7 @@
         <v>84</v>
       </c>
       <c r="AN29" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -10593,7 +10606,7 @@
         <v>220</v>
       </c>
       <c r="P32" t="s">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="Q32" t="s">
         <v>70</v>
@@ -10722,7 +10735,7 @@
         <v>242</v>
       </c>
       <c r="Q33" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="R33" t="s">
         <v>27</v>
@@ -10752,7 +10765,7 @@
         <v>40</v>
       </c>
       <c r="AA33">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AB33">
         <v>12</v>
@@ -10761,7 +10774,7 @@
         <v>13</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -11060,8 +11073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14111,7 +14124,7 @@
         <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
         <v>185</v>
@@ -14489,7 +14502,7 @@
         <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
@@ -14615,7 +14628,7 @@
         <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>273</v>
       </c>
       <c r="C29" t="s">
         <v>268</v>
@@ -14633,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -14729,7 +14742,7 @@
         <v>84</v>
       </c>
       <c r="AN29" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -15035,7 +15048,7 @@
         <v>220</v>
       </c>
       <c r="P32" t="s">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="Q32" t="s">
         <v>70</v>
@@ -15164,7 +15177,7 @@
         <v>242</v>
       </c>
       <c r="Q33" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="R33" t="s">
         <v>27</v>
@@ -15185,16 +15198,16 @@
         <v>27</v>
       </c>
       <c r="X33" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="Y33" t="s">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="Z33">
         <v>40</v>
       </c>
       <c r="AA33">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AB33">
         <v>12</v>
@@ -15203,7 +15216,7 @@
         <v>13</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE33">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98442CA4-1423-401C-BC70-B2DEE69F72A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A4D79F-971D-4694-826C-1478C4815D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25575" windowHeight="14325" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25575" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="280">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1318,13 +1318,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ルビー平野</t>
-    <rPh sb="3" eb="5">
-      <t>ヘイヤ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Ruby_Plane</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1642,6 +1635,33 @@
   </si>
   <si>
     <t>emeraldforest_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>amberlake_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bluetopaz_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rubyplane_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルビー街道</t>
+    <rPh sb="3" eb="5">
+      <t>カイドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>diamond_mountain_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>muscat</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6631,8 +6651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6790,7 +6810,7 @@
         <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -7792,7 +7812,7 @@
         <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
         <v>177</v>
@@ -7918,7 +7938,7 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
         <v>179</v>
@@ -8044,7 +8064,7 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
         <v>180</v>
@@ -8170,7 +8190,7 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
         <v>181</v>
@@ -8296,13 +8316,13 @@
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E14" t="s">
         <v>48</v>
@@ -8422,13 +8442,13 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E15" t="s">
         <v>48</v>
@@ -8548,13 +8568,13 @@
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
@@ -8674,13 +8694,13 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E17" t="s">
         <v>48</v>
@@ -8800,13 +8820,13 @@
         <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E18" t="s">
         <v>48</v>
@@ -9052,13 +9072,13 @@
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E20" t="s">
         <v>151</v>
@@ -9304,7 +9324,7 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22" t="s">
         <v>200</v>
@@ -9682,7 +9702,7 @@
         <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C25" t="s">
         <v>185</v>
@@ -9757,10 +9777,10 @@
         <v>17</v>
       </c>
       <c r="AA25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC25">
         <v>10</v>
@@ -9775,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -9808,7 +9828,7 @@
         <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="C26" t="s">
         <v>203</v>
@@ -9850,7 +9870,7 @@
         <v>73</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q26" t="s">
         <v>113</v>
@@ -9874,7 +9894,7 @@
         <v>27</v>
       </c>
       <c r="X26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y26" t="s">
         <v>136</v>
@@ -9922,7 +9942,7 @@
         <v>91</v>
       </c>
       <c r="AN26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -9934,25 +9954,25 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <v>30</v>
       </c>
       <c r="G27">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -9973,25 +9993,25 @@
         <v>72</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="P27" t="s">
         <v>108</v>
       </c>
       <c r="Q27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R27" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="S27" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="T27" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="U27" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="V27" t="s">
         <v>27</v>
@@ -10000,55 +10020,55 @@
         <v>27</v>
       </c>
       <c r="X27" t="s">
-        <v>127</v>
+        <v>237</v>
       </c>
       <c r="Y27" t="s">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="Z27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB27">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AC27">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>10</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>90</v>
+      </c>
+      <c r="AK27">
         <v>5</v>
       </c>
-      <c r="AE27">
-        <v>10</v>
-      </c>
-      <c r="AF27">
-        <v>13</v>
-      </c>
-      <c r="AG27">
-        <v>10</v>
-      </c>
-      <c r="AH27">
+      <c r="AL27">
         <v>5</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>83</v>
-      </c>
-      <c r="AK27">
-        <v>16</v>
-      </c>
-      <c r="AL27">
-        <v>1</v>
       </c>
       <c r="AM27" t="s">
         <v>84</v>
       </c>
       <c r="AN27" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -10060,25 +10080,25 @@
         <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="F28">
         <v>30</v>
       </c>
       <c r="G28">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -10096,28 +10116,28 @@
         <v>26</v>
       </c>
       <c r="N28" t="s">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="O28" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>109</v>
+      </c>
+      <c r="R28" t="s">
+        <v>112</v>
+      </c>
+      <c r="S28" t="s">
+        <v>74</v>
+      </c>
+      <c r="T28" t="s">
         <v>230</v>
       </c>
-      <c r="P28" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>137</v>
-      </c>
-      <c r="R28" t="s">
-        <v>232</v>
-      </c>
-      <c r="S28" t="s">
-        <v>236</v>
-      </c>
-      <c r="T28" t="s">
-        <v>27</v>
-      </c>
       <c r="U28" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="V28" t="s">
         <v>27</v>
@@ -10126,46 +10146,46 @@
         <v>27</v>
       </c>
       <c r="X28" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="Y28" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="Z28">
         <v>20</v>
       </c>
       <c r="AA28">
+        <v>5</v>
+      </c>
+      <c r="AB28">
         <v>20</v>
       </c>
-      <c r="AB28">
-        <v>17</v>
-      </c>
       <c r="AC28">
+        <v>12</v>
+      </c>
+      <c r="AD28">
+        <v>5</v>
+      </c>
+      <c r="AE28">
+        <v>10</v>
+      </c>
+      <c r="AF28">
         <v>13</v>
       </c>
-      <c r="AD28">
-        <v>10</v>
-      </c>
-      <c r="AE28">
-        <v>10</v>
-      </c>
-      <c r="AF28">
-        <v>10</v>
-      </c>
       <c r="AG28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI28">
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AK28">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AL28">
         <v>1</v>
@@ -10189,22 +10209,22 @@
         <v>273</v>
       </c>
       <c r="C29" t="s">
-        <v>268</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="E29" t="s">
-        <v>269</v>
+        <v>50</v>
       </c>
       <c r="F29">
         <v>30</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -10222,22 +10242,22 @@
         <v>26</v>
       </c>
       <c r="N29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O29" t="s">
         <v>229</v>
       </c>
-      <c r="O29" t="s">
-        <v>27</v>
-      </c>
       <c r="P29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q29" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="R29" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="S29" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="T29" t="s">
         <v>27</v>
@@ -10252,31 +10272,31 @@
         <v>27</v>
       </c>
       <c r="X29" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Y29" t="s">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c r="Z29">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="AA29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB29">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC29">
         <v>13</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -10288,19 +10308,19 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AK29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM29" t="s">
         <v>84</v>
       </c>
       <c r="AN29" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -10312,25 +10332,25 @@
         <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="D30" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>268</v>
       </c>
       <c r="F30">
         <v>30</v>
       </c>
       <c r="G30">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -10348,28 +10368,28 @@
         <v>26</v>
       </c>
       <c r="N30" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O30" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="Q30" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="R30" t="s">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="S30" t="s">
         <v>27</v>
       </c>
       <c r="T30" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="U30" t="s">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="V30" t="s">
         <v>27</v>
@@ -10378,55 +10398,55 @@
         <v>27</v>
       </c>
       <c r="X30" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="Y30" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="Z30">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AA30">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB30">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AC30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI30">
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="AK30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AL30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AM30" t="s">
         <v>84</v>
       </c>
       <c r="AN30" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -10438,16 +10458,16 @@
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="C31" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -10456,7 +10476,7 @@
         <v>500</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -10474,28 +10494,28 @@
         <v>26</v>
       </c>
       <c r="N31" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="O31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P31" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="Q31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R31" t="s">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c r="S31" t="s">
         <v>27</v>
       </c>
       <c r="T31" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="U31" t="s">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="V31" t="s">
         <v>27</v>
@@ -10504,46 +10524,46 @@
         <v>27</v>
       </c>
       <c r="X31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Y31" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="Z31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB31">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AC31">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AD31">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AE31">
         <v>10</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI31">
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL31">
         <v>5</v>
@@ -10552,7 +10572,7 @@
         <v>84</v>
       </c>
       <c r="AN31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -10564,7 +10584,7 @@
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C32" t="s">
         <v>210</v>
@@ -10600,13 +10620,13 @@
         <v>26</v>
       </c>
       <c r="N32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P32" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="Q32" t="s">
         <v>70</v>
@@ -10630,7 +10650,7 @@
         <v>27</v>
       </c>
       <c r="X32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y32" t="s">
         <v>27</v>
@@ -10678,7 +10698,7 @@
         <v>84</v>
       </c>
       <c r="AN32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -10690,7 +10710,7 @@
         <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="C33" t="s">
         <v>211</v>
@@ -10726,40 +10746,40 @@
         <v>26</v>
       </c>
       <c r="N33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O33" t="s">
+        <v>240</v>
+      </c>
+      <c r="P33" t="s">
         <v>241</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
+        <v>226</v>
+      </c>
+      <c r="R33" t="s">
+        <v>27</v>
+      </c>
+      <c r="S33" t="s">
+        <v>27</v>
+      </c>
+      <c r="T33" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" t="s">
+        <v>27</v>
+      </c>
+      <c r="V33" t="s">
+        <v>27</v>
+      </c>
+      <c r="W33" t="s">
+        <v>27</v>
+      </c>
+      <c r="X33" t="s">
         <v>242</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Y33" t="s">
         <v>227</v>
-      </c>
-      <c r="R33" t="s">
-        <v>27</v>
-      </c>
-      <c r="S33" t="s">
-        <v>27</v>
-      </c>
-      <c r="T33" t="s">
-        <v>27</v>
-      </c>
-      <c r="U33" t="s">
-        <v>27</v>
-      </c>
-      <c r="V33" t="s">
-        <v>27</v>
-      </c>
-      <c r="W33" t="s">
-        <v>27</v>
-      </c>
-      <c r="X33" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>27</v>
       </c>
       <c r="Z33">
         <v>40</v>
@@ -10804,7 +10824,7 @@
         <v>84</v>
       </c>
       <c r="AN33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -11073,8 +11093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11232,7 +11252,7 @@
         <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
         <v>142</v>
@@ -12234,7 +12254,7 @@
         <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
         <v>177</v>
@@ -12360,7 +12380,7 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
         <v>179</v>
@@ -12486,7 +12506,7 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
         <v>180</v>
@@ -12612,7 +12632,7 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
         <v>181</v>
@@ -12738,13 +12758,13 @@
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E14" t="s">
         <v>142</v>
@@ -12864,13 +12884,13 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E15" t="s">
         <v>142</v>
@@ -12990,13 +13010,13 @@
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E16" t="s">
         <v>142</v>
@@ -13116,13 +13136,13 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E17" t="s">
         <v>142</v>
@@ -13242,13 +13262,13 @@
         <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E18" t="s">
         <v>142</v>
@@ -13494,13 +13514,13 @@
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E20" t="s">
         <v>142</v>
@@ -13746,7 +13766,7 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22" t="s">
         <v>200</v>
@@ -14124,7 +14144,7 @@
         <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C25" t="s">
         <v>185</v>
@@ -14199,10 +14219,10 @@
         <v>17</v>
       </c>
       <c r="AA25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC25">
         <v>10</v>
@@ -14217,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -14250,7 +14270,7 @@
         <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="C26" t="s">
         <v>203</v>
@@ -14292,7 +14312,7 @@
         <v>73</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q26" t="s">
         <v>113</v>
@@ -14316,7 +14336,7 @@
         <v>27</v>
       </c>
       <c r="X26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y26" t="s">
         <v>136</v>
@@ -14364,7 +14384,7 @@
         <v>91</v>
       </c>
       <c r="AN26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -14376,13 +14396,13 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="E27" t="s">
         <v>142</v>
@@ -14391,10 +14411,10 @@
         <v>30</v>
       </c>
       <c r="G27">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -14415,25 +14435,25 @@
         <v>72</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="P27" t="s">
         <v>108</v>
       </c>
       <c r="Q27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R27" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="S27" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="T27" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="U27" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="V27" t="s">
         <v>27</v>
@@ -14442,55 +14462,55 @@
         <v>27</v>
       </c>
       <c r="X27" t="s">
-        <v>127</v>
+        <v>237</v>
       </c>
       <c r="Y27" t="s">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="Z27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB27">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AC27">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>10</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>90</v>
+      </c>
+      <c r="AK27">
         <v>5</v>
       </c>
-      <c r="AE27">
-        <v>10</v>
-      </c>
-      <c r="AF27">
-        <v>13</v>
-      </c>
-      <c r="AG27">
-        <v>10</v>
-      </c>
-      <c r="AH27">
+      <c r="AL27">
         <v>5</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>83</v>
-      </c>
-      <c r="AK27">
-        <v>16</v>
-      </c>
-      <c r="AL27">
-        <v>1</v>
       </c>
       <c r="AM27" t="s">
         <v>84</v>
       </c>
       <c r="AN27" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -14502,13 +14522,13 @@
         <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E28" t="s">
         <v>142</v>
@@ -14517,10 +14537,10 @@
         <v>30</v>
       </c>
       <c r="G28">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -14538,28 +14558,28 @@
         <v>26</v>
       </c>
       <c r="N28" t="s">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="O28" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>109</v>
+      </c>
+      <c r="R28" t="s">
+        <v>112</v>
+      </c>
+      <c r="S28" t="s">
+        <v>74</v>
+      </c>
+      <c r="T28" t="s">
         <v>230</v>
       </c>
-      <c r="P28" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>137</v>
-      </c>
-      <c r="R28" t="s">
-        <v>232</v>
-      </c>
-      <c r="S28" t="s">
-        <v>236</v>
-      </c>
-      <c r="T28" t="s">
-        <v>27</v>
-      </c>
       <c r="U28" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="V28" t="s">
         <v>27</v>
@@ -14568,46 +14588,46 @@
         <v>27</v>
       </c>
       <c r="X28" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="Y28" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="Z28">
         <v>20</v>
       </c>
       <c r="AA28">
+        <v>5</v>
+      </c>
+      <c r="AB28">
         <v>20</v>
       </c>
-      <c r="AB28">
-        <v>17</v>
-      </c>
       <c r="AC28">
+        <v>12</v>
+      </c>
+      <c r="AD28">
+        <v>5</v>
+      </c>
+      <c r="AE28">
+        <v>10</v>
+      </c>
+      <c r="AF28">
         <v>13</v>
       </c>
-      <c r="AD28">
-        <v>10</v>
-      </c>
-      <c r="AE28">
-        <v>10</v>
-      </c>
-      <c r="AF28">
-        <v>10</v>
-      </c>
       <c r="AG28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI28">
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AK28">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AL28">
         <v>1</v>
@@ -14631,10 +14651,10 @@
         <v>273</v>
       </c>
       <c r="C29" t="s">
-        <v>268</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="E29" t="s">
         <v>142</v>
@@ -14643,10 +14663,10 @@
         <v>30</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -14664,22 +14684,22 @@
         <v>26</v>
       </c>
       <c r="N29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O29" t="s">
         <v>229</v>
       </c>
-      <c r="O29" t="s">
-        <v>27</v>
-      </c>
       <c r="P29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q29" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="R29" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="S29" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="T29" t="s">
         <v>27</v>
@@ -14694,31 +14714,31 @@
         <v>27</v>
       </c>
       <c r="X29" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Y29" t="s">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c r="Z29">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="AA29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB29">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC29">
         <v>13</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -14730,19 +14750,19 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AK29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM29" t="s">
         <v>84</v>
       </c>
       <c r="AN29" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -14754,13 +14774,13 @@
         <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="D30" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="E30" t="s">
         <v>142</v>
@@ -14769,10 +14789,10 @@
         <v>30</v>
       </c>
       <c r="G30">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -14790,28 +14810,28 @@
         <v>26</v>
       </c>
       <c r="N30" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O30" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="Q30" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="R30" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="S30" t="s">
         <v>27</v>
       </c>
       <c r="T30" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="U30" t="s">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="V30" t="s">
         <v>27</v>
@@ -14820,55 +14840,55 @@
         <v>27</v>
       </c>
       <c r="X30" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="Y30" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="Z30">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AA30">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB30">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AC30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI30">
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="AK30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AL30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AM30" t="s">
         <v>84</v>
       </c>
       <c r="AN30" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -14880,13 +14900,13 @@
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="C31" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E31" t="s">
         <v>142</v>
@@ -14898,7 +14918,7 @@
         <v>500</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -14916,28 +14936,28 @@
         <v>26</v>
       </c>
       <c r="N31" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="O31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P31" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="Q31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R31" t="s">
-        <v>27</v>
+        <v>266</v>
       </c>
       <c r="S31" t="s">
         <v>27</v>
       </c>
       <c r="T31" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="U31" t="s">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="V31" t="s">
         <v>27</v>
@@ -14946,46 +14966,46 @@
         <v>27</v>
       </c>
       <c r="X31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Y31" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="Z31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA31">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB31">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AC31">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="AD31">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI31">
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL31">
         <v>5</v>
@@ -14994,7 +15014,7 @@
         <v>84</v>
       </c>
       <c r="AN31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -15006,7 +15026,7 @@
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C32" t="s">
         <v>210</v>
@@ -15042,13 +15062,13 @@
         <v>26</v>
       </c>
       <c r="N32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P32" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="Q32" t="s">
         <v>70</v>
@@ -15072,7 +15092,7 @@
         <v>27</v>
       </c>
       <c r="X32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y32" t="s">
         <v>27</v>
@@ -15120,7 +15140,7 @@
         <v>84</v>
       </c>
       <c r="AN32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -15132,7 +15152,7 @@
         <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="C33" t="s">
         <v>211</v>
@@ -15168,40 +15188,40 @@
         <v>26</v>
       </c>
       <c r="N33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O33" t="s">
+        <v>240</v>
+      </c>
+      <c r="P33" t="s">
         <v>241</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
+        <v>226</v>
+      </c>
+      <c r="R33" t="s">
+        <v>27</v>
+      </c>
+      <c r="S33" t="s">
+        <v>27</v>
+      </c>
+      <c r="T33" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" t="s">
+        <v>27</v>
+      </c>
+      <c r="V33" t="s">
+        <v>27</v>
+      </c>
+      <c r="W33" t="s">
+        <v>27</v>
+      </c>
+      <c r="X33" t="s">
         <v>242</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Y33" t="s">
         <v>227</v>
-      </c>
-      <c r="R33" t="s">
-        <v>27</v>
-      </c>
-      <c r="S33" t="s">
-        <v>27</v>
-      </c>
-      <c r="T33" t="s">
-        <v>27</v>
-      </c>
-      <c r="U33" t="s">
-        <v>27</v>
-      </c>
-      <c r="V33" t="s">
-        <v>27</v>
-      </c>
-      <c r="W33" t="s">
-        <v>27</v>
-      </c>
-      <c r="X33" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>27</v>
       </c>
       <c r="Z33">
         <v>40</v>
@@ -15246,7 +15266,7 @@
         <v>84</v>
       </c>
       <c r="AN33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AO33">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A4D79F-971D-4694-826C-1478C4815D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427E423D-6F4F-423F-A67E-7EF1F004A1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25575" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="25575" windowHeight="14325" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="279">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1427,10 +1427,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>strawberry_satinoka</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>strawberry_sweatking</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1650,18 +1646,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ルビー街道</t>
+    <t>diamond_mountain_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>muscat</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルビー平原</t>
     <rPh sb="3" eb="5">
-      <t>カイドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>diamond_mountain_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>muscat</t>
+      <t>ヘイゲン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6651,8 +6647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8319,10 +8315,10 @@
         <v>218</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E14" t="s">
         <v>48</v>
@@ -8442,13 +8438,13 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E15" t="s">
         <v>48</v>
@@ -8571,10 +8567,10 @@
         <v>218</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
@@ -8694,13 +8690,13 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E17" t="s">
         <v>48</v>
@@ -8823,10 +8819,10 @@
         <v>218</v>
       </c>
       <c r="C18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" t="s">
         <v>48</v>
@@ -9072,13 +9068,13 @@
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E20" t="s">
         <v>151</v>
@@ -9324,7 +9320,7 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C22" t="s">
         <v>200</v>
@@ -9702,7 +9698,7 @@
         <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C25" t="s">
         <v>185</v>
@@ -9828,7 +9824,7 @@
         <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C26" t="s">
         <v>203</v>
@@ -9954,13 +9950,13 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" t="s">
         <v>212</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E27" t="s">
         <v>50</v>
@@ -9999,7 +9995,7 @@
         <v>108</v>
       </c>
       <c r="Q27" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="R27" t="s">
         <v>99</v>
@@ -10020,10 +10016,10 @@
         <v>27</v>
       </c>
       <c r="X27" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y27" t="s">
         <v>237</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>238</v>
       </c>
       <c r="Z27">
         <v>25</v>
@@ -10056,10 +10052,10 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AK27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL27">
         <v>5</v>
@@ -10068,7 +10064,7 @@
         <v>84</v>
       </c>
       <c r="AN27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -10080,7 +10076,7 @@
         <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" t="s">
         <v>217</v>
@@ -10137,7 +10133,7 @@
         <v>230</v>
       </c>
       <c r="U28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V28" t="s">
         <v>27</v>
@@ -10206,7 +10202,7 @@
         <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -10275,7 +10271,7 @@
         <v>224</v>
       </c>
       <c r="Y29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Z29">
         <v>20</v>
@@ -10332,16 +10328,16 @@
         <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C30" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" t="s">
         <v>267</v>
-      </c>
-      <c r="D30" t="s">
-        <v>269</v>
-      </c>
-      <c r="E30" t="s">
-        <v>268</v>
       </c>
       <c r="F30">
         <v>30</v>
@@ -10446,7 +10442,7 @@
         <v>84</v>
       </c>
       <c r="AN30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -10458,7 +10454,7 @@
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C31" t="s">
         <v>209</v>
@@ -10506,7 +10502,7 @@
         <v>110</v>
       </c>
       <c r="R31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S31" t="s">
         <v>27</v>
@@ -10572,7 +10568,7 @@
         <v>84</v>
       </c>
       <c r="AN31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -10584,7 +10580,7 @@
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
         <v>210</v>
@@ -10620,7 +10616,7 @@
         <v>26</v>
       </c>
       <c r="N32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O32" t="s">
         <v>219</v>
@@ -10659,10 +10655,10 @@
         <v>20</v>
       </c>
       <c r="AA32">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AB32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC32">
         <v>13</v>
@@ -10698,7 +10694,7 @@
         <v>84</v>
       </c>
       <c r="AN32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -10710,7 +10706,7 @@
         <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C33" t="s">
         <v>211</v>
@@ -10749,10 +10745,10 @@
         <v>221</v>
       </c>
       <c r="O33" t="s">
+        <v>239</v>
+      </c>
+      <c r="P33" t="s">
         <v>240</v>
-      </c>
-      <c r="P33" t="s">
-        <v>241</v>
       </c>
       <c r="Q33" t="s">
         <v>226</v>
@@ -10776,7 +10772,7 @@
         <v>27</v>
       </c>
       <c r="X33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y33" t="s">
         <v>227</v>
@@ -10824,7 +10820,7 @@
         <v>84</v>
       </c>
       <c r="AN33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -11093,8 +11089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12761,10 +12757,10 @@
         <v>218</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E14" t="s">
         <v>142</v>
@@ -12884,13 +12880,13 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E15" t="s">
         <v>142</v>
@@ -13013,10 +13009,10 @@
         <v>218</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E16" t="s">
         <v>142</v>
@@ -13136,13 +13132,13 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E17" t="s">
         <v>142</v>
@@ -13265,10 +13261,10 @@
         <v>218</v>
       </c>
       <c r="C18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" t="s">
         <v>142</v>
@@ -13514,13 +13510,13 @@
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E20" t="s">
         <v>142</v>
@@ -13766,7 +13762,7 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C22" t="s">
         <v>200</v>
@@ -14144,7 +14140,7 @@
         <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C25" t="s">
         <v>185</v>
@@ -14270,7 +14266,7 @@
         <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C26" t="s">
         <v>203</v>
@@ -14396,13 +14392,13 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" t="s">
         <v>212</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E27" t="s">
         <v>142</v>
@@ -14441,7 +14437,7 @@
         <v>108</v>
       </c>
       <c r="Q27" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="R27" t="s">
         <v>99</v>
@@ -14462,10 +14458,10 @@
         <v>27</v>
       </c>
       <c r="X27" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y27" t="s">
         <v>237</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>238</v>
       </c>
       <c r="Z27">
         <v>25</v>
@@ -14498,10 +14494,10 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AK27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL27">
         <v>5</v>
@@ -14510,7 +14506,7 @@
         <v>84</v>
       </c>
       <c r="AN27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -14522,7 +14518,7 @@
         <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" t="s">
         <v>217</v>
@@ -14579,7 +14575,7 @@
         <v>230</v>
       </c>
       <c r="U28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V28" t="s">
         <v>27</v>
@@ -14648,7 +14644,7 @@
         <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -14717,7 +14713,7 @@
         <v>224</v>
       </c>
       <c r="Y29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Z29">
         <v>20</v>
@@ -14774,13 +14770,13 @@
         <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E30" t="s">
         <v>142</v>
@@ -14888,7 +14884,7 @@
         <v>84</v>
       </c>
       <c r="AN30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -14900,7 +14896,7 @@
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C31" t="s">
         <v>209</v>
@@ -14948,7 +14944,7 @@
         <v>110</v>
       </c>
       <c r="R31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S31" t="s">
         <v>27</v>
@@ -15014,7 +15010,7 @@
         <v>84</v>
       </c>
       <c r="AN31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -15026,7 +15022,7 @@
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
         <v>210</v>
@@ -15062,7 +15058,7 @@
         <v>26</v>
       </c>
       <c r="N32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O32" t="s">
         <v>219</v>
@@ -15101,10 +15097,10 @@
         <v>20</v>
       </c>
       <c r="AA32">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AB32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC32">
         <v>13</v>
@@ -15140,7 +15136,7 @@
         <v>84</v>
       </c>
       <c r="AN32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -15152,7 +15148,7 @@
         <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C33" t="s">
         <v>211</v>
@@ -15191,10 +15187,10 @@
         <v>221</v>
       </c>
       <c r="O33" t="s">
+        <v>239</v>
+      </c>
+      <c r="P33" t="s">
         <v>240</v>
-      </c>
-      <c r="P33" t="s">
-        <v>241</v>
       </c>
       <c r="Q33" t="s">
         <v>226</v>
@@ -15218,7 +15214,7 @@
         <v>27</v>
       </c>
       <c r="X33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y33" t="s">
         <v>227</v>
@@ -15266,7 +15262,7 @@
         <v>84</v>
       </c>
       <c r="AN33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO33">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427E423D-6F4F-423F-A67E-7EF1F004A1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A9261-4AC1-4C9B-89D9-CA930B6E9D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="25575" windowHeight="14325" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2610" yWindow="1110" windowWidth="25575" windowHeight="14325" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -6647,8 +6647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -9602,7 +9602,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="M24" t="s">
         <v>26</v>
@@ -9617,7 +9617,7 @@
         <v>139</v>
       </c>
       <c r="Q24" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="R24" t="s">
         <v>27</v>
@@ -9647,16 +9647,16 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AB24">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AC24">
         <v>7</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="M25" t="s">
         <v>26</v>
@@ -9800,10 +9800,10 @@
         <v>0</v>
       </c>
       <c r="AJ25">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AK25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AL25">
         <v>7</v>
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="M26" t="s">
         <v>26</v>
@@ -9980,7 +9980,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M27" t="s">
         <v>26</v>
@@ -10106,7 +10106,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="M28" t="s">
         <v>26</v>
@@ -10232,7 +10232,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="M29" t="s">
         <v>26</v>
@@ -10358,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="M30" t="s">
         <v>26</v>
@@ -10484,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M31" t="s">
         <v>26</v>
@@ -10610,7 +10610,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M32" t="s">
         <v>26</v>
@@ -10736,7 +10736,7 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M33" t="s">
         <v>26</v>
@@ -11089,8 +11089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14044,7 +14044,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="M24" t="s">
         <v>26</v>
@@ -14059,7 +14059,7 @@
         <v>139</v>
       </c>
       <c r="Q24" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="R24" t="s">
         <v>27</v>
@@ -14089,16 +14089,16 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AB24">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AC24">
         <v>7</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -14170,7 +14170,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="M25" t="s">
         <v>26</v>
@@ -14242,10 +14242,10 @@
         <v>0</v>
       </c>
       <c r="AJ25">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AK25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AL25">
         <v>7</v>
@@ -14296,7 +14296,7 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="M26" t="s">
         <v>26</v>
@@ -14422,7 +14422,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M27" t="s">
         <v>26</v>
@@ -14548,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="M28" t="s">
         <v>26</v>
@@ -14674,7 +14674,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="M29" t="s">
         <v>26</v>
@@ -14800,7 +14800,7 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="M30" t="s">
         <v>26</v>
@@ -14926,7 +14926,7 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M31" t="s">
         <v>26</v>
@@ -15052,7 +15052,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M32" t="s">
         <v>26</v>
@@ -15178,7 +15178,7 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M33" t="s">
         <v>26</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A9261-4AC1-4C9B-89D9-CA930B6E9D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139900F0-05B3-4A2F-A40B-8F025C71EC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1110" windowWidth="25575" windowHeight="14325" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2415" yWindow="1005" windowWidth="25575" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -6647,8 +6647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10106,7 +10106,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M28" t="s">
         <v>26</v>
@@ -11089,8 +11089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14548,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M28" t="s">
         <v>26</v>

--- a/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_matplaceItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139900F0-05B3-4A2F-A40B-8F025C71EC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B61E17-3D76-4B70-BCB2-0B6904AF46CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="1005" windowWidth="25575" windowHeight="14325" activeTab="3" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2070" yWindow="660" windowWidth="25560" windowHeight="14325" activeTab="2" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="01_map_Grt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="286">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1074,18 +1074,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>マリトッツォ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モンブラ～ン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ラッテ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>玄関から出る</t>
     <rPh sb="0" eb="2">
       <t>ゲンカン</t>
@@ -1335,10 +1323,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エク・レ～ル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>MapBG_Nemofira_plain</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1657,6 +1641,68 @@
     <t>ルビー平原</t>
     <rPh sb="3" eb="5">
       <t>ヘイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>town_mini_icon2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>contest_mini_icon2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>contest_mini_icon3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>contest_mini_icon4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>oyashiki_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>oldhouse_pink_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>oldhouse_red_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>oldhouse_purple_mini_icon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夏のお店マリトッツォ</t>
+    <rPh sb="0" eb="1">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>秋のお店モンブラ～ン</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冬のお店ラッテ</t>
+    <rPh sb="0" eb="1">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミセ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1722,14 +1768,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2103,7 +2146,7 @@
         <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -2943,7 +2986,7 @@
         <v>89</v>
       </c>
       <c r="AN7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -3069,7 +3112,7 @@
         <v>84</v>
       </c>
       <c r="AN8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -3195,7 +3238,7 @@
         <v>84</v>
       </c>
       <c r="AN9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -3321,7 +3364,7 @@
         <v>84</v>
       </c>
       <c r="AN10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -3447,7 +3490,7 @@
         <v>84</v>
       </c>
       <c r="AN11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -3573,7 +3616,7 @@
         <v>91</v>
       </c>
       <c r="AN12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -3699,7 +3742,7 @@
         <v>87</v>
       </c>
       <c r="AN13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -3825,7 +3868,7 @@
         <v>88</v>
       </c>
       <c r="AN14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3951,7 +3994,7 @@
         <v>84</v>
       </c>
       <c r="AN15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -4077,7 +4120,7 @@
         <v>84</v>
       </c>
       <c r="AN16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -4203,7 +4246,7 @@
         <v>84</v>
       </c>
       <c r="AN17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -4329,7 +4372,7 @@
         <v>84</v>
       </c>
       <c r="AN18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO18">
         <v>1</v>
@@ -4404,7 +4447,7 @@
         <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -5244,7 +5287,7 @@
         <v>89</v>
       </c>
       <c r="AN7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -5370,7 +5413,7 @@
         <v>84</v>
       </c>
       <c r="AN8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -5496,7 +5539,7 @@
         <v>84</v>
       </c>
       <c r="AN9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -5622,7 +5665,7 @@
         <v>84</v>
       </c>
       <c r="AN10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -5748,7 +5791,7 @@
         <v>84</v>
       </c>
       <c r="AN11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -5874,7 +5917,7 @@
         <v>91</v>
       </c>
       <c r="AN12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -6000,7 +6043,7 @@
         <v>87</v>
       </c>
       <c r="AN13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -6126,7 +6169,7 @@
         <v>88</v>
       </c>
       <c r="AN14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -6252,7 +6295,7 @@
         <v>84</v>
       </c>
       <c r="AN15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -6378,7 +6421,7 @@
         <v>84</v>
       </c>
       <c r="AN16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -6504,7 +6547,7 @@
         <v>84</v>
       </c>
       <c r="AN17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -6630,7 +6673,7 @@
         <v>84</v>
       </c>
       <c r="AN18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO18">
         <v>1</v>
@@ -6647,8 +6690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE7BC7-74FC-4400-A474-EA5B977D362B}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6704,7 +6747,7 @@
         <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -6805,8 +6848,8 @@
       <c r="C2" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>214</v>
+      <c r="D2" t="s">
+        <v>210</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -6926,13 +6969,13 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
         <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="E3" t="s">
         <v>58</v>
@@ -7052,13 +7095,13 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
         <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
@@ -7178,13 +7221,13 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="E5" t="s">
         <v>58</v>
@@ -7310,7 +7353,7 @@
         <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
@@ -7433,10 +7476,10 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" t="s">
         <v>171</v>
-      </c>
-      <c r="D7" t="s">
-        <v>174</v>
       </c>
       <c r="E7" t="s">
         <v>58</v>
@@ -7556,13 +7599,13 @@
         <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" t="s">
         <v>172</v>
-      </c>
-      <c r="D8" t="s">
-        <v>175</v>
       </c>
       <c r="E8" t="s">
         <v>58</v>
@@ -7685,10 +7728,10 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" t="s">
         <v>173</v>
-      </c>
-      <c r="D9" t="s">
-        <v>176</v>
       </c>
       <c r="E9" t="s">
         <v>58</v>
@@ -7808,10 +7851,10 @@
         <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
         <v>157</v>
@@ -7922,7 +7965,7 @@
         <v>84</v>
       </c>
       <c r="AN10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -7934,13 +7977,13 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" t="s">
         <v>179</v>
-      </c>
-      <c r="D11" t="s">
-        <v>182</v>
       </c>
       <c r="E11" t="s">
         <v>48</v>
@@ -8048,7 +8091,7 @@
         <v>84</v>
       </c>
       <c r="AN11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -8060,13 +8103,13 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
         <v>180</v>
-      </c>
-      <c r="D12" t="s">
-        <v>183</v>
       </c>
       <c r="E12" t="s">
         <v>48</v>
@@ -8174,7 +8217,7 @@
         <v>84</v>
       </c>
       <c r="AN12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -8186,13 +8229,13 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" t="s">
         <v>181</v>
-      </c>
-      <c r="D13" t="s">
-        <v>184</v>
       </c>
       <c r="E13" t="s">
         <v>48</v>
@@ -8300,7 +8343,7 @@
         <v>84</v>
       </c>
       <c r="AN13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -8312,13 +8355,13 @@
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E14" t="s">
         <v>48</v>
@@ -8426,7 +8469,7 @@
         <v>84</v>
       </c>
       <c r="AN14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -8438,13 +8481,13 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E15" t="s">
         <v>48</v>
@@ -8552,7 +8595,7 @@
         <v>84</v>
       </c>
       <c r="AN15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -8564,13 +8607,13 @@
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
@@ -8678,7 +8721,7 @@
         <v>84</v>
       </c>
       <c r="AN16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -8690,13 +8733,13 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C17" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D17" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E17" t="s">
         <v>48</v>
@@ -8804,7 +8847,7 @@
         <v>84</v>
       </c>
       <c r="AN17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -8816,13 +8859,13 @@
         <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="C18" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D18" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E18" t="s">
         <v>48</v>
@@ -8930,7 +8973,7 @@
         <v>84</v>
       </c>
       <c r="AN18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -9068,13 +9111,13 @@
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E20" t="s">
         <v>151</v>
@@ -9197,10 +9240,10 @@
         <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s">
         <v>151</v>
@@ -9320,13 +9363,13 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
@@ -9449,10 +9492,10 @@
         <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E23" t="s">
         <v>94</v>
@@ -9575,7 +9618,7 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D24" t="s">
         <v>152</v>
@@ -9686,7 +9729,7 @@
         <v>89</v>
       </c>
       <c r="AN24" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -9698,10 +9741,10 @@
         <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D25" t="s">
         <v>153</v>
@@ -9752,7 +9795,7 @@
         <v>27</v>
       </c>
       <c r="T25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U25" t="s">
         <v>27</v>
@@ -9812,7 +9855,7 @@
         <v>84</v>
       </c>
       <c r="AN25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -9824,13 +9867,13 @@
         <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E26" t="s">
         <v>116</v>
@@ -9866,7 +9909,7 @@
         <v>73</v>
       </c>
       <c r="P26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q26" t="s">
         <v>113</v>
@@ -9890,7 +9933,7 @@
         <v>27</v>
       </c>
       <c r="X26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Y26" t="s">
         <v>136</v>
@@ -9938,7 +9981,7 @@
         <v>91</v>
       </c>
       <c r="AN26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -9950,13 +9993,13 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D27" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E27" t="s">
         <v>50</v>
@@ -10019,7 +10062,7 @@
         <v>111</v>
       </c>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Z27">
         <v>25</v>
@@ -10064,7 +10107,7 @@
         <v>84</v>
       </c>
       <c r="AN27" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -10076,13 +10119,13 @@
         <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E28" t="s">
         <v>116</v>
@@ -10094,7 +10137,7 @@
         <v>200</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -10130,10 +10173,10 @@
         <v>74</v>
       </c>
       <c r="T28" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="U28" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="V28" t="s">
         <v>27</v>
@@ -10190,7 +10233,7 @@
         <v>84</v>
       </c>
       <c r="AN28" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -10202,13 +10245,13 @@
         <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E29" t="s">
         <v>50</v>
@@ -10220,7 +10263,7 @@
         <v>300</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -10238,10 +10281,10 @@
         <v>26</v>
       </c>
       <c r="N29" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O29" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P29" t="s">
         <v>25</v>
@@ -10250,11 +10293,11 @@
         <v>137</v>
       </c>
       <c r="R29" t="s">
+        <v>227</v>
+      </c>
+      <c r="S29" t="s">
         <v>231</v>
       </c>
-      <c r="S29" t="s">
-        <v>235</v>
-      </c>
       <c r="T29" t="s">
         <v>27</v>
       </c>
@@ -10268,10 +10311,10 @@
         <v>27</v>
       </c>
       <c r="X29" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Y29" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Z29">
         <v>20</v>
@@ -10316,7 +10359,7 @@
         <v>84</v>
       </c>
       <c r="AN29" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -10328,16 +10371,16 @@
         <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E30" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F30">
         <v>30</v>
@@ -10364,7 +10407,7 @@
         <v>26</v>
       </c>
       <c r="N30" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O30" t="s">
         <v>27</v>
@@ -10394,7 +10437,7 @@
         <v>27</v>
       </c>
       <c r="X30" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Y30" t="s">
         <v>27</v>
@@ -10442,7 +10485,7 @@
         <v>84</v>
       </c>
       <c r="AN30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -10454,13 +10497,13 @@
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E31" t="s">
         <v>116</v>
@@ -10472,7 +10515,7 @@
         <v>500</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -10490,10 +10533,10 @@
         <v>26</v>
       </c>
       <c r="N31" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O31" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P31" t="s">
         <v>138</v>
@@ -10502,7 +10545,7 @@
         <v>110</v>
       </c>
       <c r="R31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="S31" t="s">
         <v>27</v>
@@ -10511,7 +10554,7 @@
         <v>129</v>
       </c>
       <c r="U31" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="V31" t="s">
         <v>27</v>
@@ -10520,10 +10563,10 @@
         <v>27</v>
       </c>
       <c r="X31" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Y31" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Z31">
         <v>20</v>
@@ -10568,7 +10611,7 @@
         <v>84</v>
       </c>
       <c r="AN31" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -10580,13 +10623,13 @@
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E32" t="s">
         <v>116</v>
@@ -10598,7 +10641,7 @@
         <v>800</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -10616,13 +10659,13 @@
         <v>26</v>
       </c>
       <c r="N32" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P32" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q32" t="s">
         <v>70</v>
@@ -10646,7 +10689,7 @@
         <v>27</v>
       </c>
       <c r="X32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Y32" t="s">
         <v>27</v>
@@ -10694,7 +10737,7 @@
         <v>84</v>
       </c>
       <c r="AN32" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -10706,13 +10749,13 @@
         <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D33" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E33" t="s">
         <v>50</v>
@@ -10724,7 +10767,7 @@
         <v>1200</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -10742,16 +10785,16 @@
         <v>26</v>
       </c>
       <c r="N33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O33" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P33" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q33" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R33" t="s">
         <v>27</v>
@@ -10772,10 +10815,10 @@
         <v>27</v>
       </c>
       <c r="X33" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Y33" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Z33">
         <v>40</v>
@@ -10820,7 +10863,7 @@
         <v>84</v>
       </c>
       <c r="AN33" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -10946,7 +10989,7 @@
         <v>84</v>
       </c>
       <c r="AN34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO34">
         <v>0</v>
@@ -11072,7 +11115,7 @@
         <v>84</v>
       </c>
       <c r="AN35" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO35">
         <v>1</v>
@@ -11089,8 +11132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD14E5B-6BFE-4D20-B771-5A2DB6950621}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11146,7 +11189,7 @@
         <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -11248,7 +11291,7 @@
         <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
         <v>142</v>
@@ -11368,13 +11411,13 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
         <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="E3" t="s">
         <v>142</v>
@@ -11494,13 +11537,13 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
         <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
         <v>142</v>
@@ -11620,13 +11663,13 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="E5" t="s">
         <v>142</v>
@@ -11752,7 +11795,7 @@
         <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
         <v>142</v>
@@ -11875,10 +11918,10 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" t="s">
         <v>171</v>
-      </c>
-      <c r="D7" t="s">
-        <v>174</v>
       </c>
       <c r="E7" t="s">
         <v>142</v>
@@ -11998,13 +12041,13 @@
         <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" t="s">
         <v>172</v>
-      </c>
-      <c r="D8" t="s">
-        <v>175</v>
       </c>
       <c r="E8" t="s">
         <v>142</v>
@@ -12127,10 +12170,10 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" t="s">
         <v>173</v>
-      </c>
-      <c r="D9" t="s">
-        <v>176</v>
       </c>
       <c r="E9" t="s">
         <v>142</v>
@@ -12250,10 +12293,10 @@
         <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
         <v>157</v>
@@ -12364,7 +12407,7 @@
         <v>84</v>
       </c>
       <c r="AN10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -12376,13 +12419,13 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" t="s">
         <v>179</v>
-      </c>
-      <c r="D11" t="s">
-        <v>182</v>
       </c>
       <c r="E11" t="s">
         <v>142</v>
@@ -12490,7 +12533,7 @@
         <v>84</v>
       </c>
       <c r="AN11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -12502,13 +12545,13 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
         <v>180</v>
-      </c>
-      <c r="D12" t="s">
-        <v>183</v>
       </c>
       <c r="E12" t="s">
         <v>142</v>
@@ -12616,7 +12659,7 @@
         <v>84</v>
       </c>
       <c r="AN12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -12628,13 +12671,13 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" t="s">
         <v>181</v>
-      </c>
-      <c r="D13" t="s">
-        <v>184</v>
       </c>
       <c r="E13" t="s">
         <v>142</v>
@@ -12742,7 +12785,7 @@
         <v>84</v>
       </c>
       <c r="AN13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -12754,13 +12797,13 @@
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E14" t="s">
         <v>142</v>
@@ -12868,7 +12911,7 @@
         <v>84</v>
       </c>
       <c r="AN14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -12880,13 +12923,13 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E15" t="s">
         <v>142</v>
@@ -12994,7 +13037,7 @@
         <v>84</v>
       </c>
       <c r="AN15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -13006,13 +13049,13 @@
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E16" t="s">
         <v>142</v>
@@ -13120,7 +13163,7 @@
         <v>84</v>
       </c>
       <c r="AN16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -13132,13 +13175,13 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C17" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D17" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E17" t="s">
         <v>142</v>
@@ -13246,7 +13289,7 @@
         <v>84</v>
       </c>
       <c r="AN17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -13258,13 +13301,13 @@
         <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="C18" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D18" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E18" t="s">
         <v>142</v>
@@ -13372,7 +13415,7 @@
         <v>84</v>
       </c>
       <c r="AN18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -13510,13 +13553,13 @@
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E20" t="s">
         <v>142</v>
@@ -13639,10 +13682,10 @@
         <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s">
         <v>142</v>
@@ -13762,13 +13805,13 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E22" t="s">
         <v>142</v>
@@ -13891,10 +13934,10 @@
         <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E23" t="s">
         <v>142</v>
@@ -14017,7 +14060,7 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D24" t="s">
         <v>152</v>
@@ -14128,7 +14171,7 @@
         <v>89</v>
       </c>
       <c r="AN24" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -14140,10 +14183,10 @@
         <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D25" t="s">
         <v>153</v>
@@ -14194,7 +14237,7 @@
         <v>27</v>
       </c>
       <c r="T25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U25" t="s">
         <v>27</v>
@@ -14254,7 +14297,7 @@
         <v>84</v>
       </c>
       <c r="AN25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -14266,13 +14309,13 @@
         <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E26" t="s">
         <v>142</v>
@@ -14308,7 +14351,7 @@
         <v>73</v>
       </c>
       <c r="P26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q26" t="s">
         <v>113</v>
@@ -14332,7 +14375,7 @@
         <v>27</v>
       </c>
       <c r="X26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Y26" t="s">
         <v>136</v>
@@ -14380,7 +14423,7 @@
         <v>91</v>
       </c>
       <c r="AN26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -14392,13 +14435,13 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D27" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E27" t="s">
         <v>142</v>
@@ -14461,7 +14504,7 @@
         <v>111</v>
       </c>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Z27">
         <v>25</v>
@@ -14506,7 +14549,7 @@
         <v>84</v>
       </c>
       <c r="AN27" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -14518,13 +14561,13 @@
         <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E28" t="s">
         <v>142</v>
@@ -14536,7 +14579,7 @@
         <v>200</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -14572,10 +14615,10 @@
         <v>74</v>
       </c>
       <c r="T28" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="U28" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="V28" t="s">
         <v>27</v>
@@ -14632,7 +14675,7 @@
         <v>84</v>
       </c>
       <c r="AN28" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -14644,13 +14687,13 @@
         <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E29" t="s">
         <v>142</v>
@@ -14662,7 +14705,7 @@
         <v>300</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -14680,10 +14723,10 @@
         <v>26</v>
       </c>
       <c r="N29" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O29" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P29" t="s">
         <v>25</v>
@@ -14692,11 +14735,11 @@
         <v>137</v>
       </c>
       <c r="R29" t="s">
+        <v>227</v>
+      </c>
+      <c r="S29" t="s">
         <v>231</v>
       </c>
-      <c r="S29" t="s">
-        <v>235</v>
-      </c>
       <c r="T29" t="s">
         <v>27</v>
       </c>
@@ -14710,10 +14753,10 @@
         <v>27</v>
       </c>
       <c r="X29" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Y29" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Z29">
         <v>20</v>
@@ -14758,7 +14801,7 @@
         <v>84</v>
       </c>
       <c r="AN29" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -14770,13 +14813,13 @@
         <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E30" t="s">
         <v>142</v>
@@ -14806,7 +14849,7 @@
         <v>26</v>
       </c>
       <c r="N30" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O30" t="s">
         <v>27</v>
@@ -14836,7 +14879,7 @@
         <v>27</v>
       </c>
       <c r="X30" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Y30" t="s">
         <v>27</v>
@@ -14884,7 +14927,7 @@
         <v>84</v>
       </c>
       <c r="AN30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -14896,13 +14939,13 @@
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E31" t="s">
         <v>142</v>
@@ -14914,7 +14957,7 @@
         <v>500</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -14932,10 +14975,10 @@
         <v>26</v>
       </c>
       <c r="N31" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O31" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P31" t="s">
         <v>138</v>
@@ -14944,7 +14987,7 @@
         <v>110</v>
       </c>
       <c r="R31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="S31" t="s">
         <v>27</v>
@@ -14953,7 +14996,7 @@
         <v>129</v>
       </c>
       <c r="U31" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="V31" t="s">
         <v>27</v>
@@ -14962,10 +15005,10 @@
         <v>27</v>
       </c>
       <c r="X31" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Y31" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Z31">
         <v>20</v>
@@ -15010,7 +15053,7 @@
         <v>84</v>
       </c>
       <c r="AN31" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -15022,13 +15065,13 @@
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E32" t="s">
         <v>142</v>
@@ -15040,7 +15083,7 @@
         <v>800</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -15058,13 +15101,13 @@
         <v>26</v>
       </c>
       <c r="N32" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P32" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q32" t="s">
         <v>70</v>
@@ -15088,7 +15131,7 @@
         <v>27</v>
       </c>
       <c r="X32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Y32" t="s">
         <v>27</v>
@@ -15136,7 +15179,7 @@
         <v>84</v>
       </c>
       <c r="AN32" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -15148,13 +15191,13 @@
         <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D33" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E33" t="s">
         <v>142</v>
@@ -15166,7 +15209,7 @@
         <v>1200</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -15184,16 +15227,16 @@
         <v>26</v>
       </c>
       <c r="N33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O33" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P33" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q33" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R33" t="s">
         <v>27</v>
@@ -15214,10 +15257,10 @@
         <v>27</v>
       </c>
       <c r="X33" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Y33" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Z33">
         <v>40</v>
@@ -15262,7 +15305,7 @@
         <v>84</v>
       </c>
       <c r="AN33" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -15388,7 +15431,7 @@
         <v>84</v>
       </c>
       <c r="AN34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO34">
         <v>0</v>
@@ -15514,7 +15557,7 @@
         <v>84</v>
       </c>
       <c r="AN35" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AO35">
         <v>1</v>
